--- a/BackTest/2019-10-14 BackTest MTL.xlsx
+++ b/BackTest/2019-10-14 BackTest MTL.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>409.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>409.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>409</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>5</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>408.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>5</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>408.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>6</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>408.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>408.9</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>7</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
       <c r="L19" t="n">
         <v>409.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>9</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
       <c r="L20" t="n">
         <v>409.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>9</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
       <c r="L21" t="n">
         <v>409.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>10</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-20</v>
+      </c>
       <c r="L22" t="n">
         <v>409.3</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>12</v>
       </c>
       <c r="K24" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L24" t="n">
         <v>409.2</v>
@@ -1515,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="K25" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L25" t="n">
         <v>409.1</v>
@@ -1564,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="n">
-        <v>-46.66666666666666</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L26" t="n">
         <v>408.5</v>
@@ -1613,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="K27" t="n">
-        <v>-29.41176470588236</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L27" t="n">
         <v>408</v>
@@ -1662,7 +1684,7 @@
         <v>21</v>
       </c>
       <c r="K28" t="n">
-        <v>-11.11111111111111</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L28" t="n">
         <v>407.7</v>
@@ -1711,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="K29" t="n">
-        <v>-15.78947368421053</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L29" t="n">
         <v>407.2</v>
@@ -1760,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L30" t="n">
         <v>407.1</v>
@@ -1860,7 +1882,7 @@
         <v>26</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L32" t="n">
         <v>406.8</v>
@@ -1911,7 +1933,7 @@
         <v>28</v>
       </c>
       <c r="K33" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>406.7</v>
@@ -1962,7 +1984,7 @@
         <v>28</v>
       </c>
       <c r="K34" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>406.7</v>
@@ -2013,7 +2035,7 @@
         <v>30</v>
       </c>
       <c r="K35" t="n">
-        <v>-12</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L35" t="n">
         <v>406.5</v>
@@ -2064,7 +2086,7 @@
         <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>-12</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L36" t="n">
         <v>406.8</v>
@@ -2115,7 +2137,7 @@
         <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>-16.66666666666666</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L37" t="n">
         <v>406.9</v>
@@ -2166,7 +2188,7 @@
         <v>31</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L38" t="n">
         <v>406.7</v>
@@ -2217,7 +2239,7 @@
         <v>31</v>
       </c>
       <c r="K39" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L39" t="n">
         <v>406.6</v>
@@ -2268,7 +2290,7 @@
         <v>32</v>
       </c>
       <c r="K40" t="n">
-        <v>-21.73913043478261</v>
+        <v>-50</v>
       </c>
       <c r="L40" t="n">
         <v>406.2</v>
@@ -2319,7 +2341,7 @@
         <v>32</v>
       </c>
       <c r="K41" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>405.8</v>
@@ -2370,7 +2392,7 @@
         <v>33</v>
       </c>
       <c r="K42" t="n">
-        <v>-13.04347826086956</v>
+        <v>-60</v>
       </c>
       <c r="L42" t="n">
         <v>405.7</v>
@@ -2421,7 +2443,7 @@
         <v>33</v>
       </c>
       <c r="K43" t="n">
-        <v>-18.18181818181818</v>
+        <v>-60</v>
       </c>
       <c r="L43" t="n">
         <v>405.4</v>
@@ -2472,7 +2494,7 @@
         <v>34</v>
       </c>
       <c r="K44" t="n">
-        <v>-18.18181818181818</v>
+        <v>-50</v>
       </c>
       <c r="L44" t="n">
         <v>405</v>
@@ -2523,7 +2545,7 @@
         <v>35</v>
       </c>
       <c r="K45" t="n">
-        <v>-13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L45" t="n">
         <v>404.9</v>
@@ -2574,7 +2596,7 @@
         <v>37</v>
       </c>
       <c r="K46" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L46" t="n">
         <v>405</v>
@@ -2625,7 +2647,7 @@
         <v>38</v>
       </c>
       <c r="K47" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>405</v>
@@ -2676,7 +2698,7 @@
         <v>40</v>
       </c>
       <c r="K48" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L48" t="n">
         <v>404.9</v>
@@ -2727,7 +2749,7 @@
         <v>40</v>
       </c>
       <c r="K49" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>404.8</v>
@@ -2778,7 +2800,7 @@
         <v>40</v>
       </c>
       <c r="K50" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>404.8</v>
@@ -2829,7 +2851,7 @@
         <v>41</v>
       </c>
       <c r="K51" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>404.9</v>
@@ -2880,7 +2902,7 @@
         <v>42</v>
       </c>
       <c r="K52" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L52" t="n">
         <v>404.8</v>
@@ -2931,7 +2953,7 @@
         <v>45</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L53" t="n">
         <v>405</v>
@@ -2982,7 +3004,7 @@
         <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>405.1</v>
@@ -3135,7 +3157,7 @@
         <v>54</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>405.4</v>
@@ -3186,7 +3208,7 @@
         <v>55</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L58" t="n">
         <v>405.5</v>
@@ -3237,7 +3259,7 @@
         <v>56</v>
       </c>
       <c r="K59" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>405.5</v>
@@ -3288,7 +3310,7 @@
         <v>57</v>
       </c>
       <c r="K60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>405.6</v>
@@ -3339,7 +3361,7 @@
         <v>57</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>405.6</v>
@@ -3390,7 +3412,7 @@
         <v>58</v>
       </c>
       <c r="K62" t="n">
-        <v>-4</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L62" t="n">
         <v>405.6</v>
@@ -3441,7 +3463,7 @@
         <v>58</v>
       </c>
       <c r="K63" t="n">
-        <v>-4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L63" t="n">
         <v>405.3</v>
@@ -3492,7 +3514,7 @@
         <v>58</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L64" t="n">
         <v>405.2</v>
@@ -3543,7 +3565,7 @@
         <v>58</v>
       </c>
       <c r="K65" t="n">
-        <v>-4.347826086956522</v>
+        <v>-50</v>
       </c>
       <c r="L65" t="n">
         <v>404.7</v>
@@ -3594,7 +3616,7 @@
         <v>59</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L66" t="n">
         <v>404.6</v>
@@ -3645,7 +3667,7 @@
         <v>60</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L67" t="n">
         <v>404.6</v>
@@ -3696,7 +3718,7 @@
         <v>60</v>
       </c>
       <c r="K68" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L68" t="n">
         <v>404.7</v>
@@ -3747,7 +3769,7 @@
         <v>61</v>
       </c>
       <c r="K69" t="n">
-        <v>4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>404.8</v>
@@ -3798,7 +3820,7 @@
         <v>63</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>404.6</v>
@@ -3849,7 +3871,7 @@
         <v>68</v>
       </c>
       <c r="K71" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L71" t="n">
         <v>404.9</v>
@@ -3900,7 +3922,7 @@
         <v>68</v>
       </c>
       <c r="K72" t="n">
-        <v>15.38461538461539</v>
+        <v>40</v>
       </c>
       <c r="L72" t="n">
         <v>405.3</v>
@@ -3951,7 +3973,7 @@
         <v>68</v>
       </c>
       <c r="K73" t="n">
-        <v>4.347826086956522</v>
+        <v>40</v>
       </c>
       <c r="L73" t="n">
         <v>405.7</v>
@@ -4002,7 +4024,7 @@
         <v>68</v>
       </c>
       <c r="K74" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L74" t="n">
         <v>406.1</v>
@@ -4053,7 +4075,7 @@
         <v>69</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L75" t="n">
         <v>406.6</v>
@@ -4104,7 +4126,7 @@
         <v>70</v>
       </c>
       <c r="K76" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L76" t="n">
         <v>407.1</v>
@@ -4155,7 +4177,7 @@
         <v>72</v>
       </c>
       <c r="K77" t="n">
-        <v>11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L77" t="n">
         <v>407.3</v>
@@ -4206,7 +4228,7 @@
         <v>74</v>
       </c>
       <c r="K78" t="n">
-        <v>26.31578947368421</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L78" t="n">
         <v>407.7</v>
@@ -4257,7 +4279,7 @@
         <v>74</v>
       </c>
       <c r="K79" t="n">
-        <v>33.33333333333333</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L79" t="n">
         <v>408.2</v>
@@ -4308,7 +4330,7 @@
         <v>74</v>
       </c>
       <c r="K80" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>408.9</v>
@@ -4359,7 +4381,7 @@
         <v>74</v>
       </c>
       <c r="K81" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>409.1</v>
@@ -4410,7 +4432,7 @@
         <v>76</v>
       </c>
       <c r="K82" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>409.1</v>
@@ -4461,7 +4483,7 @@
         <v>77</v>
       </c>
       <c r="K83" t="n">
-        <v>26.31578947368421</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L83" t="n">
         <v>409.2</v>
@@ -4512,7 +4534,7 @@
         <v>77</v>
       </c>
       <c r="K84" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>409.3</v>
@@ -4563,7 +4585,7 @@
         <v>78</v>
       </c>
       <c r="K85" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="L85" t="n">
         <v>409.2</v>
@@ -4614,7 +4636,7 @@
         <v>80</v>
       </c>
       <c r="K86" t="n">
-        <v>23.80952380952381</v>
+        <v>25</v>
       </c>
       <c r="L86" t="n">
         <v>409.2</v>
@@ -4665,7 +4687,7 @@
         <v>81</v>
       </c>
       <c r="K87" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L87" t="n">
         <v>409.3</v>
@@ -4716,7 +4738,7 @@
         <v>81</v>
       </c>
       <c r="K88" t="n">
-        <v>14.28571428571428</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L88" t="n">
         <v>409.2</v>
@@ -4767,7 +4789,7 @@
         <v>81</v>
       </c>
       <c r="K89" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>409.1</v>
@@ -4818,7 +4840,7 @@
         <v>82</v>
       </c>
       <c r="K90" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>409.1</v>
@@ -4869,7 +4891,7 @@
         <v>83</v>
       </c>
       <c r="K91" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L91" t="n">
         <v>409</v>
@@ -4920,7 +4942,7 @@
         <v>83</v>
       </c>
       <c r="K92" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>409.1</v>
@@ -4971,7 +4993,7 @@
         <v>83</v>
       </c>
       <c r="K93" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>409.1</v>
@@ -5022,7 +5044,7 @@
         <v>83</v>
       </c>
       <c r="K94" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L94" t="n">
         <v>409.1</v>
@@ -5073,7 +5095,7 @@
         <v>83</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>409.2</v>
@@ -5124,7 +5146,7 @@
         <v>83</v>
       </c>
       <c r="K96" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>409.1</v>
@@ -5175,7 +5197,7 @@
         <v>84</v>
       </c>
       <c r="K97" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>409.2</v>
@@ -5226,7 +5248,7 @@
         <v>85</v>
       </c>
       <c r="K98" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>409.2</v>
@@ -5277,7 +5299,7 @@
         <v>87</v>
       </c>
       <c r="K99" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L99" t="n">
         <v>409</v>
@@ -5328,7 +5350,7 @@
         <v>88</v>
       </c>
       <c r="K100" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L100" t="n">
         <v>408.8</v>
@@ -5379,7 +5401,7 @@
         <v>89</v>
       </c>
       <c r="K101" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>408.6</v>
@@ -5430,7 +5452,7 @@
         <v>89</v>
       </c>
       <c r="K102" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>408.4</v>
@@ -5481,7 +5503,7 @@
         <v>90</v>
       </c>
       <c r="K103" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L103" t="n">
         <v>408.3</v>
@@ -5532,7 +5554,7 @@
         <v>90</v>
       </c>
       <c r="K104" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L104" t="n">
         <v>408.2</v>
@@ -5583,7 +5605,7 @@
         <v>90</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L105" t="n">
         <v>408.1</v>
@@ -5685,7 +5707,7 @@
         <v>92</v>
       </c>
       <c r="K107" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L107" t="n">
         <v>408.2</v>
@@ -5736,7 +5758,7 @@
         <v>93</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>408.2</v>
@@ -5787,7 +5809,7 @@
         <v>94</v>
       </c>
       <c r="K109" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>408.3</v>
@@ -5838,7 +5860,7 @@
         <v>94</v>
       </c>
       <c r="K110" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L110" t="n">
         <v>408.3</v>
@@ -5889,7 +5911,7 @@
         <v>94</v>
       </c>
       <c r="K111" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L111" t="n">
         <v>408.4</v>
@@ -5940,7 +5962,7 @@
         <v>94</v>
       </c>
       <c r="K112" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>408.5</v>
@@ -5991,7 +6013,7 @@
         <v>95</v>
       </c>
       <c r="K113" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L113" t="n">
         <v>408.4</v>
@@ -6042,7 +6064,7 @@
         <v>97</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L114" t="n">
         <v>408.5</v>
@@ -6093,7 +6115,7 @@
         <v>98</v>
       </c>
       <c r="K115" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>408.5</v>
@@ -6144,7 +6166,7 @@
         <v>98</v>
       </c>
       <c r="K116" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>408.3</v>
@@ -6195,7 +6217,7 @@
         <v>98</v>
       </c>
       <c r="K117" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L117" t="n">
         <v>408.1</v>
@@ -6246,7 +6268,7 @@
         <v>98</v>
       </c>
       <c r="K118" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>408</v>
@@ -6297,7 +6319,7 @@
         <v>99</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L119" t="n">
         <v>407.9</v>
@@ -6348,7 +6370,7 @@
         <v>99</v>
       </c>
       <c r="K120" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L120" t="n">
         <v>407.8</v>
@@ -6399,7 +6421,7 @@
         <v>99</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L121" t="n">
         <v>407.7</v>
@@ -6501,7 +6523,7 @@
         <v>99</v>
       </c>
       <c r="K123" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L123" t="n">
         <v>407.6</v>
@@ -6654,7 +6676,7 @@
         <v>100</v>
       </c>
       <c r="K126" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>407.5</v>
@@ -6756,7 +6778,7 @@
         <v>103</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L128" t="n">
         <v>407.5</v>
@@ -6807,7 +6829,7 @@
         <v>103</v>
       </c>
       <c r="K129" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L129" t="n">
         <v>407.7</v>
@@ -6858,7 +6880,7 @@
         <v>104</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L130" t="n">
         <v>407.8</v>
@@ -6909,7 +6931,7 @@
         <v>104</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L131" t="n">
         <v>407.9</v>
@@ -6960,7 +6982,7 @@
         <v>104</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L132" t="n">
         <v>408</v>
@@ -7011,7 +7033,7 @@
         <v>104</v>
       </c>
       <c r="K133" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>408.1</v>
@@ -7062,7 +7084,7 @@
         <v>104</v>
       </c>
       <c r="K134" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>408.1</v>
@@ -7113,7 +7135,7 @@
         <v>105</v>
       </c>
       <c r="K135" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L135" t="n">
         <v>408.2</v>
@@ -7164,7 +7186,7 @@
         <v>105</v>
       </c>
       <c r="K136" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L136" t="n">
         <v>408.3</v>
@@ -7215,7 +7237,7 @@
         <v>107</v>
       </c>
       <c r="K137" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L137" t="n">
         <v>408.3</v>
@@ -7266,7 +7288,7 @@
         <v>108</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L138" t="n">
         <v>408.2</v>
@@ -7317,7 +7339,7 @@
         <v>108</v>
       </c>
       <c r="K139" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>408.1</v>
@@ -7368,7 +7390,7 @@
         <v>108</v>
       </c>
       <c r="K140" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>408.1</v>
@@ -7470,7 +7492,7 @@
         <v>110</v>
       </c>
       <c r="K142" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>408.2</v>
@@ -7521,7 +7543,7 @@
         <v>111</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>408.1</v>
@@ -7572,7 +7594,7 @@
         <v>112</v>
       </c>
       <c r="K144" t="n">
-        <v>-16.66666666666666</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L144" t="n">
         <v>407.9</v>
@@ -7623,7 +7645,7 @@
         <v>113</v>
       </c>
       <c r="K145" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L145" t="n">
         <v>407.7</v>
@@ -7674,7 +7696,7 @@
         <v>113</v>
       </c>
       <c r="K146" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>407.5</v>
@@ -7725,7 +7747,7 @@
         <v>114</v>
       </c>
       <c r="K147" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>407.4</v>
@@ -7776,7 +7798,7 @@
         <v>114</v>
       </c>
       <c r="K148" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>407.2</v>
@@ -7827,7 +7849,7 @@
         <v>114</v>
       </c>
       <c r="K149" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>407</v>
@@ -7878,7 +7900,7 @@
         <v>115</v>
       </c>
       <c r="K150" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>406.9</v>
@@ -7929,7 +7951,7 @@
         <v>115</v>
       </c>
       <c r="K151" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L151" t="n">
         <v>406.7</v>
@@ -7980,7 +8002,7 @@
         <v>117</v>
       </c>
       <c r="K152" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>406.4</v>
@@ -8031,7 +8053,7 @@
         <v>117</v>
       </c>
       <c r="K153" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L153" t="n">
         <v>406.2</v>
@@ -8082,7 +8104,7 @@
         <v>118</v>
       </c>
       <c r="K154" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>406.2</v>
@@ -8133,7 +8155,7 @@
         <v>119</v>
       </c>
       <c r="K155" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>406</v>
@@ -8286,7 +8308,7 @@
         <v>122</v>
       </c>
       <c r="K158" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>405.6</v>
@@ -8439,7 +8461,7 @@
         <v>122</v>
       </c>
       <c r="K161" t="n">
-        <v>-23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L161" t="n">
         <v>405.4</v>
@@ -8490,7 +8512,7 @@
         <v>122</v>
       </c>
       <c r="K162" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L162" t="n">
         <v>405.5</v>
@@ -8541,7 +8563,7 @@
         <v>123</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L163" t="n">
         <v>405.7</v>
@@ -8592,7 +8614,7 @@
         <v>125</v>
       </c>
       <c r="K164" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>405.6</v>
@@ -8643,7 +8665,7 @@
         <v>127</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L165" t="n">
         <v>405.8</v>
@@ -8694,7 +8716,7 @@
         <v>127</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>406.1</v>
@@ -8745,7 +8767,7 @@
         <v>128</v>
       </c>
       <c r="K167" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>406.4</v>
@@ -8796,7 +8818,7 @@
         <v>129</v>
       </c>
       <c r="K168" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L168" t="n">
         <v>406.5</v>
@@ -8847,7 +8869,7 @@
         <v>129</v>
       </c>
       <c r="K169" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L169" t="n">
         <v>406.6</v>
@@ -8898,7 +8920,7 @@
         <v>129</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L170" t="n">
         <v>406.7</v>
@@ -8949,7 +8971,7 @@
         <v>130</v>
       </c>
       <c r="K171" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L171" t="n">
         <v>406.9</v>
@@ -9000,7 +9022,7 @@
         <v>130</v>
       </c>
       <c r="K172" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L172" t="n">
         <v>407.1</v>
@@ -9051,7 +9073,7 @@
         <v>130</v>
       </c>
       <c r="K173" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L173" t="n">
         <v>407.2</v>
@@ -9102,7 +9124,7 @@
         <v>130</v>
       </c>
       <c r="K174" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>407.5</v>
@@ -9153,7 +9175,7 @@
         <v>131</v>
       </c>
       <c r="K175" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L175" t="n">
         <v>407.7</v>
@@ -9204,7 +9226,7 @@
         <v>131</v>
       </c>
       <c r="K176" t="n">
-        <v>45.45454545454545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>407.9</v>
@@ -9255,7 +9277,7 @@
         <v>131</v>
       </c>
       <c r="K177" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>408</v>
@@ -9306,7 +9328,7 @@
         <v>131</v>
       </c>
       <c r="K178" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L178" t="n">
         <v>408.2</v>
@@ -9357,7 +9379,7 @@
         <v>131</v>
       </c>
       <c r="K179" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L179" t="n">
         <v>408.4</v>
@@ -9408,7 +9430,7 @@
         <v>131</v>
       </c>
       <c r="K180" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L180" t="n">
         <v>408.6</v>
@@ -9459,7 +9481,7 @@
         <v>131</v>
       </c>
       <c r="K181" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L181" t="n">
         <v>408.7</v>
@@ -9510,7 +9532,7 @@
         <v>131</v>
       </c>
       <c r="K182" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L182" t="n">
         <v>408.8</v>
@@ -9561,7 +9583,7 @@
         <v>132</v>
       </c>
       <c r="K183" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L183" t="n">
         <v>409</v>
@@ -9612,7 +9634,7 @@
         <v>133</v>
       </c>
       <c r="K184" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>409.1</v>
@@ -9663,7 +9685,7 @@
         <v>133</v>
       </c>
       <c r="K185" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>409.1</v>
@@ -9714,7 +9736,7 @@
         <v>134</v>
       </c>
       <c r="K186" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>409.2</v>
@@ -9816,7 +9838,7 @@
         <v>134</v>
       </c>
       <c r="K188" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>409.4</v>
@@ -9867,7 +9889,7 @@
         <v>134</v>
       </c>
       <c r="K189" t="n">
-        <v>60</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>409.5</v>
@@ -9918,7 +9940,7 @@
         <v>136</v>
       </c>
       <c r="K190" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L190" t="n">
         <v>409.4</v>
@@ -9969,7 +9991,7 @@
         <v>137</v>
       </c>
       <c r="K191" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>409.4</v>
@@ -10020,7 +10042,7 @@
         <v>138</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>409.3</v>
@@ -10071,7 +10093,7 @@
         <v>139</v>
       </c>
       <c r="K193" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>409</v>
@@ -10122,7 +10144,7 @@
         <v>140</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L194" t="n">
         <v>408.9</v>
@@ -10173,7 +10195,7 @@
         <v>141</v>
       </c>
       <c r="K195" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L195" t="n">
         <v>408.7</v>
@@ -10224,7 +10246,7 @@
         <v>141</v>
       </c>
       <c r="K196" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L196" t="n">
         <v>408.4</v>
@@ -10275,7 +10297,7 @@
         <v>142</v>
       </c>
       <c r="K197" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L197" t="n">
         <v>408.2</v>
@@ -10326,7 +10348,7 @@
         <v>142</v>
       </c>
       <c r="K198" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L198" t="n">
         <v>408</v>
@@ -10377,7 +10399,7 @@
         <v>143</v>
       </c>
       <c r="K199" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L199" t="n">
         <v>407.7</v>
@@ -10428,7 +10450,7 @@
         <v>144</v>
       </c>
       <c r="K200" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L200" t="n">
         <v>407.7</v>
@@ -10530,7 +10552,7 @@
         <v>146</v>
       </c>
       <c r="K202" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L202" t="n">
         <v>407.5</v>
@@ -10581,7 +10603,7 @@
         <v>146</v>
       </c>
       <c r="K203" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>407.6</v>
@@ -10632,7 +10654,7 @@
         <v>146</v>
       </c>
       <c r="K204" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L204" t="n">
         <v>407.6</v>
@@ -10683,7 +10705,7 @@
         <v>146</v>
       </c>
       <c r="K205" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L205" t="n">
         <v>407.7</v>
@@ -10734,7 +10756,7 @@
         <v>148</v>
       </c>
       <c r="K206" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>407.6</v>
@@ -10785,7 +10807,7 @@
         <v>151</v>
       </c>
       <c r="K207" t="n">
-        <v>-5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L207" t="n">
         <v>407.7</v>
@@ -10836,7 +10858,7 @@
         <v>152</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>407.9</v>
@@ -10887,7 +10909,7 @@
         <v>154</v>
       </c>
       <c r="K209" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>408</v>
@@ -10938,7 +10960,7 @@
         <v>155</v>
       </c>
       <c r="K210" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L210" t="n">
         <v>408.1</v>
@@ -10989,7 +11011,7 @@
         <v>156</v>
       </c>
       <c r="K211" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>408.2</v>
@@ -11091,7 +11113,7 @@
         <v>157</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L213" t="n">
         <v>408.1</v>
@@ -11142,7 +11164,7 @@
         <v>157</v>
       </c>
       <c r="K214" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L214" t="n">
         <v>408</v>
@@ -11193,7 +11215,7 @@
         <v>158</v>
       </c>
       <c r="K215" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>407.8</v>
@@ -11244,7 +11266,7 @@
         <v>158</v>
       </c>
       <c r="K216" t="n">
-        <v>-5.88235294117647</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L216" t="n">
         <v>407.8</v>
@@ -11295,7 +11317,7 @@
         <v>158</v>
       </c>
       <c r="K217" t="n">
-        <v>-12.5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L217" t="n">
         <v>407.5</v>
@@ -11346,7 +11368,7 @@
         <v>159</v>
       </c>
       <c r="K218" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L218" t="n">
         <v>407</v>
@@ -11397,7 +11419,7 @@
         <v>160</v>
       </c>
       <c r="K219" t="n">
-        <v>-5.88235294117647</v>
+        <v>-60</v>
       </c>
       <c r="L219" t="n">
         <v>406.8</v>
@@ -11448,7 +11470,7 @@
         <v>162</v>
       </c>
       <c r="K220" t="n">
-        <v>-22.22222222222222</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L220" t="n">
         <v>406.3</v>
@@ -11499,7 +11521,7 @@
         <v>162</v>
       </c>
       <c r="K221" t="n">
-        <v>-17.64705882352941</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L221" t="n">
         <v>405.9</v>
@@ -11550,7 +11572,7 @@
         <v>163</v>
       </c>
       <c r="K222" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>405.6</v>
@@ -11601,7 +11623,7 @@
         <v>164</v>
       </c>
       <c r="K223" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L223" t="n">
         <v>405.5</v>
@@ -11652,7 +11674,7 @@
         <v>164</v>
       </c>
       <c r="K224" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>405.4</v>
@@ -11703,7 +11725,7 @@
         <v>165</v>
       </c>
       <c r="K225" t="n">
-        <v>-15.78947368421053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L225" t="n">
         <v>405.3</v>
@@ -11754,7 +11776,7 @@
         <v>165</v>
       </c>
       <c r="K226" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L226" t="n">
         <v>405.2</v>
@@ -11805,7 +11827,7 @@
         <v>165</v>
       </c>
       <c r="K227" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>405.1</v>
@@ -11856,7 +11878,7 @@
         <v>166</v>
       </c>
       <c r="K228" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>405.2</v>
@@ -11907,7 +11929,7 @@
         <v>166</v>
       </c>
       <c r="K229" t="n">
-        <v>-16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L229" t="n">
         <v>405.2</v>
@@ -11958,7 +11980,7 @@
         <v>168</v>
       </c>
       <c r="K230" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>405.2</v>
@@ -12009,7 +12031,7 @@
         <v>169</v>
       </c>
       <c r="K231" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>405.3</v>
@@ -12060,7 +12082,7 @@
         <v>169</v>
       </c>
       <c r="K232" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L232" t="n">
         <v>405.3</v>
@@ -12111,7 +12133,7 @@
         <v>170</v>
       </c>
       <c r="K233" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>405.3</v>
@@ -12162,7 +12184,7 @@
         <v>171</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>405.4</v>
@@ -12213,7 +12235,7 @@
         <v>171</v>
       </c>
       <c r="K235" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>405.6</v>
@@ -12264,7 +12286,7 @@
         <v>172</v>
       </c>
       <c r="K236" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L236" t="n">
         <v>405.9</v>
@@ -12315,7 +12337,7 @@
         <v>173</v>
       </c>
       <c r="K237" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L237" t="n">
         <v>406.1</v>
@@ -12417,7 +12439,7 @@
         <v>176</v>
       </c>
       <c r="K239" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>406</v>
@@ -12468,7 +12490,7 @@
         <v>176</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L240" t="n">
         <v>406</v>
@@ -12519,7 +12541,7 @@
         <v>177</v>
       </c>
       <c r="K241" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L241" t="n">
         <v>405.8</v>
@@ -12570,7 +12592,7 @@
         <v>178</v>
       </c>
       <c r="K242" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L242" t="n">
         <v>405.7</v>
@@ -12621,7 +12643,7 @@
         <v>178</v>
       </c>
       <c r="K243" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L243" t="n">
         <v>405.5</v>
@@ -12672,7 +12694,7 @@
         <v>178</v>
       </c>
       <c r="K244" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L244" t="n">
         <v>405.2</v>
@@ -12723,7 +12745,7 @@
         <v>179</v>
       </c>
       <c r="K245" t="n">
-        <v>-14.28571428571428</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L245" t="n">
         <v>404.8</v>
@@ -12774,7 +12796,7 @@
         <v>181</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L246" t="n">
         <v>404.5</v>
@@ -12825,7 +12847,7 @@
         <v>181</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L247" t="n">
         <v>404.3</v>
@@ -12876,7 +12898,7 @@
         <v>184</v>
       </c>
       <c r="K248" t="n">
-        <v>-22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L248" t="n">
         <v>403.8</v>
@@ -12927,7 +12949,7 @@
         <v>185</v>
       </c>
       <c r="K249" t="n">
-        <v>-15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L249" t="n">
         <v>403.7</v>
@@ -13029,7 +13051,7 @@
         <v>187</v>
       </c>
       <c r="K251" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L251" t="n">
         <v>403.3</v>
@@ -13080,7 +13102,7 @@
         <v>187</v>
       </c>
       <c r="K252" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>403</v>
@@ -13131,7 +13153,7 @@
         <v>189</v>
       </c>
       <c r="K253" t="n">
-        <v>-15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L253" t="n">
         <v>402.9</v>
@@ -13182,7 +13204,7 @@
         <v>189</v>
       </c>
       <c r="K254" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>402.8</v>
@@ -13233,7 +13255,7 @@
         <v>192</v>
       </c>
       <c r="K255" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L255" t="n">
         <v>402.5</v>
@@ -13284,7 +13306,7 @@
         <v>192</v>
       </c>
       <c r="K256" t="n">
-        <v>-40</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L256" t="n">
         <v>402</v>
@@ -13335,7 +13357,7 @@
         <v>192</v>
       </c>
       <c r="K257" t="n">
-        <v>-36.84210526315789</v>
+        <v>-25</v>
       </c>
       <c r="L257" t="n">
         <v>401.5</v>
@@ -13386,7 +13408,7 @@
         <v>192</v>
       </c>
       <c r="K258" t="n">
-        <v>-36.84210526315789</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L258" t="n">
         <v>401.3</v>
@@ -13437,7 +13459,7 @@
         <v>192</v>
       </c>
       <c r="K259" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>401</v>
@@ -13488,7 +13510,7 @@
         <v>192</v>
       </c>
       <c r="K260" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L260" t="n">
         <v>400.8</v>
@@ -13539,7 +13561,7 @@
         <v>193</v>
       </c>
       <c r="K261" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>400.6</v>
@@ -13590,7 +13612,7 @@
         <v>193</v>
       </c>
       <c r="K262" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L262" t="n">
         <v>400.4</v>
@@ -13641,7 +13663,7 @@
         <v>193</v>
       </c>
       <c r="K263" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L263" t="n">
         <v>400</v>
@@ -13692,7 +13714,7 @@
         <v>193</v>
       </c>
       <c r="K264" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L264" t="n">
         <v>399.6</v>
@@ -13743,7 +13765,7 @@
         <v>193</v>
       </c>
       <c r="K265" t="n">
-        <v>-28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L265" t="n">
         <v>399.5</v>
@@ -13794,7 +13816,7 @@
         <v>194</v>
       </c>
       <c r="K266" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>399.5</v>
@@ -13845,7 +13867,7 @@
         <v>194</v>
       </c>
       <c r="K267" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
         <v>399.5</v>
@@ -13896,7 +13918,7 @@
         <v>197</v>
       </c>
       <c r="K268" t="n">
-        <v>-38.46153846153847</v>
+        <v>-60</v>
       </c>
       <c r="L268" t="n">
         <v>399.2</v>
@@ -13947,7 +13969,7 @@
         <v>200</v>
       </c>
       <c r="K269" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>399.2</v>
@@ -13998,7 +14020,7 @@
         <v>200</v>
       </c>
       <c r="K270" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L270" t="n">
         <v>399.2</v>
@@ -14049,7 +14071,7 @@
         <v>200</v>
       </c>
       <c r="K271" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L271" t="n">
         <v>399.3</v>
@@ -14100,7 +14122,7 @@
         <v>200</v>
       </c>
       <c r="K272" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L272" t="n">
         <v>399.4</v>
@@ -14151,7 +14173,7 @@
         <v>200</v>
       </c>
       <c r="K273" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L273" t="n">
         <v>399.5</v>
@@ -14202,7 +14224,7 @@
         <v>200</v>
       </c>
       <c r="K274" t="n">
-        <v>-27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L274" t="n">
         <v>399.6</v>
@@ -14253,7 +14275,7 @@
         <v>201</v>
       </c>
       <c r="K275" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L275" t="n">
         <v>399.6</v>
@@ -14355,7 +14377,7 @@
         <v>202</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L277" t="n">
         <v>399.6</v>
@@ -14559,7 +14581,7 @@
         <v>203</v>
       </c>
       <c r="K281" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L281" t="n">
         <v>400</v>
@@ -14610,7 +14632,7 @@
         <v>205</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L282" t="n">
         <v>399.9</v>
@@ -14661,7 +14683,7 @@
         <v>205</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L283" t="n">
         <v>399.8</v>
@@ -14763,7 +14785,7 @@
         <v>207</v>
       </c>
       <c r="K285" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L285" t="n">
         <v>399.9</v>
@@ -14814,7 +14836,7 @@
         <v>207</v>
       </c>
       <c r="K286" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L286" t="n">
         <v>400</v>
@@ -14916,7 +14938,7 @@
         <v>210</v>
       </c>
       <c r="K288" t="n">
-        <v>38.46153846153847</v>
+        <v>25</v>
       </c>
       <c r="L288" t="n">
         <v>400.2</v>
@@ -14967,7 +14989,7 @@
         <v>213</v>
       </c>
       <c r="K289" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L289" t="n">
         <v>400.1</v>
@@ -15018,7 +15040,7 @@
         <v>214</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L290" t="n">
         <v>400.1</v>
@@ -15069,7 +15091,7 @@
         <v>214</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L291" t="n">
         <v>400</v>
@@ -15120,7 +15142,7 @@
         <v>216</v>
       </c>
       <c r="K292" t="n">
-        <v>12.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L292" t="n">
         <v>400.3</v>
@@ -15171,7 +15193,7 @@
         <v>217</v>
       </c>
       <c r="K293" t="n">
-        <v>5.88235294117647</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L293" t="n">
         <v>400.5</v>
@@ -15222,7 +15244,7 @@
         <v>218</v>
       </c>
       <c r="K294" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L294" t="n">
         <v>400.8</v>
@@ -15273,7 +15295,7 @@
         <v>219</v>
       </c>
       <c r="K295" t="n">
-        <v>22.22222222222222</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L295" t="n">
         <v>401</v>
@@ -15324,7 +15346,7 @@
         <v>220</v>
       </c>
       <c r="K296" t="n">
-        <v>11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L296" t="n">
         <v>401.1</v>
@@ -15375,7 +15397,7 @@
         <v>222</v>
       </c>
       <c r="K297" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L297" t="n">
         <v>401.5</v>
@@ -15426,7 +15448,7 @@
         <v>222</v>
       </c>
       <c r="K298" t="n">
-        <v>20</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L298" t="n">
         <v>401.7</v>
@@ -15477,7 +15499,7 @@
         <v>223</v>
       </c>
       <c r="K299" t="n">
-        <v>23.80952380952381</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L299" t="n">
         <v>402.3</v>
@@ -15528,7 +15550,7 @@
         <v>223</v>
       </c>
       <c r="K300" t="n">
-        <v>23.80952380952381</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L300" t="n">
         <v>402.8</v>
@@ -15579,7 +15601,7 @@
         <v>223</v>
       </c>
       <c r="K301" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L301" t="n">
         <v>403.3</v>
@@ -15630,7 +15652,7 @@
         <v>225</v>
       </c>
       <c r="K302" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L302" t="n">
         <v>403.4</v>
@@ -15681,7 +15703,7 @@
         <v>227</v>
       </c>
       <c r="K303" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>403.8</v>
@@ -15732,7 +15754,7 @@
         <v>229</v>
       </c>
       <c r="K304" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>403.9</v>
@@ -15783,7 +15805,7 @@
         <v>229</v>
       </c>
       <c r="K305" t="n">
-        <v>9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L305" t="n">
         <v>403.9</v>
@@ -15834,7 +15856,7 @@
         <v>230</v>
       </c>
       <c r="K306" t="n">
-        <v>13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>404.1</v>
@@ -15885,7 +15907,7 @@
         <v>230</v>
       </c>
       <c r="K307" t="n">
-        <v>18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>404.1</v>
@@ -15936,7 +15958,7 @@
         <v>230</v>
       </c>
       <c r="K308" t="n">
-        <v>10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L308" t="n">
         <v>404.1</v>
@@ -15987,7 +16009,7 @@
         <v>230</v>
       </c>
       <c r="K309" t="n">
-        <v>29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L309" t="n">
         <v>404</v>
@@ -16038,7 +16060,7 @@
         <v>232</v>
       </c>
       <c r="K310" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L310" t="n">
         <v>403.7</v>
@@ -16089,7 +16111,7 @@
         <v>232</v>
       </c>
       <c r="K311" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L311" t="n">
         <v>403.4</v>
@@ -16140,7 +16162,7 @@
         <v>235</v>
       </c>
       <c r="K312" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>403.6</v>
@@ -16191,7 +16213,7 @@
         <v>235</v>
       </c>
       <c r="K313" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>403.6</v>
@@ -16242,7 +16264,7 @@
         <v>236</v>
       </c>
       <c r="K314" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L314" t="n">
         <v>403.7</v>
@@ -16293,7 +16315,7 @@
         <v>236</v>
       </c>
       <c r="K315" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>403.8</v>
@@ -16344,7 +16366,7 @@
         <v>237</v>
       </c>
       <c r="K316" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L316" t="n">
         <v>403.9</v>
@@ -16395,7 +16417,7 @@
         <v>237</v>
       </c>
       <c r="K317" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L317" t="n">
         <v>404</v>
@@ -16446,7 +16468,7 @@
         <v>240</v>
       </c>
       <c r="K318" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L318" t="n">
         <v>403.8</v>
@@ -16497,7 +16519,7 @@
         <v>243</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L319" t="n">
         <v>403.9</v>
@@ -16548,7 +16570,7 @@
         <v>244</v>
       </c>
       <c r="K320" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>404.3</v>
@@ -16599,7 +16621,7 @@
         <v>244</v>
       </c>
       <c r="K321" t="n">
-        <v>4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L321" t="n">
         <v>404.7</v>
@@ -16650,7 +16672,7 @@
         <v>246</v>
       </c>
       <c r="K322" t="n">
-        <v>23.80952380952381</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L322" t="n">
         <v>405</v>
@@ -16701,7 +16723,7 @@
         <v>247</v>
       </c>
       <c r="K323" t="n">
-        <v>10</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L323" t="n">
         <v>405.2</v>
@@ -16752,7 +16774,7 @@
         <v>247</v>
       </c>
       <c r="K324" t="n">
-        <v>22.22222222222222</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L324" t="n">
         <v>405.5</v>
@@ -16803,7 +16825,7 @@
         <v>247</v>
       </c>
       <c r="K325" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L325" t="n">
         <v>405.8</v>
@@ -16854,7 +16876,7 @@
         <v>247</v>
       </c>
       <c r="K326" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L326" t="n">
         <v>406</v>
@@ -16905,7 +16927,7 @@
         <v>247</v>
       </c>
       <c r="K327" t="n">
-        <v>17.64705882352941</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L327" t="n">
         <v>406.2</v>
@@ -16956,7 +16978,7 @@
         <v>247</v>
       </c>
       <c r="K328" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L328" t="n">
         <v>406.7</v>
@@ -17007,7 +17029,7 @@
         <v>248</v>
       </c>
       <c r="K329" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>406.8</v>
@@ -17058,7 +17080,7 @@
         <v>249</v>
       </c>
       <c r="K330" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L330" t="n">
         <v>406.9</v>
@@ -17109,7 +17131,7 @@
         <v>250</v>
       </c>
       <c r="K331" t="n">
-        <v>22.22222222222222</v>
+        <v>-50</v>
       </c>
       <c r="L331" t="n">
         <v>406.9</v>
@@ -17160,7 +17182,7 @@
         <v>251</v>
       </c>
       <c r="K332" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>406.8</v>
@@ -17211,7 +17233,7 @@
         <v>252</v>
       </c>
       <c r="K333" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L333" t="n">
         <v>406.7</v>
@@ -17262,7 +17284,7 @@
         <v>253</v>
       </c>
       <c r="K334" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>406.7</v>
@@ -17313,7 +17335,7 @@
         <v>254</v>
       </c>
       <c r="K335" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L335" t="n">
         <v>406.8</v>
@@ -17364,7 +17386,7 @@
         <v>255</v>
       </c>
       <c r="K336" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>406.8</v>
@@ -17415,7 +17437,7 @@
         <v>255</v>
       </c>
       <c r="K337" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>406.8</v>
@@ -17466,7 +17488,7 @@
         <v>256</v>
       </c>
       <c r="K338" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="L338" t="n">
         <v>406.9</v>
@@ -17517,7 +17539,7 @@
         <v>257</v>
       </c>
       <c r="K339" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
         <v>407</v>
@@ -17568,7 +17590,7 @@
         <v>258</v>
       </c>
       <c r="K340" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L340" t="n">
         <v>407.1</v>
@@ -17670,7 +17692,7 @@
         <v>258</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L342" t="n">
         <v>407.4</v>
@@ -17721,7 +17743,7 @@
         <v>258</v>
       </c>
       <c r="K343" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L343" t="n">
         <v>407.6</v>
@@ -17772,7 +17794,7 @@
         <v>258</v>
       </c>
       <c r="K344" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>407.7</v>
@@ -17925,7 +17947,7 @@
         <v>260</v>
       </c>
       <c r="K347" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>407.7</v>
@@ -17976,7 +17998,7 @@
         <v>260</v>
       </c>
       <c r="K348" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>407.7</v>
@@ -18027,7 +18049,7 @@
         <v>260</v>
       </c>
       <c r="K349" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>407.8</v>
@@ -18078,7 +18100,7 @@
         <v>260</v>
       </c>
       <c r="K350" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>407.8</v>
@@ -18129,7 +18151,7 @@
         <v>262</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L351" t="n">
         <v>407.6</v>
@@ -18180,7 +18202,7 @@
         <v>263</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L352" t="n">
         <v>407.5</v>
@@ -18231,7 +18253,7 @@
         <v>264</v>
       </c>
       <c r="K353" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L353" t="n">
         <v>407.5</v>
@@ -18282,7 +18304,7 @@
         <v>265</v>
       </c>
       <c r="K354" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>407.6</v>
@@ -18333,7 +18355,7 @@
         <v>266</v>
       </c>
       <c r="K355" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L355" t="n">
         <v>407.9</v>
@@ -18384,7 +18406,7 @@
         <v>266</v>
       </c>
       <c r="K356" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L356" t="n">
         <v>408.2</v>
@@ -18435,7 +18457,7 @@
         <v>267</v>
       </c>
       <c r="K357" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L357" t="n">
         <v>408.5</v>
@@ -18486,7 +18508,7 @@
         <v>269</v>
       </c>
       <c r="K358" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L358" t="n">
         <v>408.6</v>
@@ -18537,7 +18559,7 @@
         <v>270</v>
       </c>
       <c r="K359" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>408.6</v>
@@ -18588,7 +18610,7 @@
         <v>271</v>
       </c>
       <c r="K360" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L360" t="n">
         <v>408.5</v>
@@ -18639,7 +18661,7 @@
         <v>271</v>
       </c>
       <c r="K361" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>408.6</v>
@@ -18690,7 +18712,7 @@
         <v>273</v>
       </c>
       <c r="K362" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>408.4</v>
@@ -18741,7 +18763,7 @@
         <v>273</v>
       </c>
       <c r="K363" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L363" t="n">
         <v>408.1</v>
@@ -18792,7 +18814,7 @@
         <v>274</v>
       </c>
       <c r="K364" t="n">
-        <v>-12.5</v>
+        <v>-50</v>
       </c>
       <c r="L364" t="n">
         <v>407.8</v>
@@ -18843,7 +18865,7 @@
         <v>275</v>
       </c>
       <c r="K365" t="n">
-        <v>-12.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L365" t="n">
         <v>407.3</v>
@@ -18894,7 +18916,7 @@
         <v>275</v>
       </c>
       <c r="K366" t="n">
-        <v>-12.5</v>
+        <v>-75</v>
       </c>
       <c r="L366" t="n">
         <v>406.8</v>
@@ -18945,7 +18967,7 @@
         <v>275</v>
       </c>
       <c r="K367" t="n">
-        <v>-20</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L367" t="n">
         <v>406.2</v>
@@ -18996,7 +19018,7 @@
         <v>275</v>
       </c>
       <c r="K368" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L368" t="n">
         <v>405.8</v>
@@ -19047,7 +19069,7 @@
         <v>276</v>
       </c>
       <c r="K369" t="n">
-        <v>-25</v>
+        <v>-60</v>
       </c>
       <c r="L369" t="n">
         <v>405.4</v>
@@ -19098,7 +19120,7 @@
         <v>277</v>
       </c>
       <c r="K370" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L370" t="n">
         <v>405.2</v>
@@ -19149,7 +19171,7 @@
         <v>277</v>
       </c>
       <c r="K371" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>405</v>
@@ -19200,7 +19222,7 @@
         <v>277</v>
       </c>
       <c r="K372" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>405</v>
@@ -19251,7 +19273,7 @@
         <v>277</v>
       </c>
       <c r="K373" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L373" t="n">
         <v>405</v>
@@ -19302,7 +19324,7 @@
         <v>279</v>
       </c>
       <c r="K374" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L374" t="n">
         <v>404.7</v>
@@ -19353,7 +19375,7 @@
         <v>281</v>
       </c>
       <c r="K375" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>404.7</v>
@@ -19404,7 +19426,7 @@
         <v>282</v>
       </c>
       <c r="K376" t="n">
-        <v>-25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L376" t="n">
         <v>404.8</v>
@@ -19455,7 +19477,7 @@
         <v>284</v>
       </c>
       <c r="K377" t="n">
-        <v>-41.17647058823529</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L377" t="n">
         <v>404.7</v>
@@ -19506,7 +19528,7 @@
         <v>286</v>
       </c>
       <c r="K378" t="n">
-        <v>-17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L378" t="n">
         <v>404.8</v>
@@ -19557,7 +19579,7 @@
         <v>286</v>
       </c>
       <c r="K379" t="n">
-        <v>-12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L379" t="n">
         <v>405</v>
@@ -19608,7 +19630,7 @@
         <v>286</v>
       </c>
       <c r="K380" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L380" t="n">
         <v>405.1</v>
@@ -19659,7 +19681,7 @@
         <v>287</v>
       </c>
       <c r="K381" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>405.1</v>
@@ -19710,7 +19732,7 @@
         <v>288</v>
       </c>
       <c r="K382" t="n">
-        <v>-6.666666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L382" t="n">
         <v>405</v>
@@ -19761,7 +19783,7 @@
         <v>290</v>
       </c>
       <c r="K383" t="n">
-        <v>5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L383" t="n">
         <v>405.1</v>
@@ -19812,7 +19834,7 @@
         <v>290</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L384" t="n">
         <v>405.4</v>
@@ -19863,7 +19885,7 @@
         <v>290</v>
       </c>
       <c r="K385" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>405.5</v>
@@ -19914,7 +19936,7 @@
         <v>291</v>
       </c>
       <c r="K386" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L386" t="n">
         <v>405.6</v>
@@ -19965,7 +19987,7 @@
         <v>292</v>
       </c>
       <c r="K387" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L387" t="n">
         <v>406</v>
@@ -20016,7 +20038,7 @@
         <v>293</v>
       </c>
       <c r="K388" t="n">
-        <v>22.22222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L388" t="n">
         <v>406.3</v>
@@ -20067,7 +20089,7 @@
         <v>293</v>
       </c>
       <c r="K389" t="n">
-        <v>29.41176470588236</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L389" t="n">
         <v>406.6</v>
@@ -20118,7 +20140,7 @@
         <v>294</v>
       </c>
       <c r="K390" t="n">
-        <v>17.64705882352941</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L390" t="n">
         <v>406.8</v>
@@ -20169,7 +20191,7 @@
         <v>294</v>
       </c>
       <c r="K391" t="n">
-        <v>17.64705882352941</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L391" t="n">
         <v>407.1</v>
@@ -20220,7 +20242,7 @@
         <v>294</v>
       </c>
       <c r="K392" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L392" t="n">
         <v>407.5</v>
@@ -20271,7 +20293,7 @@
         <v>296</v>
       </c>
       <c r="K393" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>407.5</v>

--- a/BackTest/2019-10-14 BackTest MTL.xlsx
+++ b/BackTest/2019-10-14 BackTest MTL.xlsx
@@ -9656,17 +9656,13 @@
         <v>404.25</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>399</v>
-      </c>
-      <c r="K265" t="n">
-        <v>399</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
@@ -9703,9 +9699,7 @@
       <c r="J266" t="n">
         <v>399</v>
       </c>
-      <c r="K266" t="n">
-        <v>399</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -9746,9 +9740,7 @@
       <c r="J267" t="n">
         <v>400</v>
       </c>
-      <c r="K267" t="n">
-        <v>399</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9787,11 +9779,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>398</v>
-      </c>
-      <c r="K268" t="n">
-        <v>399</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9824,17 +9814,13 @@
         <v>403.65</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>398</v>
-      </c>
-      <c r="K269" t="n">
-        <v>399</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9867,17 +9853,13 @@
         <v>403.5</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>399</v>
-      </c>
-      <c r="K270" t="n">
-        <v>399</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9910,17 +9892,13 @@
         <v>403.3666666666667</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>399</v>
-      </c>
-      <c r="K271" t="n">
-        <v>399</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9953,17 +9931,13 @@
         <v>403.2333333333333</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>400</v>
-      </c>
-      <c r="K272" t="n">
-        <v>399</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9996,17 +9970,13 @@
         <v>403.1166666666667</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>400</v>
-      </c>
-      <c r="K273" t="n">
-        <v>399</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10039,17 +10009,13 @@
         <v>403</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>400</v>
-      </c>
-      <c r="K274" t="n">
-        <v>399</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10082,17 +10048,13 @@
         <v>402.8833333333333</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>399</v>
-      </c>
-      <c r="K275" t="n">
-        <v>399</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10125,17 +10087,13 @@
         <v>402.7833333333334</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>400</v>
-      </c>
-      <c r="K276" t="n">
-        <v>399</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10168,17 +10126,13 @@
         <v>402.6833333333333</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>400</v>
-      </c>
-      <c r="K277" t="n">
-        <v>399</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10211,17 +10165,13 @@
         <v>402.6</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>400</v>
-      </c>
-      <c r="K278" t="n">
-        <v>399</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10254,17 +10204,13 @@
         <v>402.5</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>400</v>
-      </c>
-      <c r="K279" t="n">
-        <v>399</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10297,17 +10243,13 @@
         <v>402.4333333333333</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>400</v>
-      </c>
-      <c r="K280" t="n">
-        <v>399</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10340,17 +10282,13 @@
         <v>402.3833333333333</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>401</v>
-      </c>
-      <c r="K281" t="n">
-        <v>399</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10383,17 +10321,13 @@
         <v>402.2833333333334</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>399</v>
-      </c>
-      <c r="K282" t="n">
-        <v>399</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10426,17 +10360,13 @@
         <v>402.1666666666667</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>399</v>
-      </c>
-      <c r="K283" t="n">
-        <v>399</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10469,17 +10399,13 @@
         <v>402.05</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>401</v>
-      </c>
-      <c r="K284" t="n">
-        <v>399</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10512,17 +10438,13 @@
         <v>401.9833333333333</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>401</v>
-      </c>
-      <c r="K285" t="n">
-        <v>399</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10555,17 +10477,13 @@
         <v>401.9166666666667</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>401</v>
-      </c>
-      <c r="K286" t="n">
-        <v>399</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10598,17 +10516,13 @@
         <v>401.8333333333333</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>400</v>
-      </c>
-      <c r="K287" t="n">
-        <v>399</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10641,17 +10555,13 @@
         <v>401.7666666666667</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>402</v>
-      </c>
-      <c r="K288" t="n">
-        <v>399</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10684,17 +10594,13 @@
         <v>401.65</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>402</v>
-      </c>
-      <c r="K289" t="n">
-        <v>399</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10727,17 +10633,13 @@
         <v>401.5833333333333</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>400</v>
-      </c>
-      <c r="K290" t="n">
-        <v>399</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10770,17 +10672,13 @@
         <v>401.5</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>400</v>
-      </c>
-      <c r="K291" t="n">
-        <v>399</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10813,17 +10711,13 @@
         <v>401.45</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>402</v>
-      </c>
-      <c r="K292" t="n">
-        <v>399</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10856,17 +10750,13 @@
         <v>401.3666666666667</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>401</v>
-      </c>
-      <c r="K293" t="n">
-        <v>399</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10899,17 +10789,13 @@
         <v>401.2833333333334</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>402</v>
-      </c>
-      <c r="K294" t="n">
-        <v>399</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10942,17 +10828,13 @@
         <v>401.2166666666666</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>402</v>
-      </c>
-      <c r="K295" t="n">
-        <v>399</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,17 +10867,13 @@
         <v>401.1166666666667</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>402</v>
-      </c>
-      <c r="K296" t="n">
-        <v>399</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11028,17 +10906,13 @@
         <v>401.0666666666667</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>404</v>
-      </c>
-      <c r="K297" t="n">
-        <v>399</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11077,9 +10951,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>399</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11118,9 +10990,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>399</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11159,9 +11029,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>399</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11200,9 +11068,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>399</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11241,9 +11107,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>399</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11282,9 +11146,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>399</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11323,9 +11185,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>399</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11364,9 +11224,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>399</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11405,9 +11263,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>399</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11446,9 +11302,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>399</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11487,9 +11341,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>399</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11528,9 +11380,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>399</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11569,9 +11419,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>399</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11610,9 +11458,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>399</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11651,9 +11497,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>399</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11692,9 +11536,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>399</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11733,9 +11575,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>399</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11774,9 +11614,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>399</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11815,9 +11653,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>399</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11856,9 +11692,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>399</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11897,9 +11731,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>399</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11938,9 +11770,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>399</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11979,9 +11809,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>399</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12020,9 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>399</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12061,9 +11887,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>399</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12102,9 +11926,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>399</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12143,9 +11965,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>399</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12184,9 +12004,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>399</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12225,9 +12043,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>399</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12266,9 +12082,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>399</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12307,9 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>399</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12348,9 +12160,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>399</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12389,9 +12199,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>399</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12430,9 +12238,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>399</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12468,930 +12274,1030 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>399</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>407</v>
+      </c>
+      <c r="C333" t="n">
+        <v>406</v>
+      </c>
+      <c r="D333" t="n">
+        <v>407</v>
+      </c>
+      <c r="E333" t="n">
+        <v>406</v>
+      </c>
+      <c r="F333" t="n">
+        <v>7393.0548</v>
+      </c>
+      <c r="G333" t="n">
+        <v>403.2666666666667</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>407</v>
+      </c>
+      <c r="C334" t="n">
+        <v>407</v>
+      </c>
+      <c r="D334" t="n">
+        <v>407</v>
+      </c>
+      <c r="E334" t="n">
+        <v>407</v>
+      </c>
+      <c r="F334" t="n">
+        <v>1428.9776</v>
+      </c>
+      <c r="G334" t="n">
+        <v>403.3833333333333</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>408</v>
+      </c>
+      <c r="C335" t="n">
+        <v>408</v>
+      </c>
+      <c r="D335" t="n">
+        <v>408</v>
+      </c>
+      <c r="E335" t="n">
+        <v>408</v>
+      </c>
+      <c r="F335" t="n">
+        <v>4.4656</v>
+      </c>
+      <c r="G335" t="n">
+        <v>403.5333333333334</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>407</v>
+      </c>
+      <c r="C336" t="n">
+        <v>407</v>
+      </c>
+      <c r="D336" t="n">
+        <v>407</v>
+      </c>
+      <c r="E336" t="n">
+        <v>407</v>
+      </c>
+      <c r="F336" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G336" t="n">
+        <v>403.65</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>406</v>
+      </c>
+      <c r="C337" t="n">
+        <v>407</v>
+      </c>
+      <c r="D337" t="n">
+        <v>407</v>
+      </c>
+      <c r="E337" t="n">
+        <v>406</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1057.125</v>
+      </c>
+      <c r="G337" t="n">
+        <v>403.7666666666667</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>408</v>
+      </c>
+      <c r="C338" t="n">
+        <v>408</v>
+      </c>
+      <c r="D338" t="n">
+        <v>408</v>
+      </c>
+      <c r="E338" t="n">
+        <v>408</v>
+      </c>
+      <c r="F338" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G338" t="n">
+        <v>403.9</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>407</v>
+      </c>
+      <c r="C339" t="n">
+        <v>407</v>
+      </c>
+      <c r="D339" t="n">
+        <v>407</v>
+      </c>
+      <c r="E339" t="n">
+        <v>407</v>
+      </c>
+      <c r="F339" t="n">
+        <v>661.5767</v>
+      </c>
+      <c r="G339" t="n">
+        <v>404.0166666666667</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>408</v>
+      </c>
+      <c r="C340" t="n">
+        <v>408</v>
+      </c>
+      <c r="D340" t="n">
+        <v>408</v>
+      </c>
+      <c r="E340" t="n">
+        <v>408</v>
+      </c>
+      <c r="F340" t="n">
+        <v>239</v>
+      </c>
+      <c r="G340" t="n">
+        <v>404.15</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>408</v>
+      </c>
+      <c r="C341" t="n">
+        <v>408</v>
+      </c>
+      <c r="D341" t="n">
+        <v>408</v>
+      </c>
+      <c r="E341" t="n">
+        <v>408</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1628</v>
+      </c>
+      <c r="G341" t="n">
+        <v>404.2666666666667</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>407</v>
+      </c>
+      <c r="C342" t="n">
+        <v>408</v>
+      </c>
+      <c r="D342" t="n">
+        <v>408</v>
+      </c>
+      <c r="E342" t="n">
+        <v>407</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1298.9999</v>
+      </c>
+      <c r="G342" t="n">
+        <v>404.4166666666667</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>408</v>
+      </c>
+      <c r="C343" t="n">
+        <v>408</v>
+      </c>
+      <c r="D343" t="n">
+        <v>408</v>
+      </c>
+      <c r="E343" t="n">
+        <v>408</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2864</v>
+      </c>
+      <c r="G343" t="n">
+        <v>404.5666666666667</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>408</v>
+      </c>
+      <c r="C344" t="n">
+        <v>408</v>
+      </c>
+      <c r="D344" t="n">
+        <v>408</v>
+      </c>
+      <c r="E344" t="n">
+        <v>408</v>
+      </c>
+      <c r="F344" t="n">
+        <v>600.0194</v>
+      </c>
+      <c r="G344" t="n">
+        <v>404.7166666666666</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>406</v>
+      </c>
+      <c r="C345" t="n">
+        <v>407</v>
+      </c>
+      <c r="D345" t="n">
+        <v>407</v>
+      </c>
+      <c r="E345" t="n">
+        <v>406</v>
+      </c>
+      <c r="F345" t="n">
+        <v>5052.5133</v>
+      </c>
+      <c r="G345" t="n">
+        <v>404.8166666666667</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>407</v>
+      </c>
+      <c r="C346" t="n">
+        <v>407</v>
+      </c>
+      <c r="D346" t="n">
+        <v>407</v>
+      </c>
+      <c r="E346" t="n">
+        <v>407</v>
+      </c>
+      <c r="F346" t="n">
+        <v>891.3953</v>
+      </c>
+      <c r="G346" t="n">
+        <v>404.9166666666667</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>408</v>
+      </c>
+      <c r="C347" t="n">
+        <v>408</v>
+      </c>
+      <c r="D347" t="n">
+        <v>408</v>
+      </c>
+      <c r="E347" t="n">
+        <v>408</v>
+      </c>
+      <c r="F347" t="n">
+        <v>1404.772</v>
+      </c>
+      <c r="G347" t="n">
+        <v>405.05</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>408</v>
+      </c>
+      <c r="C348" t="n">
+        <v>408</v>
+      </c>
+      <c r="D348" t="n">
+        <v>408</v>
+      </c>
+      <c r="E348" t="n">
+        <v>408</v>
+      </c>
+      <c r="F348" t="n">
+        <v>777.0146999999999</v>
+      </c>
+      <c r="G348" t="n">
+        <v>405.15</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>408</v>
+      </c>
+      <c r="C349" t="n">
+        <v>408</v>
+      </c>
+      <c r="D349" t="n">
+        <v>408</v>
+      </c>
+      <c r="E349" t="n">
+        <v>408</v>
+      </c>
+      <c r="F349" t="n">
+        <v>874.1433</v>
+      </c>
+      <c r="G349" t="n">
+        <v>405.3</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0</v>
+      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>408</v>
+      </c>
+      <c r="C350" t="n">
+        <v>408</v>
+      </c>
+      <c r="D350" t="n">
+        <v>408</v>
+      </c>
+      <c r="E350" t="n">
+        <v>408</v>
+      </c>
+      <c r="F350" t="n">
+        <v>872.506</v>
+      </c>
+      <c r="G350" t="n">
+        <v>405.4333333333333</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0</v>
+      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>406</v>
+      </c>
+      <c r="C351" t="n">
+        <v>406</v>
+      </c>
+      <c r="D351" t="n">
+        <v>406</v>
+      </c>
+      <c r="E351" t="n">
+        <v>406</v>
+      </c>
+      <c r="F351" t="n">
+        <v>464.6079</v>
+      </c>
+      <c r="G351" t="n">
+        <v>405.5333333333334</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>407</v>
+      </c>
+      <c r="C352" t="n">
+        <v>407</v>
+      </c>
+      <c r="D352" t="n">
+        <v>407</v>
+      </c>
+      <c r="E352" t="n">
+        <v>407</v>
+      </c>
+      <c r="F352" t="n">
+        <v>304.0662</v>
+      </c>
+      <c r="G352" t="n">
+        <v>405.6166666666667</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0</v>
+      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>407</v>
+      </c>
+      <c r="C353" t="n">
+        <v>408</v>
+      </c>
+      <c r="D353" t="n">
+        <v>408</v>
+      </c>
+      <c r="E353" t="n">
+        <v>407</v>
+      </c>
+      <c r="F353" t="n">
+        <v>13253.3169</v>
+      </c>
+      <c r="G353" t="n">
+        <v>405.7333333333333</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>408</v>
+      </c>
+      <c r="C354" t="n">
+        <v>409</v>
+      </c>
+      <c r="D354" t="n">
+        <v>409</v>
+      </c>
+      <c r="E354" t="n">
+        <v>408</v>
+      </c>
+      <c r="F354" t="n">
+        <v>4494.8298</v>
+      </c>
+      <c r="G354" t="n">
+        <v>405.85</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0</v>
+      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>409</v>
+      </c>
+      <c r="C355" t="n">
+        <v>410</v>
+      </c>
+      <c r="D355" t="n">
+        <v>410</v>
+      </c>
+      <c r="E355" t="n">
+        <v>409</v>
+      </c>
+      <c r="F355" t="n">
+        <v>18835.1976</v>
+      </c>
+      <c r="G355" t="n">
+        <v>405.9666666666666</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>410</v>
+      </c>
+      <c r="C356" t="n">
+        <v>410</v>
+      </c>
+      <c r="D356" t="n">
+        <v>410</v>
+      </c>
+      <c r="E356" t="n">
+        <v>410</v>
+      </c>
+      <c r="F356" t="n">
+        <v>9613.7657</v>
+      </c>
+      <c r="G356" t="n">
+        <v>406.1</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>410</v>
+      </c>
+      <c r="C357" t="n">
+        <v>411</v>
+      </c>
+      <c r="D357" t="n">
+        <v>411</v>
+      </c>
+      <c r="E357" t="n">
+        <v>410</v>
+      </c>
+      <c r="F357" t="n">
+        <v>9575.1849</v>
+      </c>
+      <c r="G357" t="n">
+        <v>406.2166666666666</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>409</v>
+      </c>
+      <c r="C358" t="n">
+        <v>409</v>
+      </c>
+      <c r="D358" t="n">
+        <v>409</v>
+      </c>
+      <c r="E358" t="n">
+        <v>409</v>
+      </c>
+      <c r="F358" t="n">
+        <v>136.0697</v>
+      </c>
+      <c r="G358" t="n">
+        <v>406.3</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1</v>
+      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M332" t="n">
-        <v>1.015050125313283</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>407</v>
-      </c>
-      <c r="C333" t="n">
-        <v>406</v>
-      </c>
-      <c r="D333" t="n">
-        <v>407</v>
-      </c>
-      <c r="E333" t="n">
-        <v>406</v>
-      </c>
-      <c r="F333" t="n">
-        <v>7393.0548</v>
-      </c>
-      <c r="G333" t="n">
-        <v>403.2666666666667</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>407</v>
-      </c>
-      <c r="C334" t="n">
-        <v>407</v>
-      </c>
-      <c r="D334" t="n">
-        <v>407</v>
-      </c>
-      <c r="E334" t="n">
-        <v>407</v>
-      </c>
-      <c r="F334" t="n">
-        <v>1428.9776</v>
-      </c>
-      <c r="G334" t="n">
-        <v>403.3833333333333</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>408</v>
-      </c>
-      <c r="C335" t="n">
-        <v>408</v>
-      </c>
-      <c r="D335" t="n">
-        <v>408</v>
-      </c>
-      <c r="E335" t="n">
-        <v>408</v>
-      </c>
-      <c r="F335" t="n">
-        <v>4.4656</v>
-      </c>
-      <c r="G335" t="n">
-        <v>403.5333333333334</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="n">
-        <v>1</v>
-      </c>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>407</v>
-      </c>
-      <c r="C336" t="n">
-        <v>407</v>
-      </c>
-      <c r="D336" t="n">
-        <v>407</v>
-      </c>
-      <c r="E336" t="n">
-        <v>407</v>
-      </c>
-      <c r="F336" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G336" t="n">
-        <v>403.65</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="n">
-        <v>1</v>
-      </c>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>406</v>
-      </c>
-      <c r="C337" t="n">
-        <v>407</v>
-      </c>
-      <c r="D337" t="n">
-        <v>407</v>
-      </c>
-      <c r="E337" t="n">
-        <v>406</v>
-      </c>
-      <c r="F337" t="n">
-        <v>1057.125</v>
-      </c>
-      <c r="G337" t="n">
-        <v>403.7666666666667</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="n">
-        <v>1</v>
-      </c>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>408</v>
-      </c>
-      <c r="C338" t="n">
-        <v>408</v>
-      </c>
-      <c r="D338" t="n">
-        <v>408</v>
-      </c>
-      <c r="E338" t="n">
-        <v>408</v>
-      </c>
-      <c r="F338" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="G338" t="n">
-        <v>403.9</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>407</v>
-      </c>
-      <c r="C339" t="n">
-        <v>407</v>
-      </c>
-      <c r="D339" t="n">
-        <v>407</v>
-      </c>
-      <c r="E339" t="n">
-        <v>407</v>
-      </c>
-      <c r="F339" t="n">
-        <v>661.5767</v>
-      </c>
-      <c r="G339" t="n">
-        <v>404.0166666666667</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>408</v>
-      </c>
-      <c r="C340" t="n">
-        <v>408</v>
-      </c>
-      <c r="D340" t="n">
-        <v>408</v>
-      </c>
-      <c r="E340" t="n">
-        <v>408</v>
-      </c>
-      <c r="F340" t="n">
-        <v>239</v>
-      </c>
-      <c r="G340" t="n">
-        <v>404.15</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="n">
-        <v>1</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>408</v>
-      </c>
-      <c r="C341" t="n">
-        <v>408</v>
-      </c>
-      <c r="D341" t="n">
-        <v>408</v>
-      </c>
-      <c r="E341" t="n">
-        <v>408</v>
-      </c>
-      <c r="F341" t="n">
-        <v>1628</v>
-      </c>
-      <c r="G341" t="n">
-        <v>404.2666666666667</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="n">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>407</v>
-      </c>
-      <c r="C342" t="n">
-        <v>408</v>
-      </c>
-      <c r="D342" t="n">
-        <v>408</v>
-      </c>
-      <c r="E342" t="n">
-        <v>407</v>
-      </c>
-      <c r="F342" t="n">
-        <v>1298.9999</v>
-      </c>
-      <c r="G342" t="n">
-        <v>404.4166666666667</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="n">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>408</v>
-      </c>
-      <c r="C343" t="n">
-        <v>408</v>
-      </c>
-      <c r="D343" t="n">
-        <v>408</v>
-      </c>
-      <c r="E343" t="n">
-        <v>408</v>
-      </c>
-      <c r="F343" t="n">
-        <v>2864</v>
-      </c>
-      <c r="G343" t="n">
-        <v>404.5666666666667</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="n">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>408</v>
-      </c>
-      <c r="C344" t="n">
-        <v>408</v>
-      </c>
-      <c r="D344" t="n">
-        <v>408</v>
-      </c>
-      <c r="E344" t="n">
-        <v>408</v>
-      </c>
-      <c r="F344" t="n">
-        <v>600.0194</v>
-      </c>
-      <c r="G344" t="n">
-        <v>404.7166666666666</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="n">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>406</v>
-      </c>
-      <c r="C345" t="n">
-        <v>407</v>
-      </c>
-      <c r="D345" t="n">
-        <v>407</v>
-      </c>
-      <c r="E345" t="n">
-        <v>406</v>
-      </c>
-      <c r="F345" t="n">
-        <v>5052.5133</v>
-      </c>
-      <c r="G345" t="n">
-        <v>404.8166666666667</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="n">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>407</v>
-      </c>
-      <c r="C346" t="n">
-        <v>407</v>
-      </c>
-      <c r="D346" t="n">
-        <v>407</v>
-      </c>
-      <c r="E346" t="n">
-        <v>407</v>
-      </c>
-      <c r="F346" t="n">
-        <v>891.3953</v>
-      </c>
-      <c r="G346" t="n">
-        <v>404.9166666666667</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>408</v>
-      </c>
-      <c r="C347" t="n">
-        <v>408</v>
-      </c>
-      <c r="D347" t="n">
-        <v>408</v>
-      </c>
-      <c r="E347" t="n">
-        <v>408</v>
-      </c>
-      <c r="F347" t="n">
-        <v>1404.772</v>
-      </c>
-      <c r="G347" t="n">
-        <v>405.05</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>408</v>
-      </c>
-      <c r="C348" t="n">
-        <v>408</v>
-      </c>
-      <c r="D348" t="n">
-        <v>408</v>
-      </c>
-      <c r="E348" t="n">
-        <v>408</v>
-      </c>
-      <c r="F348" t="n">
-        <v>777.0146999999999</v>
-      </c>
-      <c r="G348" t="n">
-        <v>405.15</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>408</v>
-      </c>
-      <c r="C349" t="n">
-        <v>408</v>
-      </c>
-      <c r="D349" t="n">
-        <v>408</v>
-      </c>
-      <c r="E349" t="n">
-        <v>408</v>
-      </c>
-      <c r="F349" t="n">
-        <v>874.1433</v>
-      </c>
-      <c r="G349" t="n">
-        <v>405.3</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>408</v>
-      </c>
-      <c r="C350" t="n">
-        <v>408</v>
-      </c>
-      <c r="D350" t="n">
-        <v>408</v>
-      </c>
-      <c r="E350" t="n">
-        <v>408</v>
-      </c>
-      <c r="F350" t="n">
-        <v>872.506</v>
-      </c>
-      <c r="G350" t="n">
-        <v>405.4333333333333</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>406</v>
-      </c>
-      <c r="C351" t="n">
-        <v>406</v>
-      </c>
-      <c r="D351" t="n">
-        <v>406</v>
-      </c>
-      <c r="E351" t="n">
-        <v>406</v>
-      </c>
-      <c r="F351" t="n">
-        <v>464.6079</v>
-      </c>
-      <c r="G351" t="n">
-        <v>405.5333333333334</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>407</v>
-      </c>
-      <c r="C352" t="n">
-        <v>407</v>
-      </c>
-      <c r="D352" t="n">
-        <v>407</v>
-      </c>
-      <c r="E352" t="n">
-        <v>407</v>
-      </c>
-      <c r="F352" t="n">
-        <v>304.0662</v>
-      </c>
-      <c r="G352" t="n">
-        <v>405.6166666666667</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>407</v>
-      </c>
-      <c r="C353" t="n">
-        <v>408</v>
-      </c>
-      <c r="D353" t="n">
-        <v>408</v>
-      </c>
-      <c r="E353" t="n">
-        <v>407</v>
-      </c>
-      <c r="F353" t="n">
-        <v>13253.3169</v>
-      </c>
-      <c r="G353" t="n">
-        <v>405.7333333333333</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>408</v>
-      </c>
-      <c r="C354" t="n">
-        <v>409</v>
-      </c>
-      <c r="D354" t="n">
-        <v>409</v>
-      </c>
-      <c r="E354" t="n">
-        <v>408</v>
-      </c>
-      <c r="F354" t="n">
-        <v>4494.8298</v>
-      </c>
-      <c r="G354" t="n">
-        <v>405.85</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>409</v>
-      </c>
-      <c r="C355" t="n">
-        <v>410</v>
-      </c>
-      <c r="D355" t="n">
-        <v>410</v>
-      </c>
-      <c r="E355" t="n">
-        <v>409</v>
-      </c>
-      <c r="F355" t="n">
-        <v>18835.1976</v>
-      </c>
-      <c r="G355" t="n">
-        <v>405.9666666666666</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>410</v>
-      </c>
-      <c r="C356" t="n">
-        <v>410</v>
-      </c>
-      <c r="D356" t="n">
-        <v>410</v>
-      </c>
-      <c r="E356" t="n">
-        <v>410</v>
-      </c>
-      <c r="F356" t="n">
-        <v>9613.7657</v>
-      </c>
-      <c r="G356" t="n">
-        <v>406.1</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>410</v>
-      </c>
-      <c r="C357" t="n">
-        <v>411</v>
-      </c>
-      <c r="D357" t="n">
-        <v>411</v>
-      </c>
-      <c r="E357" t="n">
-        <v>410</v>
-      </c>
-      <c r="F357" t="n">
-        <v>9575.1849</v>
-      </c>
-      <c r="G357" t="n">
-        <v>406.2166666666666</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>409</v>
-      </c>
-      <c r="C358" t="n">
-        <v>409</v>
-      </c>
-      <c r="D358" t="n">
-        <v>409</v>
-      </c>
-      <c r="E358" t="n">
-        <v>409</v>
-      </c>
-      <c r="F358" t="n">
-        <v>136.0697</v>
-      </c>
-      <c r="G358" t="n">
-        <v>406.3</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13454,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>

--- a/BackTest/2019-10-14 BackTest MTL.xlsx
+++ b/BackTest/2019-10-14 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M372"/>
+  <dimension ref="A1:M373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>413</v>
+      </c>
+      <c r="C2" t="n">
         <v>412</v>
       </c>
-      <c r="C2" t="n">
-        <v>410</v>
-      </c>
       <c r="D2" t="n">
+        <v>413</v>
+      </c>
+      <c r="E2" t="n">
         <v>412</v>
       </c>
-      <c r="E2" t="n">
-        <v>410</v>
-      </c>
       <c r="F2" t="n">
-        <v>12081.9795</v>
+        <v>3081.3606</v>
       </c>
       <c r="G2" t="n">
-        <v>408.7666666666667</v>
+        <v>408.7166666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>412</v>
+      </c>
+      <c r="C3" t="n">
         <v>410</v>
       </c>
-      <c r="C3" t="n">
-        <v>409</v>
-      </c>
       <c r="D3" t="n">
+        <v>412</v>
+      </c>
+      <c r="E3" t="n">
         <v>410</v>
       </c>
-      <c r="E3" t="n">
-        <v>409</v>
-      </c>
       <c r="F3" t="n">
-        <v>23.2497</v>
+        <v>12081.9795</v>
       </c>
       <c r="G3" t="n">
-        <v>408.8</v>
+        <v>408.7666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C4" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D4" t="n">
         <v>410</v>
@@ -515,10 +515,10 @@
         <v>409</v>
       </c>
       <c r="F4" t="n">
-        <v>578.3193</v>
+        <v>23.2497</v>
       </c>
       <c r="G4" t="n">
-        <v>408.85</v>
+        <v>408.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C5" t="n">
         <v>410</v>
@@ -547,13 +547,13 @@
         <v>410</v>
       </c>
       <c r="E5" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F5" t="n">
-        <v>1914.6742</v>
+        <v>578.3193</v>
       </c>
       <c r="G5" t="n">
-        <v>408.9166666666667</v>
+        <v>408.85</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C6" t="n">
         <v>410</v>
@@ -582,13 +582,13 @@
         <v>410</v>
       </c>
       <c r="E6" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F6" t="n">
-        <v>428</v>
+        <v>1914.6742</v>
       </c>
       <c r="G6" t="n">
-        <v>409</v>
+        <v>408.9166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>410</v>
       </c>
       <c r="F7" t="n">
-        <v>466.0268</v>
+        <v>428</v>
       </c>
       <c r="G7" t="n">
-        <v>409.0833333333333</v>
+        <v>409</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C8" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D8" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E8" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F8" t="n">
-        <v>141.0498</v>
+        <v>466.0268</v>
       </c>
       <c r="G8" t="n">
-        <v>409.15</v>
+        <v>409.0833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>409</v>
       </c>
       <c r="F9" t="n">
-        <v>752.2843</v>
+        <v>141.0498</v>
       </c>
       <c r="G9" t="n">
-        <v>409.2333333333333</v>
+        <v>409.15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C10" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D10" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E10" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F10" t="n">
-        <v>240</v>
+        <v>752.2843</v>
       </c>
       <c r="G10" t="n">
-        <v>409.3</v>
+        <v>409.2333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>408</v>
       </c>
       <c r="F11" t="n">
-        <v>1121.9131</v>
+        <v>240</v>
       </c>
       <c r="G11" t="n">
-        <v>409.3833333333333</v>
+        <v>409.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>408</v>
       </c>
       <c r="F12" t="n">
-        <v>296.8858</v>
+        <v>1121.9131</v>
       </c>
       <c r="G12" t="n">
-        <v>409.45</v>
+        <v>409.3833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C13" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D13" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E13" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F13" t="n">
-        <v>570.9565</v>
+        <v>296.8858</v>
       </c>
       <c r="G13" t="n">
-        <v>409.5333333333334</v>
+        <v>409.45</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C14" t="n">
         <v>409</v>
@@ -862,13 +862,13 @@
         <v>409</v>
       </c>
       <c r="E14" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F14" t="n">
-        <v>1055.9999</v>
+        <v>570.9565</v>
       </c>
       <c r="G14" t="n">
-        <v>409.6333333333333</v>
+        <v>409.5333333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>409</v>
       </c>
       <c r="F15" t="n">
-        <v>126</v>
+        <v>1055.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>409.7166666666666</v>
+        <v>409.6333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>409</v>
       </c>
       <c r="E16" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F16" t="n">
-        <v>863.3324</v>
+        <v>126</v>
       </c>
       <c r="G16" t="n">
-        <v>409.8166666666667</v>
+        <v>409.7166666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>409</v>
       </c>
       <c r="C17" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D17" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F17" t="n">
-        <v>3560</v>
+        <v>863.3324</v>
       </c>
       <c r="G17" t="n">
-        <v>409.9166666666667</v>
+        <v>409.8166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C18" t="n">
         <v>410</v>
@@ -1002,13 +1002,13 @@
         <v>410</v>
       </c>
       <c r="E18" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F18" t="n">
-        <v>2149.2499</v>
+        <v>3560</v>
       </c>
       <c r="G18" t="n">
-        <v>409.9833333333333</v>
+        <v>409.9166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C19" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D19" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E19" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F19" t="n">
-        <v>2522.7566</v>
+        <v>2149.2499</v>
       </c>
       <c r="G19" t="n">
-        <v>410.0666666666667</v>
+        <v>409.9833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C20" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D20" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E20" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F20" t="n">
-        <v>39.3994</v>
+        <v>2522.7566</v>
       </c>
       <c r="G20" t="n">
-        <v>410.1166666666667</v>
+        <v>410.0666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>409</v>
       </c>
       <c r="F21" t="n">
-        <v>1493.6132</v>
+        <v>39.3994</v>
       </c>
       <c r="G21" t="n">
-        <v>410.2166666666666</v>
+        <v>410.1166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>409</v>
       </c>
       <c r="C22" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D22" t="n">
         <v>409</v>
       </c>
       <c r="E22" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F22" t="n">
-        <v>5277.6317</v>
+        <v>1493.6132</v>
       </c>
       <c r="G22" t="n">
-        <v>410.3</v>
+        <v>410.2166666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>409</v>
       </c>
       <c r="C23" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D23" t="n">
         <v>409</v>
       </c>
       <c r="E23" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>5277.6317</v>
       </c>
       <c r="G23" t="n">
-        <v>410.3833333333333</v>
+        <v>410.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C24" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D24" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E24" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F24" t="n">
-        <v>113.4939</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>410.4666666666666</v>
+        <v>410.3833333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>408</v>
       </c>
       <c r="F25" t="n">
-        <v>701.8638999999999</v>
+        <v>113.4939</v>
       </c>
       <c r="G25" t="n">
-        <v>410.5</v>
+        <v>410.4666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C26" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D26" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E26" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F26" t="n">
-        <v>23622.5462</v>
+        <v>701.8638999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>410.4333333333333</v>
+        <v>410.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C27" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D27" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E27" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F27" t="n">
-        <v>310.3099</v>
+        <v>23622.5462</v>
       </c>
       <c r="G27" t="n">
-        <v>410.4666666666666</v>
+        <v>410.4333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C28" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D28" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E28" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F28" t="n">
-        <v>2463.597</v>
+        <v>310.3099</v>
       </c>
       <c r="G28" t="n">
-        <v>410.45</v>
+        <v>410.4666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>407</v>
       </c>
       <c r="C29" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D29" t="n">
         <v>407</v>
       </c>
       <c r="E29" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F29" t="n">
-        <v>3547.2008</v>
+        <v>2463.597</v>
       </c>
       <c r="G29" t="n">
-        <v>410.4</v>
+        <v>410.45</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C30" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D30" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E30" t="n">
         <v>406</v>
       </c>
       <c r="F30" t="n">
-        <v>400</v>
+        <v>3547.2008</v>
       </c>
       <c r="G30" t="n">
-        <v>410.4166666666667</v>
+        <v>410.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C31" t="n">
         <v>408</v>
@@ -1457,13 +1457,13 @@
         <v>408</v>
       </c>
       <c r="E31" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F31" t="n">
-        <v>2623.9319</v>
+        <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>410.4</v>
+        <v>410.4166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C32" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D32" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E32" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F32" t="n">
-        <v>4.1425</v>
+        <v>2623.9319</v>
       </c>
       <c r="G32" t="n">
-        <v>410.3333333333333</v>
+        <v>410.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C33" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D33" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E33" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F33" t="n">
-        <v>301</v>
+        <v>4.1425</v>
       </c>
       <c r="G33" t="n">
-        <v>410.2833333333334</v>
+        <v>410.3333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>408</v>
       </c>
       <c r="F34" t="n">
-        <v>300.0898</v>
+        <v>301</v>
       </c>
       <c r="G34" t="n">
-        <v>410.25</v>
+        <v>410.2833333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C35" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D35" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E35" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F35" t="n">
-        <v>1704.9678</v>
+        <v>300.0898</v>
       </c>
       <c r="G35" t="n">
-        <v>410.2166666666666</v>
+        <v>410.25</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C36" t="n">
         <v>406</v>
       </c>
       <c r="D36" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E36" t="n">
         <v>406</v>
       </c>
       <c r="F36" t="n">
-        <v>1648.2023</v>
+        <v>1704.9678</v>
       </c>
       <c r="G36" t="n">
-        <v>410.15</v>
+        <v>410.2166666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C37" t="n">
         <v>406</v>
@@ -1667,13 +1667,13 @@
         <v>406</v>
       </c>
       <c r="E37" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F37" t="n">
-        <v>4183.1896</v>
+        <v>1648.2023</v>
       </c>
       <c r="G37" t="n">
-        <v>410.1166666666667</v>
+        <v>410.15</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C38" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D38" t="n">
         <v>406</v>
@@ -1705,10 +1705,10 @@
         <v>405</v>
       </c>
       <c r="F38" t="n">
-        <v>458.8598</v>
+        <v>4183.1896</v>
       </c>
       <c r="G38" t="n">
-        <v>410.0666666666667</v>
+        <v>410.1166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C39" t="n">
         <v>405</v>
       </c>
       <c r="D39" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E39" t="n">
         <v>405</v>
       </c>
       <c r="F39" t="n">
-        <v>600</v>
+        <v>458.8598</v>
       </c>
       <c r="G39" t="n">
-        <v>410</v>
+        <v>410.0666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>405</v>
       </c>
       <c r="C40" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D40" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E40" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F40" t="n">
-        <v>7259.3124</v>
+        <v>600</v>
       </c>
       <c r="G40" t="n">
-        <v>409.8833333333333</v>
+        <v>410</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C41" t="n">
         <v>404</v>
       </c>
       <c r="D41" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E41" t="n">
         <v>404</v>
       </c>
       <c r="F41" t="n">
-        <v>111</v>
+        <v>7259.3124</v>
       </c>
       <c r="G41" t="n">
-        <v>409.7666666666667</v>
+        <v>409.8833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>404</v>
       </c>
       <c r="C42" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D42" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E42" t="n">
         <v>404</v>
       </c>
       <c r="F42" t="n">
-        <v>210.4214</v>
+        <v>111</v>
       </c>
       <c r="G42" t="n">
-        <v>409.65</v>
+        <v>409.7666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C43" t="n">
         <v>405</v>
@@ -1877,13 +1877,13 @@
         <v>405</v>
       </c>
       <c r="E43" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F43" t="n">
-        <v>1896.1698</v>
+        <v>210.4214</v>
       </c>
       <c r="G43" t="n">
-        <v>409.5</v>
+        <v>409.65</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C44" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D44" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E44" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F44" t="n">
-        <v>332.639</v>
+        <v>1896.1698</v>
       </c>
       <c r="G44" t="n">
-        <v>409.3333333333333</v>
+        <v>409.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C45" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D45" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E45" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>332.639</v>
       </c>
       <c r="G45" t="n">
-        <v>409.2</v>
+        <v>409.3333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C46" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D46" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E46" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>409.0833333333333</v>
+        <v>409.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C47" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D47" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E47" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>408.9333333333333</v>
+        <v>409.0833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C48" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D48" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E48" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F48" t="n">
-        <v>6919.9469</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="n">
-        <v>408.7666666666667</v>
+        <v>408.9333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>404</v>
       </c>
       <c r="F49" t="n">
-        <v>300</v>
+        <v>6919.9469</v>
       </c>
       <c r="G49" t="n">
-        <v>408.5833333333333</v>
+        <v>408.7666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>404</v>
       </c>
       <c r="F50" t="n">
-        <v>476.5406</v>
+        <v>300</v>
       </c>
       <c r="G50" t="n">
-        <v>408.3833333333333</v>
+        <v>408.5833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>404</v>
       </c>
       <c r="C51" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D51" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E51" t="n">
         <v>404</v>
       </c>
       <c r="F51" t="n">
-        <v>5009.64340246</v>
+        <v>476.5406</v>
       </c>
       <c r="G51" t="n">
-        <v>408.2166666666666</v>
+        <v>408.3833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C52" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D52" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E52" t="n">
         <v>404</v>
       </c>
       <c r="F52" t="n">
-        <v>10149.62500119</v>
+        <v>5009.64340246</v>
       </c>
       <c r="G52" t="n">
-        <v>408.0666666666667</v>
+        <v>408.2166666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>406</v>
+      </c>
+      <c r="C53" t="n">
         <v>404</v>
-      </c>
-      <c r="C53" t="n">
-        <v>407</v>
       </c>
       <c r="D53" t="n">
         <v>407</v>
@@ -2230,10 +2230,10 @@
         <v>404</v>
       </c>
       <c r="F53" t="n">
-        <v>1349.8287828</v>
+        <v>10149.62500119</v>
       </c>
       <c r="G53" t="n">
-        <v>407.95</v>
+        <v>408.0666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>404</v>
       </c>
       <c r="C54" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D54" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E54" t="n">
         <v>404</v>
       </c>
       <c r="F54" t="n">
-        <v>8557.612075049999</v>
+        <v>1349.8287828</v>
       </c>
       <c r="G54" t="n">
-        <v>407.8</v>
+        <v>407.95</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C55" t="n">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D55" t="n">
         <v>409</v>
       </c>
       <c r="E55" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F55" t="n">
-        <v>2448.0237841</v>
+        <v>8557.612075049999</v>
       </c>
       <c r="G55" t="n">
-        <v>407.75</v>
+        <v>407.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C56" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D56" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E56" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F56" t="n">
-        <v>5982.12866424</v>
+        <v>2448.0237841</v>
       </c>
       <c r="G56" t="n">
-        <v>407.6333333333333</v>
+        <v>407.75</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C57" t="n">
         <v>406</v>
       </c>
       <c r="D57" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E57" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F57" t="n">
-        <v>1160.1708</v>
+        <v>5982.12866424</v>
       </c>
       <c r="G57" t="n">
-        <v>407.5166666666667</v>
+        <v>407.6333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>406</v>
       </c>
       <c r="C58" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D58" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E58" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F58" t="n">
-        <v>1176.8893</v>
+        <v>1160.1708</v>
       </c>
       <c r="G58" t="n">
-        <v>407.3833333333333</v>
+        <v>407.5166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C59" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D59" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E59" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F59" t="n">
-        <v>4770.3262</v>
+        <v>1176.8893</v>
       </c>
       <c r="G59" t="n">
-        <v>407.2333333333333</v>
+        <v>407.3833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>405</v>
       </c>
       <c r="C60" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D60" t="n">
         <v>405</v>
       </c>
       <c r="E60" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F60" t="n">
-        <v>676.3711</v>
+        <v>4770.3262</v>
       </c>
       <c r="G60" t="n">
-        <v>407.1</v>
+        <v>407.2333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>405</v>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>676.3711</v>
       </c>
       <c r="G61" t="n">
-        <v>406.9833333333333</v>
+        <v>407.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C62" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D62" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E62" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F62" t="n">
-        <v>3379.3269</v>
+        <v>200</v>
       </c>
       <c r="G62" t="n">
-        <v>406.8833333333333</v>
+        <v>406.9833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>404</v>
       </c>
       <c r="F63" t="n">
-        <v>703.3787</v>
+        <v>3379.3269</v>
       </c>
       <c r="G63" t="n">
-        <v>406.8</v>
+        <v>406.8833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>404</v>
       </c>
       <c r="F64" t="n">
-        <v>203</v>
+        <v>703.3787</v>
       </c>
       <c r="G64" t="n">
-        <v>406.7</v>
+        <v>406.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>404</v>
       </c>
       <c r="F65" t="n">
-        <v>6480.7229</v>
+        <v>203</v>
       </c>
       <c r="G65" t="n">
-        <v>406.6</v>
+        <v>406.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>404</v>
       </c>
       <c r="C66" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D66" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E66" t="n">
         <v>404</v>
       </c>
       <c r="F66" t="n">
-        <v>1888.7631</v>
+        <v>6480.7229</v>
       </c>
       <c r="G66" t="n">
-        <v>406.5166666666667</v>
+        <v>406.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C67" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D67" t="n">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E67" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F67" t="n">
-        <v>2218.31009462</v>
+        <v>1888.7631</v>
       </c>
       <c r="G67" t="n">
-        <v>406.45</v>
+        <v>406.5166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2749,16 +2749,16 @@
         <v>406</v>
       </c>
       <c r="D68" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E68" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F68" t="n">
-        <v>4648</v>
+        <v>2218.31009462</v>
       </c>
       <c r="G68" t="n">
-        <v>406.4</v>
+        <v>406.45</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C69" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D69" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E69" t="n">
         <v>405</v>
       </c>
       <c r="F69" t="n">
-        <v>4731.3593</v>
+        <v>4648</v>
       </c>
       <c r="G69" t="n">
-        <v>406.3333333333333</v>
+        <v>406.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C70" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D70" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E70" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F70" t="n">
-        <v>3675.1355</v>
+        <v>4731.3593</v>
       </c>
       <c r="G70" t="n">
-        <v>406.25</v>
+        <v>406.3333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C71" t="n">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D71" t="n">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E71" t="n">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F71" t="n">
-        <v>4.4901</v>
+        <v>3675.1355</v>
       </c>
       <c r="G71" t="n">
         <v>406.25</v>
@@ -2883,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C72" t="n">
         <v>408</v>
@@ -2892,10 +2892,10 @@
         <v>408</v>
       </c>
       <c r="E72" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F72" t="n">
-        <v>244.7771</v>
+        <v>4.4901</v>
       </c>
       <c r="G72" t="n">
         <v>406.25</v>
@@ -2918,7 +2918,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C73" t="n">
         <v>408</v>
@@ -2927,13 +2927,13 @@
         <v>408</v>
       </c>
       <c r="E73" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F73" t="n">
-        <v>163.3504</v>
+        <v>244.7771</v>
       </c>
       <c r="G73" t="n">
-        <v>406.2333333333333</v>
+        <v>406.25</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>408</v>
       </c>
       <c r="F74" t="n">
-        <v>344.6963</v>
+        <v>163.3504</v>
       </c>
       <c r="G74" t="n">
-        <v>406.2166666666666</v>
+        <v>406.2333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,19 +2988,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C75" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D75" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E75" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F75" t="n">
-        <v>75.3034</v>
+        <v>344.6963</v>
       </c>
       <c r="G75" t="n">
         <v>406.2166666666666</v>
@@ -3026,19 +3026,19 @@
         <v>409</v>
       </c>
       <c r="C76" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D76" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E76" t="n">
         <v>409</v>
       </c>
       <c r="F76" t="n">
-        <v>1912.9536</v>
+        <v>75.3034</v>
       </c>
       <c r="G76" t="n">
-        <v>406.2333333333333</v>
+        <v>406.2166666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C77" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D77" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E77" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F77" t="n">
-        <v>1.0783</v>
+        <v>1912.9536</v>
       </c>
       <c r="G77" t="n">
-        <v>406.2</v>
+        <v>406.2333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,19 +3093,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C78" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D78" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E78" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F78" t="n">
-        <v>4061.5552</v>
+        <v>1.0783</v>
       </c>
       <c r="G78" t="n">
         <v>406.2</v>
@@ -3140,10 +3140,10 @@
         <v>410</v>
       </c>
       <c r="F79" t="n">
-        <v>101</v>
+        <v>4061.5552</v>
       </c>
       <c r="G79" t="n">
-        <v>406.1833333333333</v>
+        <v>406.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>410</v>
       </c>
       <c r="F80" t="n">
-        <v>227.0478</v>
+        <v>101</v>
       </c>
       <c r="G80" t="n">
-        <v>406.2</v>
+        <v>406.1833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3207,13 +3207,13 @@
         <v>410</v>
       </c>
       <c r="E81" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F81" t="n">
-        <v>7662.9279</v>
+        <v>227.0478</v>
       </c>
       <c r="G81" t="n">
-        <v>406.2166666666666</v>
+        <v>406.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>410</v>
       </c>
       <c r="C82" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D82" t="n">
         <v>410</v>
@@ -3245,7 +3245,7 @@
         <v>408</v>
       </c>
       <c r="F82" t="n">
-        <v>8000.641</v>
+        <v>7662.9279</v>
       </c>
       <c r="G82" t="n">
         <v>406.2166666666666</v>
@@ -3268,19 +3268,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C83" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D83" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E83" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F83" t="n">
-        <v>459.8102</v>
+        <v>8000.641</v>
       </c>
       <c r="G83" t="n">
         <v>406.2166666666666</v>
@@ -3315,10 +3315,10 @@
         <v>409</v>
       </c>
       <c r="F84" t="n">
-        <v>1140.0995</v>
+        <v>459.8102</v>
       </c>
       <c r="G84" t="n">
-        <v>406.2333333333333</v>
+        <v>406.2166666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,19 +3338,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C85" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D85" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E85" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>1140.0995</v>
       </c>
       <c r="G85" t="n">
         <v>406.2333333333333</v>
@@ -3376,19 +3376,19 @@
         <v>408</v>
       </c>
       <c r="C86" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D86" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E86" t="n">
         <v>408</v>
       </c>
       <c r="F86" t="n">
-        <v>362.6902</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>406.35</v>
+        <v>406.2333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C87" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D87" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E87" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F87" t="n">
-        <v>244.1827</v>
+        <v>362.6902</v>
       </c>
       <c r="G87" t="n">
-        <v>406.4166666666667</v>
+        <v>406.35</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>409</v>
       </c>
       <c r="F88" t="n">
-        <v>1639.2493</v>
+        <v>244.1827</v>
       </c>
       <c r="G88" t="n">
-        <v>406.45</v>
+        <v>406.4166666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>409</v>
       </c>
       <c r="F89" t="n">
-        <v>672.2655</v>
+        <v>1639.2493</v>
       </c>
       <c r="G89" t="n">
-        <v>406.5</v>
+        <v>406.45</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3516,19 @@
         <v>409</v>
       </c>
       <c r="C90" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D90" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E90" t="n">
         <v>409</v>
       </c>
       <c r="F90" t="n">
-        <v>3948.7421</v>
+        <v>672.2655</v>
       </c>
       <c r="G90" t="n">
-        <v>406.5333333333334</v>
+        <v>406.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>409</v>
+      </c>
+      <c r="C91" t="n">
         <v>410</v>
-      </c>
-      <c r="C91" t="n">
-        <v>409</v>
       </c>
       <c r="D91" t="n">
         <v>410</v>
@@ -3560,10 +3560,10 @@
         <v>409</v>
       </c>
       <c r="F91" t="n">
-        <v>4171</v>
+        <v>3948.7421</v>
       </c>
       <c r="G91" t="n">
-        <v>406.55</v>
+        <v>406.5333333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C92" t="n">
         <v>409</v>
       </c>
       <c r="D92" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E92" t="n">
         <v>409</v>
       </c>
       <c r="F92" t="n">
-        <v>2370.6</v>
+        <v>4171</v>
       </c>
       <c r="G92" t="n">
-        <v>406.6</v>
+        <v>406.55</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>409</v>
       </c>
       <c r="F93" t="n">
-        <v>1926</v>
+        <v>2370.6</v>
       </c>
       <c r="G93" t="n">
-        <v>406.6166666666667</v>
+        <v>406.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>409</v>
       </c>
       <c r="F94" t="n">
-        <v>3545.6</v>
+        <v>1926</v>
       </c>
       <c r="G94" t="n">
-        <v>406.6333333333333</v>
+        <v>406.6166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C95" t="n">
         <v>409</v>
       </c>
       <c r="D95" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E95" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F95" t="n">
-        <v>2045.3452</v>
+        <v>3545.6</v>
       </c>
       <c r="G95" t="n">
-        <v>406.6833333333333</v>
+        <v>406.6333333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C96" t="n">
         <v>409</v>
       </c>
       <c r="D96" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E96" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F96" t="n">
-        <v>223.9702</v>
+        <v>2045.3452</v>
       </c>
       <c r="G96" t="n">
-        <v>406.7333333333333</v>
+        <v>406.6833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C97" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D97" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E97" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F97" t="n">
-        <v>2.7756</v>
+        <v>223.9702</v>
       </c>
       <c r="G97" t="n">
-        <v>406.8</v>
+        <v>406.7333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C98" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D98" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E98" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F98" t="n">
-        <v>2221.5318</v>
+        <v>2.7756</v>
       </c>
       <c r="G98" t="n">
-        <v>406.8666666666667</v>
+        <v>406.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C99" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D99" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E99" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F99" t="n">
-        <v>748.2119</v>
+        <v>2221.5318</v>
       </c>
       <c r="G99" t="n">
-        <v>406.9</v>
+        <v>406.8666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>408</v>
       </c>
       <c r="C100" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D100" t="n">
         <v>408</v>
       </c>
       <c r="E100" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F100" t="n">
-        <v>9699</v>
+        <v>748.2119</v>
       </c>
       <c r="G100" t="n">
-        <v>406.9666666666666</v>
+        <v>406.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>408</v>
       </c>
       <c r="C101" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D101" t="n">
         <v>408</v>
       </c>
       <c r="E101" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F101" t="n">
-        <v>2370.8014</v>
+        <v>9699</v>
       </c>
       <c r="G101" t="n">
-        <v>407.0166666666667</v>
+        <v>406.9666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C102" t="n">
         <v>407</v>
       </c>
       <c r="D102" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E102" t="n">
         <v>407</v>
       </c>
       <c r="F102" t="n">
-        <v>638.1272</v>
+        <v>2370.8014</v>
       </c>
       <c r="G102" t="n">
-        <v>407.05</v>
+        <v>407.0166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3971,19 @@
         <v>407</v>
       </c>
       <c r="C103" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D103" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E103" t="n">
         <v>407</v>
       </c>
       <c r="F103" t="n">
-        <v>373.3737</v>
+        <v>638.1272</v>
       </c>
       <c r="G103" t="n">
-        <v>407.1</v>
+        <v>407.05</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C104" t="n">
         <v>408</v>
@@ -4012,13 +4012,13 @@
         <v>408</v>
       </c>
       <c r="E104" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F104" t="n">
-        <v>2607.4686</v>
+        <v>373.3737</v>
       </c>
       <c r="G104" t="n">
-        <v>407.1666666666667</v>
+        <v>407.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>408</v>
       </c>
       <c r="F105" t="n">
-        <v>5400</v>
+        <v>2607.4686</v>
       </c>
       <c r="G105" t="n">
-        <v>407.2166666666666</v>
+        <v>407.1666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C106" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D106" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E106" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F106" t="n">
-        <v>2654.3545</v>
+        <v>5400</v>
       </c>
       <c r="G106" t="n">
-        <v>407.2666666666667</v>
+        <v>407.2166666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C107" t="n">
         <v>410</v>
@@ -4117,13 +4117,13 @@
         <v>410</v>
       </c>
       <c r="E107" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F107" t="n">
-        <v>500</v>
+        <v>2654.3545</v>
       </c>
       <c r="G107" t="n">
-        <v>407.3333333333333</v>
+        <v>407.2666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C108" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D108" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E108" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F108" t="n">
         <v>500</v>
       </c>
       <c r="G108" t="n">
-        <v>407.4166666666667</v>
+        <v>407.3333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C109" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D109" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E109" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F109" t="n">
-        <v>4256.9349</v>
+        <v>500</v>
       </c>
       <c r="G109" t="n">
-        <v>407.4833333333333</v>
+        <v>407.4166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>408</v>
       </c>
       <c r="F110" t="n">
-        <v>580.0955</v>
+        <v>4256.9349</v>
       </c>
       <c r="G110" t="n">
-        <v>407.55</v>
+        <v>407.4833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,7 +4248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C111" t="n">
         <v>408</v>
@@ -4257,13 +4257,13 @@
         <v>408</v>
       </c>
       <c r="E111" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F111" t="n">
-        <v>3869.4107</v>
+        <v>580.0955</v>
       </c>
       <c r="G111" t="n">
-        <v>407.6</v>
+        <v>407.55</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C112" t="n">
         <v>408</v>
@@ -4292,13 +4292,13 @@
         <v>408</v>
       </c>
       <c r="E112" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F112" t="n">
-        <v>244.0169</v>
+        <v>3869.4107</v>
       </c>
       <c r="G112" t="n">
-        <v>407.6666666666667</v>
+        <v>407.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,19 +4318,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C113" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D113" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E113" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F113" t="n">
-        <v>24.9375</v>
+        <v>244.0169</v>
       </c>
       <c r="G113" t="n">
         <v>407.6666666666667</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C114" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D114" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E114" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>24.9375</v>
       </c>
       <c r="G114" t="n">
-        <v>407.7333333333333</v>
+        <v>407.6666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4391,19 @@
         <v>409</v>
       </c>
       <c r="C115" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D115" t="n">
         <v>409</v>
       </c>
       <c r="E115" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F115" t="n">
-        <v>5743.4866</v>
+        <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>407.7166666666666</v>
+        <v>407.7333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C116" t="n">
         <v>408</v>
       </c>
       <c r="D116" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E116" t="n">
         <v>408</v>
       </c>
       <c r="F116" t="n">
-        <v>660.273</v>
+        <v>5743.4866</v>
       </c>
       <c r="G116" t="n">
-        <v>407.75</v>
+        <v>407.7166666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>408</v>
       </c>
       <c r="F117" t="n">
-        <v>703.1002</v>
+        <v>660.273</v>
       </c>
       <c r="G117" t="n">
-        <v>407.7833333333334</v>
+        <v>407.75</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>408</v>
       </c>
       <c r="F118" t="n">
-        <v>863.8375</v>
+        <v>703.1002</v>
       </c>
       <c r="G118" t="n">
-        <v>407.8333333333333</v>
+        <v>407.7833333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4531,19 @@
         <v>408</v>
       </c>
       <c r="C119" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D119" t="n">
         <v>408</v>
       </c>
       <c r="E119" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F119" t="n">
-        <v>382</v>
+        <v>863.8375</v>
       </c>
       <c r="G119" t="n">
-        <v>407.8833333333333</v>
+        <v>407.8333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C120" t="n">
         <v>407</v>
       </c>
       <c r="D120" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E120" t="n">
         <v>407</v>
       </c>
       <c r="F120" t="n">
-        <v>1617.4302</v>
+        <v>382</v>
       </c>
       <c r="G120" t="n">
-        <v>407.9166666666667</v>
+        <v>407.8833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>407</v>
       </c>
       <c r="F121" t="n">
-        <v>10598.3631</v>
+        <v>1617.4302</v>
       </c>
       <c r="G121" t="n">
-        <v>407.95</v>
+        <v>407.9166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>407</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>10598.3631</v>
       </c>
       <c r="G122" t="n">
-        <v>408</v>
+        <v>407.95</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>407</v>
       </c>
       <c r="F123" t="n">
-        <v>1745.9434</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>408.05</v>
+        <v>408</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C124" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D124" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E124" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F124" t="n">
-        <v>653.48263529</v>
+        <v>1745.9434</v>
       </c>
       <c r="G124" t="n">
-        <v>408.1166666666667</v>
+        <v>408.05</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>408</v>
       </c>
       <c r="F125" t="n">
-        <v>196.8368</v>
+        <v>653.48263529</v>
       </c>
       <c r="G125" t="n">
-        <v>408.1833333333333</v>
+        <v>408.1166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>408</v>
       </c>
       <c r="F126" t="n">
-        <v>68.2512</v>
+        <v>196.8368</v>
       </c>
       <c r="G126" t="n">
-        <v>408.2333333333333</v>
+        <v>408.1833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C127" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D127" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E127" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F127" t="n">
-        <v>352.9236</v>
+        <v>68.2512</v>
       </c>
       <c r="G127" t="n">
-        <v>408.25</v>
+        <v>408.2333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C128" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D128" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E128" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F128" t="n">
-        <v>7751.43386471</v>
+        <v>352.9236</v>
       </c>
       <c r="G128" t="n">
-        <v>408.3</v>
+        <v>408.25</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C129" t="n">
         <v>409</v>
@@ -4887,13 +4887,13 @@
         <v>409</v>
       </c>
       <c r="E129" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F129" t="n">
-        <v>6930.4464</v>
+        <v>7751.43386471</v>
       </c>
       <c r="G129" t="n">
-        <v>408.3666666666667</v>
+        <v>408.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C130" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D130" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E130" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F130" t="n">
-        <v>57.8595</v>
+        <v>6930.4464</v>
       </c>
       <c r="G130" t="n">
-        <v>408.45</v>
+        <v>408.3666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>408</v>
       </c>
       <c r="F131" t="n">
-        <v>192.1405</v>
+        <v>57.8595</v>
       </c>
       <c r="G131" t="n">
         <v>408.45</v>
@@ -4995,7 +4995,7 @@
         <v>408</v>
       </c>
       <c r="F132" t="n">
-        <v>107.8995</v>
+        <v>192.1405</v>
       </c>
       <c r="G132" t="n">
         <v>408.45</v>
@@ -5030,7 +5030,7 @@
         <v>408</v>
       </c>
       <c r="F133" t="n">
-        <v>792.0922</v>
+        <v>107.8995</v>
       </c>
       <c r="G133" t="n">
         <v>408.45</v>
@@ -5065,7 +5065,7 @@
         <v>408</v>
       </c>
       <c r="F134" t="n">
-        <v>23.1661</v>
+        <v>792.0922</v>
       </c>
       <c r="G134" t="n">
         <v>408.45</v>
@@ -5088,19 +5088,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C135" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D135" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E135" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F135" t="n">
-        <v>653.7261</v>
+        <v>23.1661</v>
       </c>
       <c r="G135" t="n">
         <v>408.45</v>
@@ -5135,10 +5135,10 @@
         <v>409</v>
       </c>
       <c r="F136" t="n">
-        <v>487.176</v>
+        <v>653.7261</v>
       </c>
       <c r="G136" t="n">
-        <v>408.4333333333333</v>
+        <v>408.45</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C137" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D137" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E137" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>487.176</v>
       </c>
       <c r="G137" t="n">
-        <v>408.4166666666667</v>
+        <v>408.4333333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C138" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D138" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E138" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F138" t="n">
-        <v>128.0091</v>
+        <v>250</v>
       </c>
       <c r="G138" t="n">
-        <v>408.3833333333333</v>
+        <v>408.4166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>408</v>
       </c>
       <c r="F139" t="n">
-        <v>156.8627</v>
+        <v>128.0091</v>
       </c>
       <c r="G139" t="n">
-        <v>408.35</v>
+        <v>408.3833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>408</v>
       </c>
       <c r="F140" t="n">
-        <v>5299.7257</v>
+        <v>156.8627</v>
       </c>
       <c r="G140" t="n">
-        <v>408.3166666666667</v>
+        <v>408.35</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C141" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D141" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E141" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F141" t="n">
-        <v>10650.6381</v>
+        <v>5299.7257</v>
       </c>
       <c r="G141" t="n">
-        <v>408.3</v>
+        <v>408.3166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,19 +5333,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C142" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D142" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E142" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F142" t="n">
-        <v>250</v>
+        <v>10650.6381</v>
       </c>
       <c r="G142" t="n">
         <v>408.3</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C143" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D143" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E143" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F143" t="n">
-        <v>346.6392</v>
+        <v>250</v>
       </c>
       <c r="G143" t="n">
-        <v>408.2666666666667</v>
+        <v>408.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5406,19 +5406,19 @@
         <v>407</v>
       </c>
       <c r="C144" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D144" t="n">
         <v>407</v>
       </c>
       <c r="E144" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F144" t="n">
-        <v>16928.7035</v>
+        <v>346.6392</v>
       </c>
       <c r="G144" t="n">
-        <v>408.2166666666666</v>
+        <v>408.2666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5441,19 +5441,19 @@
         <v>407</v>
       </c>
       <c r="C145" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D145" t="n">
         <v>407</v>
       </c>
       <c r="E145" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F145" t="n">
-        <v>194</v>
+        <v>16928.7035</v>
       </c>
       <c r="G145" t="n">
-        <v>408.2</v>
+        <v>408.2166666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>407</v>
       </c>
       <c r="F146" t="n">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="G146" t="n">
-        <v>408.15</v>
+        <v>408.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C147" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D147" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E147" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F147" t="n">
-        <v>197.3192</v>
+        <v>88</v>
       </c>
       <c r="G147" t="n">
-        <v>408.1</v>
+        <v>408.15</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>406</v>
       </c>
       <c r="F148" t="n">
-        <v>206.7812</v>
+        <v>197.3192</v>
       </c>
       <c r="G148" t="n">
-        <v>408.05</v>
+        <v>408.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>406</v>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>206.7812</v>
       </c>
       <c r="G149" t="n">
-        <v>408</v>
+        <v>408.05</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C150" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D150" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E150" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F150" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="G150" t="n">
-        <v>407.95</v>
+        <v>408</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>407</v>
       </c>
       <c r="F151" t="n">
-        <v>146.7092</v>
+        <v>25</v>
       </c>
       <c r="G151" t="n">
-        <v>407.9166666666667</v>
+        <v>407.95</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C152" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D152" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E152" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F152" t="n">
-        <v>12731.5159</v>
+        <v>146.7092</v>
       </c>
       <c r="G152" t="n">
-        <v>407.85</v>
+        <v>407.9166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C153" t="n">
         <v>405</v>
       </c>
       <c r="D153" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E153" t="n">
         <v>405</v>
       </c>
       <c r="F153" t="n">
-        <v>3305.4708</v>
+        <v>12731.5159</v>
       </c>
       <c r="G153" t="n">
-        <v>407.7833333333334</v>
+        <v>407.85</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C154" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D154" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E154" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>3305.4708</v>
       </c>
       <c r="G154" t="n">
-        <v>407.7333333333333</v>
+        <v>407.7833333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C155" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D155" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E155" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F155" t="n">
-        <v>6476.9758</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>407.6666666666667</v>
+        <v>407.7333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C156" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D156" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E156" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F156" t="n">
-        <v>774.7572</v>
+        <v>6476.9758</v>
       </c>
       <c r="G156" t="n">
-        <v>407.5833333333333</v>
+        <v>407.6666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C157" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D157" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E157" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F157" t="n">
-        <v>718.4756</v>
+        <v>774.7572</v>
       </c>
       <c r="G157" t="n">
-        <v>407.5</v>
+        <v>407.5833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C158" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D158" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E158" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F158" t="n">
-        <v>300</v>
+        <v>718.4756</v>
       </c>
       <c r="G158" t="n">
-        <v>407.45</v>
+        <v>407.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +5940,10 @@
         <v>406</v>
       </c>
       <c r="F159" t="n">
-        <v>1249.975</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
-        <v>407.4333333333333</v>
+        <v>407.45</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C160" t="n">
         <v>406</v>
       </c>
       <c r="D160" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E160" t="n">
         <v>406</v>
       </c>
       <c r="F160" t="n">
-        <v>2422.3316</v>
+        <v>1249.975</v>
       </c>
       <c r="G160" t="n">
-        <v>407.4</v>
+        <v>407.4333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C161" t="n">
         <v>406</v>
       </c>
       <c r="D161" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E161" t="n">
         <v>406</v>
       </c>
       <c r="F161" t="n">
-        <v>42.6586</v>
+        <v>2422.3316</v>
       </c>
       <c r="G161" t="n">
-        <v>407.3833333333333</v>
+        <v>407.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,10 +6045,10 @@
         <v>406</v>
       </c>
       <c r="F162" t="n">
-        <v>504.7202</v>
+        <v>42.6586</v>
       </c>
       <c r="G162" t="n">
-        <v>407.3666666666667</v>
+        <v>407.3833333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C163" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D163" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E163" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>504.7202</v>
       </c>
       <c r="G163" t="n">
-        <v>407.35</v>
+        <v>407.3666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C164" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D164" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E164" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F164" t="n">
-        <v>1084.4847</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>407.3</v>
+        <v>407.35</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C165" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D165" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E165" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F165" t="n">
-        <v>12</v>
+        <v>1084.4847</v>
       </c>
       <c r="G165" t="n">
-        <v>407.2833333333334</v>
+        <v>407.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,10 +6185,10 @@
         <v>407</v>
       </c>
       <c r="F166" t="n">
-        <v>572.3579999999999</v>
+        <v>12</v>
       </c>
       <c r="G166" t="n">
-        <v>407.2333333333333</v>
+        <v>407.2833333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C167" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D167" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E167" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F167" t="n">
-        <v>165</v>
+        <v>572.3579999999999</v>
       </c>
       <c r="G167" t="n">
-        <v>407.2</v>
+        <v>407.2333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C168" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D168" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E168" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F168" t="n">
-        <v>4851.662</v>
+        <v>165</v>
       </c>
       <c r="G168" t="n">
-        <v>407.1666666666667</v>
+        <v>407.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6290,10 @@
         <v>407</v>
       </c>
       <c r="F169" t="n">
-        <v>2669.3092</v>
+        <v>4851.662</v>
       </c>
       <c r="G169" t="n">
-        <v>407.15</v>
+        <v>407.1666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,10 +6325,10 @@
         <v>407</v>
       </c>
       <c r="F170" t="n">
-        <v>1447.6908</v>
+        <v>2669.3092</v>
       </c>
       <c r="G170" t="n">
-        <v>407.1333333333333</v>
+        <v>407.15</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,19 +6348,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C171" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D171" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E171" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F171" t="n">
-        <v>50</v>
+        <v>1447.6908</v>
       </c>
       <c r="G171" t="n">
         <v>407.1333333333333</v>
@@ -6383,7 +6383,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C172" t="n">
         <v>408</v>
@@ -6392,10 +6392,10 @@
         <v>408</v>
       </c>
       <c r="E172" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F172" t="n">
-        <v>195.9999</v>
+        <v>50</v>
       </c>
       <c r="G172" t="n">
         <v>407.1333333333333</v>
@@ -6418,7 +6418,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C173" t="n">
         <v>408</v>
@@ -6427,13 +6427,13 @@
         <v>408</v>
       </c>
       <c r="E173" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F173" t="n">
-        <v>1032.9999</v>
+        <v>195.9999</v>
       </c>
       <c r="G173" t="n">
-        <v>407.15</v>
+        <v>407.1333333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,10 +6465,10 @@
         <v>408</v>
       </c>
       <c r="F174" t="n">
-        <v>893.367</v>
+        <v>1032.9999</v>
       </c>
       <c r="G174" t="n">
-        <v>407.1333333333333</v>
+        <v>407.15</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C175" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D175" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E175" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F175" t="n">
-        <v>1326</v>
+        <v>893.367</v>
       </c>
       <c r="G175" t="n">
-        <v>407.15</v>
+        <v>407.1333333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6535,10 +6535,10 @@
         <v>409</v>
       </c>
       <c r="F176" t="n">
-        <v>100</v>
+        <v>1326</v>
       </c>
       <c r="G176" t="n">
-        <v>407.1666666666667</v>
+        <v>407.15</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
         <v>409</v>
       </c>
       <c r="F177" t="n">
-        <v>8565.9239</v>
+        <v>100</v>
       </c>
       <c r="G177" t="n">
-        <v>407.1833333333333</v>
+        <v>407.1666666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +6605,10 @@
         <v>409</v>
       </c>
       <c r="F178" t="n">
-        <v>2463.0541</v>
+        <v>8565.9239</v>
       </c>
       <c r="G178" t="n">
-        <v>407.2</v>
+        <v>407.1833333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>409</v>
       </c>
       <c r="F179" t="n">
-        <v>922.0782</v>
+        <v>2463.0541</v>
       </c>
       <c r="G179" t="n">
-        <v>407.2333333333333</v>
+        <v>407.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6675,10 +6675,10 @@
         <v>409</v>
       </c>
       <c r="F180" t="n">
-        <v>25</v>
+        <v>922.0782</v>
       </c>
       <c r="G180" t="n">
-        <v>407.2666666666667</v>
+        <v>407.2333333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,10 +6710,10 @@
         <v>409</v>
       </c>
       <c r="F181" t="n">
-        <v>1216.4743</v>
+        <v>25</v>
       </c>
       <c r="G181" t="n">
-        <v>407.3</v>
+        <v>407.2666666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +6745,10 @@
         <v>409</v>
       </c>
       <c r="F182" t="n">
-        <v>406.3127</v>
+        <v>1216.4743</v>
       </c>
       <c r="G182" t="n">
-        <v>407.3333333333333</v>
+        <v>407.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C183" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D183" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E183" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F183" t="n">
-        <v>25</v>
+        <v>406.3127</v>
       </c>
       <c r="G183" t="n">
-        <v>407.3833333333333</v>
+        <v>407.3333333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C184" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D184" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E184" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F184" t="n">
-        <v>971.7107</v>
+        <v>25</v>
       </c>
       <c r="G184" t="n">
-        <v>407.4</v>
+        <v>407.3833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C185" t="n">
         <v>409</v>
       </c>
       <c r="D185" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E185" t="n">
         <v>409</v>
       </c>
       <c r="F185" t="n">
-        <v>262.3604</v>
+        <v>971.7107</v>
       </c>
       <c r="G185" t="n">
-        <v>407.4166666666667</v>
+        <v>407.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6876,19 +6876,19 @@
         <v>410</v>
       </c>
       <c r="C186" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D186" t="n">
         <v>410</v>
       </c>
       <c r="E186" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F186" t="n">
-        <v>309.0448</v>
+        <v>262.3604</v>
       </c>
       <c r="G186" t="n">
-        <v>407.45</v>
+        <v>407.4166666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6920,10 +6920,10 @@
         <v>410</v>
       </c>
       <c r="F187" t="n">
-        <v>2560</v>
+        <v>309.0448</v>
       </c>
       <c r="G187" t="n">
-        <v>407.5</v>
+        <v>407.45</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6955,10 +6955,10 @@
         <v>410</v>
       </c>
       <c r="F188" t="n">
-        <v>19.7383</v>
+        <v>2560</v>
       </c>
       <c r="G188" t="n">
-        <v>407.5166666666667</v>
+        <v>407.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>410</v>
       </c>
       <c r="F189" t="n">
-        <v>925.9008</v>
+        <v>19.7383</v>
       </c>
       <c r="G189" t="n">
-        <v>407.5333333333334</v>
+        <v>407.5166666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7016,16 +7016,16 @@
         <v>410</v>
       </c>
       <c r="C190" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D190" t="n">
         <v>410</v>
       </c>
       <c r="E190" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F190" t="n">
-        <v>1969.4162</v>
+        <v>925.9008</v>
       </c>
       <c r="G190" t="n">
         <v>407.5333333333334</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C191" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D191" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E191" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F191" t="n">
-        <v>4363.9533</v>
+        <v>1969.4162</v>
       </c>
       <c r="G191" t="n">
-        <v>407.55</v>
+        <v>407.5333333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,19 +7083,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C192" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D192" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E192" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F192" t="n">
-        <v>6717.165</v>
+        <v>4363.9533</v>
       </c>
       <c r="G192" t="n">
         <v>407.55</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C193" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D193" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E193" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F193" t="n">
-        <v>3874.3067</v>
+        <v>6717.165</v>
       </c>
       <c r="G193" t="n">
-        <v>407.5333333333334</v>
+        <v>407.55</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,19 +7153,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C194" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D194" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E194" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F194" t="n">
-        <v>52</v>
+        <v>3874.3067</v>
       </c>
       <c r="G194" t="n">
         <v>407.5333333333334</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C195" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D195" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E195" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F195" t="n">
-        <v>41.6007</v>
+        <v>52</v>
       </c>
       <c r="G195" t="n">
-        <v>407.5</v>
+        <v>407.5333333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,10 +7235,10 @@
         <v>407</v>
       </c>
       <c r="F196" t="n">
-        <v>265.1172</v>
+        <v>41.6007</v>
       </c>
       <c r="G196" t="n">
-        <v>407.4666666666666</v>
+        <v>407.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C197" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D197" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E197" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F197" t="n">
-        <v>5064.3388</v>
+        <v>265.1172</v>
       </c>
       <c r="G197" t="n">
-        <v>407.4833333333333</v>
+        <v>407.4666666666666</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7305,7 +7305,7 @@
         <v>408</v>
       </c>
       <c r="F198" t="n">
-        <v>700.2886999999999</v>
+        <v>5064.3388</v>
       </c>
       <c r="G198" t="n">
         <v>407.4833333333333</v>
@@ -7331,19 +7331,19 @@
         <v>408</v>
       </c>
       <c r="C199" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D199" t="n">
         <v>408</v>
       </c>
       <c r="E199" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F199" t="n">
-        <v>611.1688</v>
+        <v>700.2886999999999</v>
       </c>
       <c r="G199" t="n">
-        <v>407.4666666666666</v>
+        <v>407.4833333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>408</v>
       </c>
       <c r="C200" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D200" t="n">
         <v>408</v>
       </c>
       <c r="E200" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F200" t="n">
-        <v>1286.848</v>
+        <v>611.1688</v>
       </c>
       <c r="G200" t="n">
         <v>407.4666666666666</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C201" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D201" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E201" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F201" t="n">
-        <v>757.399</v>
+        <v>1286.848</v>
       </c>
       <c r="G201" t="n">
-        <v>407.4333333333333</v>
+        <v>407.4666666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,19 +7433,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C202" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D202" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E202" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F202" t="n">
-        <v>895.3911000000001</v>
+        <v>757.399</v>
       </c>
       <c r="G202" t="n">
         <v>407.4333333333333</v>
@@ -7480,10 +7480,10 @@
         <v>408</v>
       </c>
       <c r="F203" t="n">
-        <v>85.2401</v>
+        <v>895.3911000000001</v>
       </c>
       <c r="G203" t="n">
-        <v>407.45</v>
+        <v>407.4333333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C204" t="n">
         <v>408</v>
       </c>
       <c r="D204" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E204" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F204" t="n">
-        <v>2292.7773</v>
+        <v>85.2401</v>
       </c>
       <c r="G204" t="n">
-        <v>407.4833333333333</v>
+        <v>407.45</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C205" t="n">
         <v>408</v>
       </c>
       <c r="D205" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E205" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F205" t="n">
-        <v>1247.3854</v>
+        <v>2292.7773</v>
       </c>
       <c r="G205" t="n">
-        <v>407.5</v>
+        <v>407.4833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7576,19 +7576,19 @@
         <v>408</v>
       </c>
       <c r="C206" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D206" t="n">
         <v>408</v>
       </c>
       <c r="E206" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F206" t="n">
-        <v>1943.2487</v>
+        <v>1247.3854</v>
       </c>
       <c r="G206" t="n">
-        <v>407.4833333333333</v>
+        <v>407.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7611,19 +7611,19 @@
         <v>408</v>
       </c>
       <c r="C207" t="n">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D207" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E207" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F207" t="n">
-        <v>1341.9999</v>
+        <v>1943.2487</v>
       </c>
       <c r="G207" t="n">
-        <v>407.5333333333334</v>
+        <v>407.4833333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C208" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D208" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E208" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F208" t="n">
-        <v>2737.3783</v>
+        <v>1341.9999</v>
       </c>
       <c r="G208" t="n">
-        <v>407.6</v>
+        <v>407.5333333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C209" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D209" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E209" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F209" t="n">
-        <v>37.6532</v>
+        <v>2737.3783</v>
       </c>
       <c r="G209" t="n">
-        <v>407.6333333333333</v>
+        <v>407.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C210" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D210" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E210" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F210" t="n">
-        <v>2571.9399</v>
+        <v>37.6532</v>
       </c>
       <c r="G210" t="n">
-        <v>407.6666666666667</v>
+        <v>407.6333333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C211" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D211" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E211" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F211" t="n">
-        <v>933.4288</v>
+        <v>2571.9399</v>
       </c>
       <c r="G211" t="n">
-        <v>407.6833333333333</v>
+        <v>407.6666666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7795,10 +7795,10 @@
         <v>408</v>
       </c>
       <c r="F212" t="n">
-        <v>350.2975</v>
+        <v>933.4288</v>
       </c>
       <c r="G212" t="n">
-        <v>407.7333333333333</v>
+        <v>407.6833333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C213" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D213" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E213" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F213" t="n">
-        <v>6384.6302</v>
+        <v>350.2975</v>
       </c>
       <c r="G213" t="n">
-        <v>407.7666666666667</v>
+        <v>407.7333333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,7 +7853,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C214" t="n">
         <v>407</v>
@@ -7862,13 +7862,13 @@
         <v>407</v>
       </c>
       <c r="E214" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F214" t="n">
-        <v>3103.1488</v>
+        <v>6384.6302</v>
       </c>
       <c r="G214" t="n">
-        <v>407.7833333333334</v>
+        <v>407.7666666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7891,19 +7891,19 @@
         <v>406</v>
       </c>
       <c r="C215" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D215" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E215" t="n">
         <v>406</v>
       </c>
       <c r="F215" t="n">
-        <v>2575.5055</v>
+        <v>3103.1488</v>
       </c>
       <c r="G215" t="n">
-        <v>407.8</v>
+        <v>407.7833333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7932,13 +7932,13 @@
         <v>406</v>
       </c>
       <c r="E216" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F216" t="n">
-        <v>8727.875700000001</v>
+        <v>2575.5055</v>
       </c>
       <c r="G216" t="n">
-        <v>407.8333333333333</v>
+        <v>407.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7967,13 +7967,13 @@
         <v>406</v>
       </c>
       <c r="E217" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F217" t="n">
-        <v>5066.2973</v>
+        <v>8727.875700000001</v>
       </c>
       <c r="G217" t="n">
-        <v>407.85</v>
+        <v>407.8333333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7996,19 +7996,19 @@
         <v>406</v>
       </c>
       <c r="C218" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D218" t="n">
         <v>406</v>
       </c>
       <c r="E218" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F218" t="n">
-        <v>4016.8</v>
+        <v>5066.2973</v>
       </c>
       <c r="G218" t="n">
-        <v>407.8333333333333</v>
+        <v>407.85</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,19 +8028,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C219" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D219" t="n">
         <v>406</v>
       </c>
       <c r="E219" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F219" t="n">
-        <v>70496.86259999999</v>
+        <v>4016.8</v>
       </c>
       <c r="G219" t="n">
         <v>407.8333333333333</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C220" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D220" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E220" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F220" t="n">
-        <v>6832.4957</v>
+        <v>70496.86259999999</v>
       </c>
       <c r="G220" t="n">
-        <v>407.8</v>
+        <v>407.8333333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>404</v>
       </c>
       <c r="F221" t="n">
-        <v>1034.1774</v>
+        <v>6832.4957</v>
       </c>
       <c r="G221" t="n">
-        <v>407.7666666666667</v>
+        <v>407.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C222" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D222" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E222" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F222" t="n">
-        <v>1</v>
+        <v>1034.1774</v>
       </c>
       <c r="G222" t="n">
-        <v>407.75</v>
+        <v>407.7666666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8171,19 +8171,19 @@
         <v>405</v>
       </c>
       <c r="C223" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D223" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E223" t="n">
         <v>405</v>
       </c>
       <c r="F223" t="n">
-        <v>12164.0275</v>
+        <v>1</v>
       </c>
       <c r="G223" t="n">
-        <v>407.7333333333333</v>
+        <v>407.75</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,7 +8203,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C224" t="n">
         <v>406</v>
@@ -8212,13 +8212,13 @@
         <v>406</v>
       </c>
       <c r="E224" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F224" t="n">
-        <v>100.6178</v>
+        <v>12164.0275</v>
       </c>
       <c r="G224" t="n">
-        <v>407.75</v>
+        <v>407.7333333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C225" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D225" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E225" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F225" t="n">
-        <v>500</v>
+        <v>100.6178</v>
       </c>
       <c r="G225" t="n">
-        <v>407.7166666666666</v>
+        <v>407.75</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8285,10 +8285,10 @@
         <v>405</v>
       </c>
       <c r="F226" t="n">
-        <v>1621.3953</v>
+        <v>500</v>
       </c>
       <c r="G226" t="n">
-        <v>407.6833333333333</v>
+        <v>407.7166666666666</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8320,10 @@
         <v>405</v>
       </c>
       <c r="F227" t="n">
-        <v>909.2791</v>
+        <v>1621.3953</v>
       </c>
       <c r="G227" t="n">
-        <v>407.6333333333333</v>
+        <v>407.6833333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8346,19 +8346,19 @@
         <v>405</v>
       </c>
       <c r="C228" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D228" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E228" t="n">
         <v>405</v>
       </c>
       <c r="F228" t="n">
-        <v>3324.6619</v>
+        <v>909.2791</v>
       </c>
       <c r="G228" t="n">
-        <v>407.6166666666667</v>
+        <v>407.6333333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,7 +8378,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C229" t="n">
         <v>406</v>
@@ -8387,13 +8387,13 @@
         <v>406</v>
       </c>
       <c r="E229" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F229" t="n">
-        <v>10</v>
+        <v>3324.6619</v>
       </c>
       <c r="G229" t="n">
-        <v>407.6</v>
+        <v>407.6166666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8416,19 +8416,19 @@
         <v>406</v>
       </c>
       <c r="C230" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D230" t="n">
         <v>406</v>
       </c>
       <c r="E230" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F230" t="n">
-        <v>3071.3847</v>
+        <v>10</v>
       </c>
       <c r="G230" t="n">
-        <v>407.55</v>
+        <v>407.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C231" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D231" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E231" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F231" t="n">
-        <v>126.8978</v>
+        <v>3071.3847</v>
       </c>
       <c r="G231" t="n">
-        <v>407.5</v>
+        <v>407.55</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8495,10 +8495,10 @@
         <v>405</v>
       </c>
       <c r="F232" t="n">
-        <v>1836</v>
+        <v>126.8978</v>
       </c>
       <c r="G232" t="n">
-        <v>407.45</v>
+        <v>407.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C233" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D233" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E233" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F233" t="n">
-        <v>257</v>
+        <v>1836</v>
       </c>
       <c r="G233" t="n">
-        <v>407.4166666666667</v>
+        <v>407.45</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C234" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D234" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E234" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F234" t="n">
-        <v>750</v>
+        <v>257</v>
       </c>
       <c r="G234" t="n">
-        <v>407.4</v>
+        <v>407.4166666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8600,10 +8600,10 @@
         <v>407</v>
       </c>
       <c r="F235" t="n">
-        <v>2566.1869</v>
+        <v>750</v>
       </c>
       <c r="G235" t="n">
-        <v>407.3666666666667</v>
+        <v>407.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C236" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D236" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E236" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F236" t="n">
-        <v>150</v>
+        <v>2566.1869</v>
       </c>
       <c r="G236" t="n">
-        <v>407.35</v>
+        <v>407.3666666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C237" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D237" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E237" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F237" t="n">
-        <v>4203</v>
+        <v>150</v>
       </c>
       <c r="G237" t="n">
-        <v>407.3166666666667</v>
+        <v>407.35</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8705,10 +8705,10 @@
         <v>407</v>
       </c>
       <c r="F238" t="n">
-        <v>2040.8229</v>
+        <v>4203</v>
       </c>
       <c r="G238" t="n">
-        <v>407.2833333333334</v>
+        <v>407.3166666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C239" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D239" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E239" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F239" t="n">
-        <v>2043.6933</v>
+        <v>2040.8229</v>
       </c>
       <c r="G239" t="n">
-        <v>407.2</v>
+        <v>407.2833333333334</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C240" t="n">
         <v>404</v>
       </c>
       <c r="D240" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E240" t="n">
         <v>404</v>
       </c>
       <c r="F240" t="n">
-        <v>2733.197</v>
+        <v>2043.6933</v>
       </c>
       <c r="G240" t="n">
-        <v>407.1166666666667</v>
+        <v>407.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C241" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D241" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E241" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F241" t="n">
-        <v>1766.6017</v>
+        <v>2733.197</v>
       </c>
       <c r="G241" t="n">
-        <v>407.0166666666667</v>
+        <v>407.1166666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C242" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D242" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E242" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F242" t="n">
-        <v>1.11</v>
+        <v>1766.6017</v>
       </c>
       <c r="G242" t="n">
-        <v>406.9333333333333</v>
+        <v>407.0166666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8880,10 +8880,10 @@
         <v>404</v>
       </c>
       <c r="F243" t="n">
-        <v>200</v>
+        <v>1.11</v>
       </c>
       <c r="G243" t="n">
-        <v>406.8333333333333</v>
+        <v>406.9333333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8915,10 +8915,10 @@
         <v>404</v>
       </c>
       <c r="F244" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G244" t="n">
-        <v>406.75</v>
+        <v>406.8333333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,22 +8938,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C245" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D245" t="n">
         <v>404</v>
       </c>
       <c r="E245" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F245" t="n">
-        <v>637.8874</v>
+        <v>500</v>
       </c>
       <c r="G245" t="n">
-        <v>406.65</v>
+        <v>406.75</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
+        <v>403</v>
+      </c>
+      <c r="C246" t="n">
+        <v>403</v>
+      </c>
+      <c r="D246" t="n">
         <v>404</v>
       </c>
-      <c r="C246" t="n">
-        <v>405</v>
-      </c>
-      <c r="D246" t="n">
-        <v>405</v>
-      </c>
       <c r="E246" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F246" t="n">
-        <v>1911.5918</v>
+        <v>637.8874</v>
       </c>
       <c r="G246" t="n">
-        <v>406.5666666666667</v>
+        <v>406.65</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C247" t="n">
         <v>405</v>
@@ -9017,13 +9017,13 @@
         <v>405</v>
       </c>
       <c r="E247" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F247" t="n">
-        <v>1595.0343</v>
+        <v>1911.5918</v>
       </c>
       <c r="G247" t="n">
-        <v>406.4833333333333</v>
+        <v>406.5666666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9046,19 +9046,19 @@
         <v>405</v>
       </c>
       <c r="C248" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D248" t="n">
         <v>405</v>
       </c>
       <c r="E248" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F248" t="n">
-        <v>10624.0115</v>
+        <v>1595.0343</v>
       </c>
       <c r="G248" t="n">
-        <v>406.35</v>
+        <v>406.4833333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C249" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D249" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E249" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F249" t="n">
-        <v>2782.6018</v>
+        <v>10624.0115</v>
       </c>
       <c r="G249" t="n">
-        <v>406.2333333333333</v>
+        <v>406.35</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C250" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D250" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E250" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F250" t="n">
-        <v>13933.0243</v>
+        <v>2782.6018</v>
       </c>
       <c r="G250" t="n">
-        <v>406.1333333333333</v>
+        <v>406.2333333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C251" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D251" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E251" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F251" t="n">
-        <v>3689.2948</v>
+        <v>13933.0243</v>
       </c>
       <c r="G251" t="n">
-        <v>406</v>
+        <v>406.1333333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9195,10 +9195,10 @@
         <v>401</v>
       </c>
       <c r="F252" t="n">
-        <v>74.8728</v>
+        <v>3689.2948</v>
       </c>
       <c r="G252" t="n">
-        <v>405.8833333333333</v>
+        <v>406</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C253" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D253" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E253" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F253" t="n">
-        <v>20</v>
+        <v>74.8728</v>
       </c>
       <c r="G253" t="n">
-        <v>405.8166666666667</v>
+        <v>405.8833333333333</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9265,10 +9265,10 @@
         <v>403</v>
       </c>
       <c r="F254" t="n">
-        <v>3099.1439</v>
+        <v>20</v>
       </c>
       <c r="G254" t="n">
-        <v>405.7333333333333</v>
+        <v>405.8166666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C255" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D255" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E255" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F255" t="n">
-        <v>1000</v>
+        <v>3099.1439</v>
       </c>
       <c r="G255" t="n">
-        <v>405.6166666666667</v>
+        <v>405.7333333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C256" t="n">
         <v>400</v>
       </c>
       <c r="D256" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E256" t="n">
         <v>400</v>
       </c>
       <c r="F256" t="n">
-        <v>17331.9624</v>
+        <v>1000</v>
       </c>
       <c r="G256" t="n">
-        <v>405.5</v>
+        <v>405.6166666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9358,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C257" t="n">
         <v>400</v>
       </c>
       <c r="D257" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E257" t="n">
         <v>400</v>
       </c>
       <c r="F257" t="n">
-        <v>1700</v>
+        <v>17331.9624</v>
       </c>
       <c r="G257" t="n">
-        <v>405.3666666666667</v>
+        <v>405.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9402,13 +9402,13 @@
         <v>400</v>
       </c>
       <c r="E258" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F258" t="n">
-        <v>3731.5293</v>
+        <v>1700</v>
       </c>
       <c r="G258" t="n">
-        <v>405.2333333333333</v>
+        <v>405.3666666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C259" t="n">
         <v>400</v>
       </c>
       <c r="D259" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E259" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F259" t="n">
-        <v>12119.5946</v>
+        <v>3731.5293</v>
       </c>
       <c r="G259" t="n">
-        <v>405.1166666666667</v>
+        <v>405.2333333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C260" t="n">
         <v>400</v>
       </c>
       <c r="D260" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E260" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F260" t="n">
-        <v>252.9606</v>
+        <v>12119.5946</v>
       </c>
       <c r="G260" t="n">
-        <v>404.9833333333333</v>
+        <v>405.1166666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9501,19 +9501,19 @@
         <v>400</v>
       </c>
       <c r="C261" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D261" t="n">
         <v>400</v>
       </c>
       <c r="E261" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F261" t="n">
-        <v>3965.4043</v>
+        <v>252.9606</v>
       </c>
       <c r="G261" t="n">
-        <v>404.85</v>
+        <v>404.9833333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,22 +9533,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C262" t="n">
         <v>399</v>
       </c>
       <c r="D262" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E262" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F262" t="n">
-        <v>533.1235</v>
+        <v>3965.4043</v>
       </c>
       <c r="G262" t="n">
-        <v>404.7</v>
+        <v>404.85</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9580,10 +9580,10 @@
         <v>399</v>
       </c>
       <c r="F263" t="n">
-        <v>135.0902</v>
+        <v>533.1235</v>
       </c>
       <c r="G263" t="n">
-        <v>404.55</v>
+        <v>404.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9615,10 +9615,10 @@
         <v>399</v>
       </c>
       <c r="F264" t="n">
-        <v>100</v>
+        <v>135.0902</v>
       </c>
       <c r="G264" t="n">
-        <v>404.4</v>
+        <v>404.55</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>399</v>
       </c>
       <c r="F265" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="G265" t="n">
-        <v>404.25</v>
+        <v>404.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9676,156 +9676,146 @@
         <v>399</v>
       </c>
       <c r="C266" t="n">
+        <v>399</v>
+      </c>
+      <c r="D266" t="n">
+        <v>399</v>
+      </c>
+      <c r="E266" t="n">
+        <v>399</v>
+      </c>
+      <c r="F266" t="n">
+        <v>225</v>
+      </c>
+      <c r="G266" t="n">
+        <v>404.25</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>399</v>
+      </c>
+      <c r="C267" t="n">
         <v>400</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D267" t="n">
         <v>400</v>
       </c>
-      <c r="E266" t="n">
+      <c r="E267" t="n">
         <v>398</v>
       </c>
-      <c r="F266" t="n">
+      <c r="F267" t="n">
         <v>1045.922</v>
       </c>
-      <c r="G266" t="n">
+      <c r="G267" t="n">
         <v>404.15</v>
       </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>399</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>400</v>
+      </c>
+      <c r="C268" t="n">
+        <v>400</v>
+      </c>
+      <c r="D268" t="n">
+        <v>400</v>
+      </c>
+      <c r="E268" t="n">
+        <v>400</v>
+      </c>
+      <c r="F268" t="n">
+        <v>110</v>
+      </c>
+      <c r="G268" t="n">
+        <v>404</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>400</v>
+      </c>
+      <c r="K268" t="n">
+        <v>400</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>398</v>
+      </c>
+      <c r="C269" t="n">
+        <v>397</v>
+      </c>
+      <c r="D269" t="n">
+        <v>398</v>
+      </c>
+      <c r="E269" t="n">
+        <v>397</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2312.9549</v>
+      </c>
+      <c r="G269" t="n">
+        <v>403.7833333333334</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>400</v>
+      </c>
+      <c r="K269" t="n">
+        <v>400</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>400</v>
-      </c>
-      <c r="C267" t="n">
-        <v>400</v>
-      </c>
-      <c r="D267" t="n">
-        <v>400</v>
-      </c>
-      <c r="E267" t="n">
-        <v>400</v>
-      </c>
-      <c r="F267" t="n">
-        <v>110</v>
-      </c>
-      <c r="G267" t="n">
-        <v>404</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>400</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>398</v>
-      </c>
-      <c r="C268" t="n">
-        <v>397</v>
-      </c>
-      <c r="D268" t="n">
-        <v>398</v>
-      </c>
-      <c r="E268" t="n">
-        <v>397</v>
-      </c>
-      <c r="F268" t="n">
-        <v>2312.9549</v>
-      </c>
-      <c r="G268" t="n">
-        <v>403.7833333333334</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>400</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>398</v>
-      </c>
-      <c r="C269" t="n">
-        <v>400</v>
-      </c>
-      <c r="D269" t="n">
-        <v>400</v>
-      </c>
-      <c r="E269" t="n">
-        <v>398</v>
-      </c>
-      <c r="F269" t="n">
-        <v>1397.1496</v>
-      </c>
-      <c r="G269" t="n">
-        <v>403.65</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9835,7 +9825,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C270" t="n">
         <v>400</v>
@@ -9844,22 +9834,26 @@
         <v>400</v>
       </c>
       <c r="E270" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F270" t="n">
-        <v>5265.1176</v>
+        <v>1397.1496</v>
       </c>
       <c r="G270" t="n">
-        <v>403.5</v>
+        <v>403.65</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>397</v>
+      </c>
+      <c r="K270" t="n">
+        <v>400</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9886,19 +9880,23 @@
         <v>399</v>
       </c>
       <c r="F271" t="n">
-        <v>788.5085</v>
+        <v>5265.1176</v>
       </c>
       <c r="G271" t="n">
-        <v>403.3666666666667</v>
+        <v>403.5</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>400</v>
+      </c>
+      <c r="K271" t="n">
+        <v>400</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9913,7 +9911,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C272" t="n">
         <v>400</v>
@@ -9922,22 +9920,26 @@
         <v>400</v>
       </c>
       <c r="E272" t="n">
+        <v>399</v>
+      </c>
+      <c r="F272" t="n">
+        <v>788.5085</v>
+      </c>
+      <c r="G272" t="n">
+        <v>403.3666666666667</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
         <v>400</v>
       </c>
-      <c r="F272" t="n">
-        <v>474.9999</v>
-      </c>
-      <c r="G272" t="n">
-        <v>403.2333333333333</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>400</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9964,10 +9966,10 @@
         <v>400</v>
       </c>
       <c r="F273" t="n">
-        <v>1000</v>
+        <v>474.9999</v>
       </c>
       <c r="G273" t="n">
-        <v>403.1166666666667</v>
+        <v>403.2333333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9976,7 +9978,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>400</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10003,19 +10007,23 @@
         <v>400</v>
       </c>
       <c r="F274" t="n">
-        <v>225</v>
+        <v>1000</v>
       </c>
       <c r="G274" t="n">
-        <v>403</v>
+        <v>403.1166666666667</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>400</v>
+      </c>
+      <c r="K274" t="n">
+        <v>400</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10030,22 +10038,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C275" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D275" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E275" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F275" t="n">
-        <v>2300</v>
+        <v>225</v>
       </c>
       <c r="G275" t="n">
-        <v>402.8833333333333</v>
+        <v>403</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10054,7 +10062,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>400</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10069,31 +10079,35 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
+        <v>399</v>
+      </c>
+      <c r="C276" t="n">
+        <v>399</v>
+      </c>
+      <c r="D276" t="n">
+        <v>399</v>
+      </c>
+      <c r="E276" t="n">
+        <v>399</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2300</v>
+      </c>
+      <c r="G276" t="n">
+        <v>402.8833333333333</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
         <v>400</v>
       </c>
-      <c r="C276" t="n">
+      <c r="K276" t="n">
         <v>400</v>
       </c>
-      <c r="D276" t="n">
-        <v>400</v>
-      </c>
-      <c r="E276" t="n">
-        <v>400</v>
-      </c>
-      <c r="F276" t="n">
-        <v>8</v>
-      </c>
-      <c r="G276" t="n">
-        <v>402.7833333333334</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10120,19 +10134,23 @@
         <v>400</v>
       </c>
       <c r="F277" t="n">
-        <v>13143.9443</v>
+        <v>8</v>
       </c>
       <c r="G277" t="n">
-        <v>402.6833333333333</v>
+        <v>402.7833333333334</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>399</v>
+      </c>
+      <c r="K277" t="n">
+        <v>400</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10159,19 +10177,23 @@
         <v>400</v>
       </c>
       <c r="F278" t="n">
-        <v>397.5061</v>
+        <v>13143.9443</v>
       </c>
       <c r="G278" t="n">
-        <v>402.6</v>
+        <v>402.6833333333333</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>400</v>
+      </c>
+      <c r="K278" t="n">
+        <v>400</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10198,19 +10220,23 @@
         <v>400</v>
       </c>
       <c r="F279" t="n">
-        <v>363.0701</v>
+        <v>397.5061</v>
       </c>
       <c r="G279" t="n">
-        <v>402.5</v>
+        <v>402.6</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>400</v>
+      </c>
+      <c r="K279" t="n">
+        <v>400</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10237,10 +10263,10 @@
         <v>400</v>
       </c>
       <c r="F280" t="n">
-        <v>3368.3692</v>
+        <v>363.0701</v>
       </c>
       <c r="G280" t="n">
-        <v>402.4333333333333</v>
+        <v>402.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10249,7 +10275,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>400</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10264,22 +10292,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C281" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D281" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E281" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F281" t="n">
-        <v>1</v>
+        <v>3368.3692</v>
       </c>
       <c r="G281" t="n">
-        <v>402.3833333333333</v>
+        <v>402.4333333333333</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10288,7 +10316,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>400</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10303,22 +10333,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C282" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D282" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E282" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F282" t="n">
-        <v>1936.5343</v>
+        <v>1</v>
       </c>
       <c r="G282" t="n">
-        <v>402.2833333333334</v>
+        <v>402.3833333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10327,7 +10357,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>400</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10354,10 +10386,10 @@
         <v>399</v>
       </c>
       <c r="F283" t="n">
-        <v>1300</v>
+        <v>1936.5343</v>
       </c>
       <c r="G283" t="n">
-        <v>402.1666666666667</v>
+        <v>402.2833333333334</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10366,7 +10398,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>400</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,22 +10415,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C284" t="n">
         <v>399</v>
       </c>
       <c r="D284" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E284" t="n">
         <v>399</v>
       </c>
       <c r="F284" t="n">
-        <v>2.995</v>
+        <v>1300</v>
       </c>
       <c r="G284" t="n">
-        <v>402.05</v>
+        <v>402.1666666666667</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10405,7 +10439,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>400</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10423,19 +10459,19 @@
         <v>401</v>
       </c>
       <c r="C285" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D285" t="n">
         <v>401</v>
       </c>
       <c r="E285" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F285" t="n">
-        <v>11.0104</v>
+        <v>2.995</v>
       </c>
       <c r="G285" t="n">
-        <v>401.9833333333333</v>
+        <v>402.05</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10444,7 +10480,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>400</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10471,10 +10509,10 @@
         <v>401</v>
       </c>
       <c r="F286" t="n">
-        <v>23715.6579</v>
+        <v>11.0104</v>
       </c>
       <c r="G286" t="n">
-        <v>401.9166666666667</v>
+        <v>401.9833333333333</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10483,7 +10521,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>400</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,31 +10538,33 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
+        <v>401</v>
+      </c>
+      <c r="C287" t="n">
+        <v>401</v>
+      </c>
+      <c r="D287" t="n">
+        <v>401</v>
+      </c>
+      <c r="E287" t="n">
+        <v>401</v>
+      </c>
+      <c r="F287" t="n">
+        <v>23715.6579</v>
+      </c>
+      <c r="G287" t="n">
+        <v>401.9166666666667</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
         <v>400</v>
       </c>
-      <c r="C287" t="n">
-        <v>400</v>
-      </c>
-      <c r="D287" t="n">
-        <v>400</v>
-      </c>
-      <c r="E287" t="n">
-        <v>400</v>
-      </c>
-      <c r="F287" t="n">
-        <v>4032.2968</v>
-      </c>
-      <c r="G287" t="n">
-        <v>401.8333333333333</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10537,22 +10579,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C288" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D288" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E288" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F288" t="n">
-        <v>16500.587</v>
+        <v>4032.2968</v>
       </c>
       <c r="G288" t="n">
-        <v>401.7666666666667</v>
+        <v>401.8333333333333</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10561,7 +10603,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>400</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10579,19 +10623,19 @@
         <v>402</v>
       </c>
       <c r="C289" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D289" t="n">
         <v>402</v>
       </c>
       <c r="E289" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F289" t="n">
-        <v>17337.9925</v>
+        <v>16500.587</v>
       </c>
       <c r="G289" t="n">
-        <v>401.65</v>
+        <v>401.7666666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10600,7 +10644,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>400</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10615,31 +10661,33 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
+        <v>402</v>
+      </c>
+      <c r="C290" t="n">
+        <v>399</v>
+      </c>
+      <c r="D290" t="n">
+        <v>402</v>
+      </c>
+      <c r="E290" t="n">
+        <v>399</v>
+      </c>
+      <c r="F290" t="n">
+        <v>17337.9925</v>
+      </c>
+      <c r="G290" t="n">
+        <v>401.65</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
         <v>400</v>
       </c>
-      <c r="C290" t="n">
-        <v>400</v>
-      </c>
-      <c r="D290" t="n">
-        <v>400</v>
-      </c>
-      <c r="E290" t="n">
-        <v>400</v>
-      </c>
-      <c r="F290" t="n">
-        <v>4937.3807</v>
-      </c>
-      <c r="G290" t="n">
-        <v>401.5833333333333</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10666,10 +10714,10 @@
         <v>400</v>
       </c>
       <c r="F291" t="n">
-        <v>506.8565</v>
+        <v>4937.3807</v>
       </c>
       <c r="G291" t="n">
-        <v>401.5</v>
+        <v>401.5833333333333</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10678,7 +10726,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>400</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10693,22 +10743,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C292" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D292" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E292" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F292" t="n">
-        <v>1</v>
+        <v>506.8565</v>
       </c>
       <c r="G292" t="n">
-        <v>401.45</v>
+        <v>401.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10717,7 +10767,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>400</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,22 +10784,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C293" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D293" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E293" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F293" t="n">
-        <v>921.9998000000001</v>
+        <v>1</v>
       </c>
       <c r="G293" t="n">
-        <v>401.3666666666667</v>
+        <v>401.45</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10756,7 +10808,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>400</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10771,22 +10825,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C294" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D294" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E294" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F294" t="n">
-        <v>1</v>
+        <v>921.9998000000001</v>
       </c>
       <c r="G294" t="n">
-        <v>401.2833333333334</v>
+        <v>401.3666666666667</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10795,7 +10849,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>400</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10813,19 +10869,19 @@
         <v>402</v>
       </c>
       <c r="C295" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D295" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E295" t="n">
         <v>402</v>
       </c>
       <c r="F295" t="n">
-        <v>6424.3569</v>
+        <v>1</v>
       </c>
       <c r="G295" t="n">
-        <v>401.2166666666666</v>
+        <v>401.2833333333334</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10834,7 +10890,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>400</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10852,19 +10910,19 @@
         <v>402</v>
       </c>
       <c r="C296" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D296" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E296" t="n">
         <v>402</v>
       </c>
       <c r="F296" t="n">
-        <v>126.5822</v>
+        <v>6424.3569</v>
       </c>
       <c r="G296" t="n">
-        <v>401.1166666666667</v>
+        <v>401.2166666666666</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10873,7 +10931,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>400</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10888,22 +10948,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C297" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D297" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E297" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F297" t="n">
-        <v>1070.9091</v>
+        <v>126.5822</v>
       </c>
       <c r="G297" t="n">
-        <v>401.0666666666667</v>
+        <v>401.1166666666667</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10912,7 +10972,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>400</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10939,10 +11001,10 @@
         <v>404</v>
       </c>
       <c r="F298" t="n">
-        <v>2141.8707</v>
+        <v>1070.9091</v>
       </c>
       <c r="G298" t="n">
-        <v>401.0166666666667</v>
+        <v>401.0666666666667</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10951,7 +11013,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>400</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10966,22 +11030,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C299" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D299" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E299" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F299" t="n">
-        <v>978</v>
+        <v>2141.8707</v>
       </c>
       <c r="G299" t="n">
-        <v>401.0333333333334</v>
+        <v>401.0166666666667</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10990,7 +11054,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>400</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11017,10 +11083,10 @@
         <v>405</v>
       </c>
       <c r="F300" t="n">
-        <v>325.7971</v>
+        <v>978</v>
       </c>
       <c r="G300" t="n">
-        <v>401.05</v>
+        <v>401.0333333333334</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11029,7 +11095,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>400</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11056,10 +11124,10 @@
         <v>405</v>
       </c>
       <c r="F301" t="n">
-        <v>1590.8666</v>
+        <v>325.7971</v>
       </c>
       <c r="G301" t="n">
-        <v>401.0833333333333</v>
+        <v>401.05</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11068,7 +11136,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>400</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11083,38 +11153,40 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C302" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D302" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E302" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F302" t="n">
-        <v>409.2483</v>
+        <v>1590.8666</v>
       </c>
       <c r="G302" t="n">
-        <v>401.0666666666667</v>
+        <v>401.0833333333333</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>400</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>1</v>
+        <v>1.0075</v>
       </c>
     </row>
     <row r="303">
@@ -11122,22 +11194,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C303" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D303" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E303" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F303" t="n">
-        <v>1</v>
+        <v>409.2483</v>
       </c>
       <c r="G303" t="n">
-        <v>401.0833333333333</v>
+        <v>401.0666666666667</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11147,11 +11219,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11161,22 +11229,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C304" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D304" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E304" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F304" t="n">
-        <v>1730.3449</v>
+        <v>1</v>
       </c>
       <c r="G304" t="n">
-        <v>401.0666666666667</v>
+        <v>401.0833333333333</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11186,11 +11254,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11200,19 +11264,19 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C305" t="n">
         <v>403</v>
       </c>
       <c r="D305" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E305" t="n">
         <v>403</v>
       </c>
       <c r="F305" t="n">
-        <v>3815.3283</v>
+        <v>1730.3449</v>
       </c>
       <c r="G305" t="n">
         <v>401.0666666666667</v>
@@ -11225,11 +11289,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11239,10 +11299,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
+        <v>404</v>
+      </c>
+      <c r="C306" t="n">
         <v>403</v>
-      </c>
-      <c r="C306" t="n">
-        <v>404</v>
       </c>
       <c r="D306" t="n">
         <v>404</v>
@@ -11251,10 +11311,10 @@
         <v>403</v>
       </c>
       <c r="F306" t="n">
-        <v>2503.465</v>
+        <v>3815.3283</v>
       </c>
       <c r="G306" t="n">
-        <v>401.05</v>
+        <v>401.0666666666667</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11264,11 +11324,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11278,7 +11334,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C307" t="n">
         <v>404</v>
@@ -11287,13 +11343,13 @@
         <v>404</v>
       </c>
       <c r="E307" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F307" t="n">
-        <v>918.5723</v>
+        <v>2503.465</v>
       </c>
       <c r="G307" t="n">
-        <v>401.0333333333334</v>
+        <v>401.05</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11303,11 +11359,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11329,10 +11381,10 @@
         <v>404</v>
       </c>
       <c r="F308" t="n">
-        <v>6203.841</v>
+        <v>918.5723</v>
       </c>
       <c r="G308" t="n">
-        <v>401.0666666666667</v>
+        <v>401.0333333333334</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11342,11 +11394,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11368,10 +11416,10 @@
         <v>404</v>
       </c>
       <c r="F309" t="n">
-        <v>136</v>
+        <v>6203.841</v>
       </c>
       <c r="G309" t="n">
-        <v>401.0833333333333</v>
+        <v>401.0666666666667</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11381,11 +11429,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11395,19 +11439,19 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C310" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D310" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E310" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F310" t="n">
-        <v>3244.8755</v>
+        <v>136</v>
       </c>
       <c r="G310" t="n">
         <v>401.0833333333333</v>
@@ -11420,11 +11464,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11434,22 +11474,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C311" t="n">
         <v>402</v>
       </c>
       <c r="D311" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E311" t="n">
         <v>402</v>
       </c>
       <c r="F311" t="n">
-        <v>166.0025</v>
+        <v>3244.8755</v>
       </c>
       <c r="G311" t="n">
-        <v>401.1</v>
+        <v>401.0833333333333</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11459,11 +11499,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11473,22 +11509,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C312" t="n">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D312" t="n">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E312" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F312" t="n">
-        <v>3439</v>
+        <v>166.0025</v>
       </c>
       <c r="G312" t="n">
-        <v>401.1666666666667</v>
+        <v>401.1</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11498,11 +11534,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11512,7 +11544,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C313" t="n">
         <v>405</v>
@@ -11521,13 +11553,13 @@
         <v>405</v>
       </c>
       <c r="E313" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F313" t="n">
-        <v>1185</v>
+        <v>3439</v>
       </c>
       <c r="G313" t="n">
-        <v>401.2</v>
+        <v>401.1666666666667</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11537,11 +11569,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11551,22 +11579,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C314" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D314" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E314" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F314" t="n">
-        <v>278</v>
+        <v>1185</v>
       </c>
       <c r="G314" t="n">
-        <v>401.2166666666666</v>
+        <v>401.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11576,11 +11604,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11602,10 +11626,10 @@
         <v>404</v>
       </c>
       <c r="F315" t="n">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="G315" t="n">
-        <v>401.2833333333334</v>
+        <v>401.2166666666666</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11615,11 +11639,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11632,19 +11652,19 @@
         <v>404</v>
       </c>
       <c r="C316" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D316" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E316" t="n">
         <v>404</v>
       </c>
       <c r="F316" t="n">
-        <v>2100</v>
+        <v>80</v>
       </c>
       <c r="G316" t="n">
-        <v>401.3666666666667</v>
+        <v>401.2833333333334</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11654,11 +11674,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11668,7 +11684,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C317" t="n">
         <v>405</v>
@@ -11677,13 +11693,13 @@
         <v>405</v>
       </c>
       <c r="E317" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F317" t="n">
-        <v>989.5555000000001</v>
+        <v>2100</v>
       </c>
       <c r="G317" t="n">
-        <v>401.45</v>
+        <v>401.3666666666667</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11693,11 +11709,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11710,19 +11722,19 @@
         <v>405</v>
       </c>
       <c r="C318" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D318" t="n">
         <v>405</v>
       </c>
       <c r="E318" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F318" t="n">
-        <v>4860.9828</v>
+        <v>989.5555000000001</v>
       </c>
       <c r="G318" t="n">
-        <v>401.4833333333333</v>
+        <v>401.45</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11732,11 +11744,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11749,19 +11757,19 @@
         <v>405</v>
       </c>
       <c r="C319" t="n">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D319" t="n">
         <v>405</v>
       </c>
       <c r="E319" t="n">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F319" t="n">
-        <v>116</v>
+        <v>4860.9828</v>
       </c>
       <c r="G319" t="n">
-        <v>401.5666666666667</v>
+        <v>401.4833333333333</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11771,11 +11779,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11785,22 +11789,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C320" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D320" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E320" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F320" t="n">
-        <v>13.5467</v>
+        <v>116</v>
       </c>
       <c r="G320" t="n">
-        <v>401.6666666666667</v>
+        <v>401.5666666666667</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11810,11 +11814,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11836,10 +11836,10 @@
         <v>406</v>
       </c>
       <c r="F321" t="n">
-        <v>256.1421</v>
+        <v>13.5467</v>
       </c>
       <c r="G321" t="n">
-        <v>401.7833333333334</v>
+        <v>401.6666666666667</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11849,11 +11849,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11866,19 +11862,19 @@
         <v>406</v>
       </c>
       <c r="C322" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D322" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E322" t="n">
         <v>406</v>
       </c>
       <c r="F322" t="n">
-        <v>4675.2054</v>
+        <v>256.1421</v>
       </c>
       <c r="G322" t="n">
-        <v>401.9333333333333</v>
+        <v>401.7833333333334</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11888,11 +11884,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11902,22 +11894,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C323" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D323" t="n">
         <v>408</v>
       </c>
       <c r="E323" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F323" t="n">
-        <v>15391.6426</v>
+        <v>4675.2054</v>
       </c>
       <c r="G323" t="n">
-        <v>402.0666666666667</v>
+        <v>401.9333333333333</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11927,11 +11919,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11941,22 +11929,22 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C324" t="n">
         <v>407</v>
       </c>
       <c r="D324" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E324" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F324" t="n">
-        <v>6608.8341</v>
+        <v>15391.6426</v>
       </c>
       <c r="G324" t="n">
-        <v>402.2</v>
+        <v>402.0666666666667</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11966,11 +11954,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11992,10 +11976,10 @@
         <v>407</v>
       </c>
       <c r="F325" t="n">
-        <v>4480.7236</v>
+        <v>6608.8341</v>
       </c>
       <c r="G325" t="n">
-        <v>402.3333333333333</v>
+        <v>402.2</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -12005,11 +11989,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12025,30 +12005,26 @@
         <v>407</v>
       </c>
       <c r="D326" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E326" t="n">
         <v>407</v>
       </c>
       <c r="F326" t="n">
-        <v>3580</v>
+        <v>4480.7236</v>
       </c>
       <c r="G326" t="n">
-        <v>402.45</v>
+        <v>402.3333333333333</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12070,24 +12046,20 @@
         <v>407</v>
       </c>
       <c r="F327" t="n">
-        <v>11940</v>
+        <v>3580</v>
       </c>
       <c r="G327" t="n">
-        <v>402.5666666666667</v>
+        <v>402.45</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12103,30 +12075,26 @@
         <v>407</v>
       </c>
       <c r="D328" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E328" t="n">
         <v>407</v>
       </c>
       <c r="F328" t="n">
-        <v>1240</v>
+        <v>11940</v>
       </c>
       <c r="G328" t="n">
-        <v>402.7333333333333</v>
+        <v>402.5666666666667</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12136,36 +12104,32 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C329" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D329" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E329" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F329" t="n">
-        <v>3179.2336</v>
+        <v>1240</v>
       </c>
       <c r="G329" t="n">
-        <v>402.8333333333333</v>
+        <v>402.7333333333333</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12175,36 +12139,32 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C330" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D330" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E330" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F330" t="n">
-        <v>9417.201300000001</v>
+        <v>3179.2336</v>
       </c>
       <c r="G330" t="n">
-        <v>402.95</v>
+        <v>402.8333333333333</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12214,36 +12174,32 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C331" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D331" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E331" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F331" t="n">
-        <v>333.6207</v>
+        <v>9417.201300000001</v>
       </c>
       <c r="G331" t="n">
-        <v>403.05</v>
+        <v>402.95</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12253,36 +12209,32 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C332" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D332" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E332" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F332" t="n">
-        <v>2451.3928</v>
+        <v>333.6207</v>
       </c>
       <c r="G332" t="n">
-        <v>403.1666666666667</v>
+        <v>403.05</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12295,19 +12247,19 @@
         <v>407</v>
       </c>
       <c r="C333" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D333" t="n">
         <v>407</v>
       </c>
       <c r="E333" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F333" t="n">
-        <v>7393.0548</v>
+        <v>2451.3928</v>
       </c>
       <c r="G333" t="n">
-        <v>403.2666666666667</v>
+        <v>403.1666666666667</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12317,11 +12269,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12334,19 +12282,19 @@
         <v>407</v>
       </c>
       <c r="C334" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D334" t="n">
         <v>407</v>
       </c>
       <c r="E334" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F334" t="n">
-        <v>1428.9776</v>
+        <v>7393.0548</v>
       </c>
       <c r="G334" t="n">
-        <v>403.3833333333333</v>
+        <v>403.2666666666667</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -12356,11 +12304,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12370,22 +12314,22 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C335" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D335" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E335" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F335" t="n">
-        <v>4.4656</v>
+        <v>1428.9776</v>
       </c>
       <c r="G335" t="n">
-        <v>403.5333333333334</v>
+        <v>403.3833333333333</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12395,11 +12339,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12409,22 +12349,22 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C336" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D336" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E336" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F336" t="n">
-        <v>5000</v>
+        <v>4.4656</v>
       </c>
       <c r="G336" t="n">
-        <v>403.65</v>
+        <v>403.5333333333334</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12434,11 +12374,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12448,7 +12384,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C337" t="n">
         <v>407</v>
@@ -12457,13 +12393,13 @@
         <v>407</v>
       </c>
       <c r="E337" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F337" t="n">
-        <v>1057.125</v>
+        <v>5000</v>
       </c>
       <c r="G337" t="n">
-        <v>403.7666666666667</v>
+        <v>403.65</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12473,11 +12409,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12487,22 +12419,22 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C338" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D338" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E338" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F338" t="n">
-        <v>1.18</v>
+        <v>1057.125</v>
       </c>
       <c r="G338" t="n">
-        <v>403.9</v>
+        <v>403.7666666666667</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12512,11 +12444,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12526,22 +12454,22 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C339" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D339" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E339" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F339" t="n">
-        <v>661.5767</v>
+        <v>1.18</v>
       </c>
       <c r="G339" t="n">
-        <v>404.0166666666667</v>
+        <v>403.9</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12551,11 +12479,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12565,22 +12489,22 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C340" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D340" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E340" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F340" t="n">
-        <v>239</v>
+        <v>661.5767</v>
       </c>
       <c r="G340" t="n">
-        <v>404.15</v>
+        <v>404.0166666666667</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12590,11 +12514,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12616,10 +12536,10 @@
         <v>408</v>
       </c>
       <c r="F341" t="n">
-        <v>1628</v>
+        <v>239</v>
       </c>
       <c r="G341" t="n">
-        <v>404.2666666666667</v>
+        <v>404.15</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12629,11 +12549,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12643,7 +12559,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C342" t="n">
         <v>408</v>
@@ -12652,13 +12568,13 @@
         <v>408</v>
       </c>
       <c r="E342" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F342" t="n">
-        <v>1298.9999</v>
+        <v>1628</v>
       </c>
       <c r="G342" t="n">
-        <v>404.4166666666667</v>
+        <v>404.2666666666667</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12668,11 +12584,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12682,7 +12594,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C343" t="n">
         <v>408</v>
@@ -12691,13 +12603,13 @@
         <v>408</v>
       </c>
       <c r="E343" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F343" t="n">
-        <v>2864</v>
+        <v>1298.9999</v>
       </c>
       <c r="G343" t="n">
-        <v>404.5666666666667</v>
+        <v>404.4166666666667</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12707,11 +12619,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12733,10 +12641,10 @@
         <v>408</v>
       </c>
       <c r="F344" t="n">
-        <v>600.0194</v>
+        <v>2864</v>
       </c>
       <c r="G344" t="n">
-        <v>404.7166666666666</v>
+        <v>404.5666666666667</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12746,11 +12654,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12760,22 +12664,22 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C345" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D345" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E345" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F345" t="n">
-        <v>5052.5133</v>
+        <v>600.0194</v>
       </c>
       <c r="G345" t="n">
-        <v>404.8166666666667</v>
+        <v>404.7166666666666</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12785,11 +12689,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12799,7 +12699,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C346" t="n">
         <v>407</v>
@@ -12808,13 +12708,13 @@
         <v>407</v>
       </c>
       <c r="E346" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F346" t="n">
-        <v>891.3953</v>
+        <v>5052.5133</v>
       </c>
       <c r="G346" t="n">
-        <v>404.9166666666667</v>
+        <v>404.8166666666667</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12824,11 +12724,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12838,22 +12734,22 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C347" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D347" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E347" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F347" t="n">
-        <v>1404.772</v>
+        <v>891.3953</v>
       </c>
       <c r="G347" t="n">
-        <v>405.05</v>
+        <v>404.9166666666667</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12863,11 +12759,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12889,10 +12781,10 @@
         <v>408</v>
       </c>
       <c r="F348" t="n">
-        <v>777.0146999999999</v>
+        <v>1404.772</v>
       </c>
       <c r="G348" t="n">
-        <v>405.15</v>
+        <v>405.05</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -12902,11 +12794,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12928,10 +12816,10 @@
         <v>408</v>
       </c>
       <c r="F349" t="n">
-        <v>874.1433</v>
+        <v>777.0146999999999</v>
       </c>
       <c r="G349" t="n">
-        <v>405.3</v>
+        <v>405.15</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -12941,11 +12829,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12967,10 +12851,10 @@
         <v>408</v>
       </c>
       <c r="F350" t="n">
-        <v>872.506</v>
+        <v>874.1433</v>
       </c>
       <c r="G350" t="n">
-        <v>405.4333333333333</v>
+        <v>405.3</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -12980,11 +12864,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12994,22 +12874,22 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C351" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D351" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E351" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F351" t="n">
-        <v>464.6079</v>
+        <v>872.506</v>
       </c>
       <c r="G351" t="n">
-        <v>405.5333333333334</v>
+        <v>405.4333333333333</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -13019,11 +12899,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13033,22 +12909,22 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C352" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D352" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E352" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F352" t="n">
-        <v>304.0662</v>
+        <v>464.6079</v>
       </c>
       <c r="G352" t="n">
-        <v>405.6166666666667</v>
+        <v>405.5333333333334</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -13058,11 +12934,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13075,19 +12947,19 @@
         <v>407</v>
       </c>
       <c r="C353" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D353" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E353" t="n">
         <v>407</v>
       </c>
       <c r="F353" t="n">
-        <v>13253.3169</v>
+        <v>304.0662</v>
       </c>
       <c r="G353" t="n">
-        <v>405.7333333333333</v>
+        <v>405.6166666666667</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -13097,11 +12969,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13111,22 +12979,22 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C354" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D354" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E354" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F354" t="n">
-        <v>4494.8298</v>
+        <v>13253.3169</v>
       </c>
       <c r="G354" t="n">
-        <v>405.85</v>
+        <v>405.7333333333333</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -13136,11 +13004,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13150,22 +13014,22 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C355" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D355" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E355" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F355" t="n">
-        <v>18835.1976</v>
+        <v>4494.8298</v>
       </c>
       <c r="G355" t="n">
-        <v>405.9666666666666</v>
+        <v>405.85</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -13175,11 +13039,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13189,7 +13049,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C356" t="n">
         <v>410</v>
@@ -13198,13 +13058,13 @@
         <v>410</v>
       </c>
       <c r="E356" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F356" t="n">
-        <v>9613.7657</v>
+        <v>18835.1976</v>
       </c>
       <c r="G356" t="n">
-        <v>406.1</v>
+        <v>405.9666666666666</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -13214,11 +13074,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13231,19 +13087,19 @@
         <v>410</v>
       </c>
       <c r="C357" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D357" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E357" t="n">
         <v>410</v>
       </c>
       <c r="F357" t="n">
-        <v>9575.1849</v>
+        <v>9613.7657</v>
       </c>
       <c r="G357" t="n">
-        <v>406.2166666666666</v>
+        <v>406.1</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -13253,11 +13109,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13267,65 +13119,63 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C358" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D358" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E358" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F358" t="n">
-        <v>136.0697</v>
+        <v>9575.1849</v>
       </c>
       <c r="G358" t="n">
-        <v>406.3</v>
+        <v>406.2166666666666</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
       </c>
       <c r="I358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
+      <c r="M358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C359" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D359" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E359" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F359" t="n">
-        <v>576.6449</v>
+        <v>136.0697</v>
       </c>
       <c r="G359" t="n">
-        <v>406.35</v>
+        <v>406.3</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
       </c>
       <c r="I359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
@@ -13339,22 +13189,22 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C360" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D360" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E360" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F360" t="n">
-        <v>500</v>
+        <v>576.6449</v>
       </c>
       <c r="G360" t="n">
-        <v>406.3833333333333</v>
+        <v>406.35</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -13386,10 +13236,10 @@
         <v>407</v>
       </c>
       <c r="F361" t="n">
-        <v>1510.376</v>
+        <v>500</v>
       </c>
       <c r="G361" t="n">
-        <v>406.4166666666667</v>
+        <v>406.3833333333333</v>
       </c>
       <c r="H361" t="n">
         <v>0</v>
@@ -13409,22 +13259,22 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C362" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D362" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E362" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F362" t="n">
-        <v>110.2753</v>
+        <v>1510.376</v>
       </c>
       <c r="G362" t="n">
-        <v>406.45</v>
+        <v>406.4166666666667</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -13456,7 +13306,7 @@
         <v>405</v>
       </c>
       <c r="F363" t="n">
-        <v>473.6126</v>
+        <v>110.2753</v>
       </c>
       <c r="G363" t="n">
         <v>406.45</v>
@@ -13479,22 +13329,22 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C364" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D364" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E364" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F364" t="n">
-        <v>2288.7791</v>
+        <v>473.6126</v>
       </c>
       <c r="G364" t="n">
-        <v>406.5</v>
+        <v>406.45</v>
       </c>
       <c r="H364" t="n">
         <v>0</v>
@@ -13514,22 +13364,22 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C365" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D365" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E365" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F365" t="n">
-        <v>222.5461</v>
+        <v>2288.7791</v>
       </c>
       <c r="G365" t="n">
-        <v>406.5333333333334</v>
+        <v>406.5</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -13561,10 +13411,10 @@
         <v>405</v>
       </c>
       <c r="F366" t="n">
-        <v>370.7857</v>
+        <v>222.5461</v>
       </c>
       <c r="G366" t="n">
-        <v>406.55</v>
+        <v>406.5333333333334</v>
       </c>
       <c r="H366" t="n">
         <v>0</v>
@@ -13596,10 +13446,10 @@
         <v>405</v>
       </c>
       <c r="F367" t="n">
-        <v>3325</v>
+        <v>370.7857</v>
       </c>
       <c r="G367" t="n">
-        <v>406.5666666666667</v>
+        <v>406.55</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -13631,10 +13481,10 @@
         <v>405</v>
       </c>
       <c r="F368" t="n">
-        <v>2526.7771</v>
+        <v>3325</v>
       </c>
       <c r="G368" t="n">
-        <v>406.5833333333333</v>
+        <v>406.5666666666667</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -13654,19 +13504,19 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C369" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D369" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E369" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F369" t="n">
-        <v>2374.0156</v>
+        <v>2526.7771</v>
       </c>
       <c r="G369" t="n">
         <v>406.5833333333333</v>
@@ -13689,22 +13539,22 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C370" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D370" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E370" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F370" t="n">
-        <v>100.0005</v>
+        <v>2374.0156</v>
       </c>
       <c r="G370" t="n">
-        <v>406.6333333333333</v>
+        <v>406.5833333333333</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
@@ -13736,10 +13586,10 @@
         <v>405</v>
       </c>
       <c r="F371" t="n">
-        <v>955.9004</v>
+        <v>100.0005</v>
       </c>
       <c r="G371" t="n">
-        <v>406.6833333333333</v>
+        <v>406.6333333333333</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -13771,7 +13621,7 @@
         <v>405</v>
       </c>
       <c r="F372" t="n">
-        <v>350</v>
+        <v>955.9004</v>
       </c>
       <c r="G372" t="n">
         <v>406.6833333333333</v>
@@ -13789,6 +13639,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>405</v>
+      </c>
+      <c r="C373" t="n">
+        <v>405</v>
+      </c>
+      <c r="D373" t="n">
+        <v>405</v>
+      </c>
+      <c r="E373" t="n">
+        <v>405</v>
+      </c>
+      <c r="F373" t="n">
+        <v>350</v>
+      </c>
+      <c r="G373" t="n">
+        <v>406.6833333333333</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
+      <c r="M373" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-14 BackTest MTL.xlsx
+++ b/BackTest/2019-10-14 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-36321.18947616</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-48101.08727078</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-46730.19027078</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-54224.74027078001</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-54224.74027078001</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-8972.23207078001</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8972.23207078001</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-9572.23207078001</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-7917.48207078001</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>3691.62527244999</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3444.39417244999</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>11702.68487244999</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>22151.93287244999</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>17865.47487244999</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>15001.19717244999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>16073.54027244999</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>16073.54027244999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>11152.28947244999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>11063.42887244999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1018.550627550008</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1041.800327550008</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-844.5308275500084</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-844.5308275500084</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-844.5308275500084</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3286.425672449991</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3286.425672449991</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>5809.182272449992</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>5769.782872449991</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>5769.782872449991</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>492.1511724499915</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>493.1511724499915</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>379.6572724499915</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-23616.18282755</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-23620.32532755001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-23319.32532755001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-23319.32532755001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-25024.29312755001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-25024.29312755001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-25024.29312755001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-25483.15292755</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-25483.15292755</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-32742.46532755</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-32742.46532755</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-32532.04392755</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-32532.04392755</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-32863.68292755001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-32862.68292755001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-34862.68292755001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-64560.86850405001</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-64560.86850405001</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-64560.86850405001</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-68134.44970405001</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-72305.44970405001</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-72305.44970405001</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-72305.44970405001</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -7513,10 +7513,14 @@
         <v>-93410.77850405002</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>404</v>
+      </c>
+      <c r="J216" t="n">
+        <v>404</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
@@ -7549,8 +7553,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>404</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +7592,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>404</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8437,7 +8453,7 @@
         <v>-98439.63590405001</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8486,7 @@
         <v>-98130.59110405001</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8519,7 @@
         <v>-98130.59110405001</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8552,7 @@
         <v>-98130.59110405001</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8585,7 @@
         <v>-98130.59110405001</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8618,7 @@
         <v>-100100.00730405</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8651,7 @@
         <v>-95736.05400405002</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8734,10 +8750,14 @@
         <v>-106275.52570405</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>407</v>
+      </c>
+      <c r="J253" t="n">
+        <v>407</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8767,11 +8787,19 @@
         <v>-106317.12640405</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>408</v>
+      </c>
+      <c r="J254" t="n">
+        <v>407</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8828,19 @@
         <v>-106317.12640405</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>407</v>
+      </c>
+      <c r="J255" t="n">
+        <v>407</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,10 +8869,14 @@
         <v>-101252.78760405</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>407</v>
+      </c>
+      <c r="J256" t="n">
+        <v>407</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
@@ -8866,11 +8906,19 @@
         <v>-101252.78760405</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>408</v>
+      </c>
+      <c r="J257" t="n">
+        <v>407</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8947,19 @@
         <v>-101863.95640405</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>408</v>
+      </c>
+      <c r="J258" t="n">
+        <v>407</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8988,19 @@
         <v>-100577.10840405</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>407</v>
+      </c>
+      <c r="J259" t="n">
+        <v>407</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9029,19 @@
         <v>-101334.50740405</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>408</v>
+      </c>
+      <c r="J260" t="n">
+        <v>407</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9070,19 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>407</v>
+      </c>
+      <c r="J261" t="n">
+        <v>407</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9111,19 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>408</v>
+      </c>
+      <c r="J262" t="n">
+        <v>407</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9152,19 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>408</v>
+      </c>
+      <c r="J263" t="n">
+        <v>407</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9193,19 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>408</v>
+      </c>
+      <c r="J264" t="n">
+        <v>407</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9234,19 @@
         <v>-102382.36500405</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>408</v>
+      </c>
+      <c r="J265" t="n">
+        <v>407</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9275,19 @@
         <v>-101040.36510405</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>406</v>
+      </c>
+      <c r="J266" t="n">
+        <v>407</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9316,19 @@
         <v>-98302.98680405003</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>409</v>
+      </c>
+      <c r="J267" t="n">
+        <v>407</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9357,19 @@
         <v>-98340.64000405003</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>410</v>
+      </c>
+      <c r="J268" t="n">
+        <v>407</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9398,19 @@
         <v>-95768.70010405003</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>408</v>
+      </c>
+      <c r="J269" t="n">
+        <v>407</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9439,19 @@
         <v>-96702.12890405003</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>409</v>
+      </c>
+      <c r="J270" t="n">
+        <v>407</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9480,19 @@
         <v>-96702.12890405003</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>408</v>
+      </c>
+      <c r="J271" t="n">
+        <v>407</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9521,19 @@
         <v>-103086.75910405</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>408</v>
+      </c>
+      <c r="J272" t="n">
+        <v>407</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9562,19 @@
         <v>-103086.75910405</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>407</v>
+      </c>
+      <c r="J273" t="n">
+        <v>407</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,7 +9603,7 @@
         <v>-105662.26460405</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>407</v>
@@ -9435,7 +9611,11 @@
       <c r="J274" t="n">
         <v>407</v>
       </c>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,15 +9644,17 @@
         <v>-105662.26460405</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>406</v>
+      </c>
       <c r="J275" t="n">
         <v>407</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9503,9 +9685,11 @@
         <v>-105662.26460405</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>406</v>
+      </c>
       <c r="J276" t="n">
         <v>407</v>
       </c>
@@ -9542,9 +9726,11 @@
         <v>-109679.06460405</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>406</v>
+      </c>
       <c r="J277" t="n">
         <v>407</v>
       </c>
@@ -9581,9 +9767,11 @@
         <v>-39182.20200405004</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>405</v>
+      </c>
       <c r="J278" t="n">
         <v>407</v>
       </c>
@@ -9737,9 +9925,11 @@
         <v>-33849.67020405004</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>405</v>
+      </c>
       <c r="J282" t="n">
         <v>407</v>
       </c>
@@ -9776,9 +9966,11 @@
         <v>-33849.67020405004</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>406</v>
+      </c>
       <c r="J283" t="n">
         <v>407</v>
       </c>
@@ -9893,9 +10085,11 @@
         <v>-34349.67020405004</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>405</v>
+      </c>
       <c r="J286" t="n">
         <v>407</v>
       </c>
@@ -11492,11 +11686,9 @@
         <v>-71227.14180405003</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
         <v>407</v>
       </c>
@@ -11533,11 +11725,9 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
         <v>407</v>
       </c>
@@ -11574,11 +11764,9 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
         <v>407</v>
       </c>
@@ -11654,11 +11842,9 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
         <v>407</v>
       </c>
@@ -11695,11 +11881,9 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
         <v>407</v>
       </c>
@@ -11736,7 +11920,7 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>400</v>
@@ -11777,9 +11961,11 @@
         <v>-72129.99220405002</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>400</v>
+      </c>
       <c r="J334" t="n">
         <v>407</v>
       </c>
@@ -11816,7 +12002,7 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>399</v>
@@ -11857,9 +12043,11 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>400</v>
+      </c>
       <c r="J336" t="n">
         <v>407</v>
       </c>
@@ -11896,7 +12084,7 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>400</v>
@@ -11937,7 +12125,7 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>400</v>
@@ -11978,7 +12166,7 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>400</v>
@@ -12019,9 +12207,11 @@
         <v>-72120.99220405002</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>400</v>
+      </c>
       <c r="J340" t="n">
         <v>407</v>
       </c>
@@ -12058,11 +12248,9 @@
         <v>-74057.52650405002</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
         <v>407</v>
       </c>
@@ -12099,9 +12287,11 @@
         <v>-74057.52650405002</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>399</v>
+      </c>
       <c r="J342" t="n">
         <v>407</v>
       </c>
@@ -12138,9 +12328,11 @@
         <v>-74057.52650405002</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>399</v>
+      </c>
       <c r="J343" t="n">
         <v>407</v>
       </c>
@@ -12177,9 +12369,11 @@
         <v>-74046.51610405002</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>399</v>
+      </c>
       <c r="J344" t="n">
         <v>407</v>
       </c>
@@ -12216,7 +12410,7 @@
         <v>-74046.51610405002</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>401</v>
@@ -12257,11 +12451,9 @@
         <v>-78078.81290405002</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
         <v>407</v>
       </c>
@@ -12298,9 +12490,11 @@
         <v>-61578.22590405002</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>400</v>
+      </c>
       <c r="J347" t="n">
         <v>407</v>
       </c>
@@ -12337,11 +12531,9 @@
         <v>-78916.21840405001</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
         <v>407</v>
       </c>
@@ -12495,11 +12687,9 @@
         <v>-74899.83750405003</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
         <v>407</v>
       </c>
@@ -12536,9 +12726,11 @@
         <v>-74898.83750405003</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>401</v>
+      </c>
       <c r="J353" t="n">
         <v>407</v>
       </c>
@@ -12575,7 +12767,7 @@
         <v>-68474.48060405003</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>402</v>
@@ -13006,11 +13198,9 @@
         <v>-66187.28190405003</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>407</v>
       </c>
@@ -13086,11 +13276,9 @@
         <v>-66187.28190405003</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
         <v>407</v>
       </c>
@@ -13127,11 +13315,9 @@
         <v>-66187.28190405003</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
         <v>407</v>
       </c>
@@ -13168,7 +13354,7 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>404</v>
@@ -13209,7 +13395,7 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>402</v>
@@ -13250,7 +13436,7 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>402</v>
@@ -13291,7 +13477,7 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>405</v>
@@ -13332,7 +13518,7 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>405</v>
@@ -13373,7 +13559,7 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>404</v>
@@ -13414,7 +13600,7 @@
         <v>-64171.15740405003</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>404</v>
@@ -13455,11 +13641,9 @@
         <v>-64171.15740405003</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
         <v>407</v>
       </c>
@@ -13496,11 +13680,9 @@
         <v>-69032.14020405003</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
         <v>407</v>
       </c>
@@ -13537,11 +13719,9 @@
         <v>-68916.14020405003</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
         <v>407</v>
       </c>
@@ -13578,11 +13758,9 @@
         <v>-68902.59350405002</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
         <v>407</v>
       </c>
@@ -13619,11 +13797,9 @@
         <v>-68902.59350405002</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
         <v>407</v>
       </c>
@@ -13660,11 +13836,9 @@
         <v>-64227.38810405002</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
         <v>407</v>
       </c>
@@ -13701,11 +13875,9 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
         <v>407</v>
       </c>
@@ -13937,11 +14109,9 @@
         <v>-82798.26430405003</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
         <v>407</v>
       </c>
@@ -13978,11 +14148,9 @@
         <v>-73381.06300405003</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
         <v>407</v>
       </c>
@@ -14019,11 +14187,9 @@
         <v>-73714.68370405002</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
         <v>407</v>
       </c>
@@ -14060,11 +14226,9 @@
         <v>-71263.29090405002</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
         <v>407</v>
       </c>
@@ -14101,11 +14265,9 @@
         <v>-78656.34570405002</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
         <v>407</v>
       </c>
@@ -14454,7 +14616,7 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
@@ -14462,11 +14624,11 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L401" t="n">
-        <v>0.9974570024570025</v>
+        <v>1</v>
       </c>
       <c r="M401" t="inlineStr"/>
     </row>
@@ -14496,8 +14658,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>407</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14529,8 +14697,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>407</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14559,11 +14733,17 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>407</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14592,11 +14772,17 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>407</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14625,11 +14811,19 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>407</v>
+      </c>
+      <c r="J406" t="n">
+        <v>407</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14658,11 +14852,17 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>407</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14694,8 +14894,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>407</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14727,8 +14933,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>407</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14760,8 +14972,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>407</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14793,8 +15011,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>407</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14826,8 +15050,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>407</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14859,8 +15089,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>407</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14892,8 +15128,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>407</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14922,11 +15164,17 @@
         <v>-49869.23790405004</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>407</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14955,11 +15203,17 @@
         <v>-40294.05300405004</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>407</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14988,11 +15242,17 @@
         <v>-40430.12270405004</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>407</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15021,11 +15281,17 @@
         <v>-41006.76760405004</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>407</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15054,11 +15320,17 @@
         <v>-41506.76760405004</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>407</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15090,8 +15362,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>407</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15123,8 +15401,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>407</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15156,8 +15440,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>407</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15189,8 +15479,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>407</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15222,8 +15518,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>407</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15255,8 +15557,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>407</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15288,8 +15596,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>407</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15321,8 +15635,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>407</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15354,8 +15674,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>407</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15387,8 +15713,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>407</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15420,8 +15752,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>407</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15453,8 +15791,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>407</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15486,8 +15830,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>407</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15519,8 +15869,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>407</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15552,8 +15908,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>407</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15585,8 +15947,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>407</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15618,8 +15986,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>407</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15651,8 +16025,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>407</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15684,8 +16064,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>407</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15717,8 +16103,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>407</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15750,8 +16142,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>407</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15783,14 +16181,20 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>407</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
       <c r="M441" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest MTL.xlsx
+++ b/BackTest/2019-10-14 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-36321.18947616</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-36321.18947616</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-40255.85877616</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-47452.60977616</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-48438.36287616</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-48950.61677616</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-46251.81287616</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>11152.28947244999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>11063.42887244999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1018.550627550008</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1041.800327550008</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-844.5308275500084</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-844.5308275500084</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-844.5308275500084</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3286.425672449991</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3286.425672449991</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>5809.182272449992</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>5769.782872449991</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>5769.782872449991</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>492.1511724499915</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>493.1511724499915</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-23616.18282755</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-23620.32532755001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-23319.32532755001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-23319.32532755001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-25024.29312755001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-25024.29312755001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-25024.29312755001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-25483.15292755</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-25483.15292755</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-32742.46532755</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-32742.46532755</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-32532.04392755</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-32532.04392755</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-32863.68292755001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-32862.68292755001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-34862.68292755001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-68134.44970405001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-72305.44970405001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-65573.41780405001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-67944.21920405001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-67944.21920405001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-67570.84550405001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-67570.84550405001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -7513,14 +7513,10 @@
         <v>-93410.77850405002</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>404</v>
-      </c>
-      <c r="J216" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
@@ -7553,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>404</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7592,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>404</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8750,14 +8734,10 @@
         <v>-106275.52570405</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>407</v>
-      </c>
-      <c r="J253" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8787,19 +8767,11 @@
         <v>-106317.12640405</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>408</v>
-      </c>
-      <c r="J254" t="n">
-        <v>407</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8828,19 +8800,11 @@
         <v>-106317.12640405</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>407</v>
-      </c>
-      <c r="J255" t="n">
-        <v>407</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8869,14 +8833,10 @@
         <v>-101252.78760405</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>407</v>
-      </c>
-      <c r="J256" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
@@ -8906,19 +8866,11 @@
         <v>-101252.78760405</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>408</v>
-      </c>
-      <c r="J257" t="n">
-        <v>407</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8947,1196 +8899,974 @@
         <v>-101863.95640405</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>408</v>
-      </c>
-      <c r="J258" t="n">
-        <v>407</v>
-      </c>
-      <c r="K258" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>408</v>
+      </c>
+      <c r="C259" t="n">
+        <v>408</v>
+      </c>
+      <c r="D259" t="n">
+        <v>408</v>
+      </c>
+      <c r="E259" t="n">
+        <v>408</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1286.848</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-100577.10840405</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>407</v>
+      </c>
+      <c r="C260" t="n">
+        <v>407</v>
+      </c>
+      <c r="D260" t="n">
+        <v>407</v>
+      </c>
+      <c r="E260" t="n">
+        <v>407</v>
+      </c>
+      <c r="F260" t="n">
+        <v>757.399</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-101334.50740405</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>408</v>
+      </c>
+      <c r="C261" t="n">
+        <v>408</v>
+      </c>
+      <c r="D261" t="n">
+        <v>408</v>
+      </c>
+      <c r="E261" t="n">
+        <v>408</v>
+      </c>
+      <c r="F261" t="n">
+        <v>895.3911000000001</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-100439.11630405</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>408</v>
+      </c>
+      <c r="C262" t="n">
+        <v>408</v>
+      </c>
+      <c r="D262" t="n">
+        <v>408</v>
+      </c>
+      <c r="E262" t="n">
+        <v>408</v>
+      </c>
+      <c r="F262" t="n">
+        <v>85.2401</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-100439.11630405</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>409</v>
+      </c>
+      <c r="C263" t="n">
+        <v>408</v>
+      </c>
+      <c r="D263" t="n">
+        <v>409</v>
+      </c>
+      <c r="E263" t="n">
+        <v>407</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2292.7773</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-100439.11630405</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>408</v>
+      </c>
+      <c r="C264" t="n">
+        <v>408</v>
+      </c>
+      <c r="D264" t="n">
+        <v>408</v>
+      </c>
+      <c r="E264" t="n">
+        <v>408</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1247.3854</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-100439.11630405</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>408</v>
+      </c>
+      <c r="C265" t="n">
+        <v>406</v>
+      </c>
+      <c r="D265" t="n">
+        <v>408</v>
+      </c>
+      <c r="E265" t="n">
+        <v>406</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1943.2487</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-102382.36500405</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>408</v>
+      </c>
+      <c r="C266" t="n">
+        <v>409</v>
+      </c>
+      <c r="D266" t="n">
+        <v>409</v>
+      </c>
+      <c r="E266" t="n">
+        <v>408</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1341.9999</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-101040.36510405</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>407</v>
+      </c>
+      <c r="C267" t="n">
+        <v>410</v>
+      </c>
+      <c r="D267" t="n">
+        <v>410</v>
+      </c>
+      <c r="E267" t="n">
+        <v>407</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2737.3783</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-98302.98680405003</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>408</v>
+      </c>
+      <c r="C268" t="n">
+        <v>408</v>
+      </c>
+      <c r="D268" t="n">
+        <v>408</v>
+      </c>
+      <c r="E268" t="n">
+        <v>408</v>
+      </c>
+      <c r="F268" t="n">
+        <v>37.6532</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-98340.64000405003</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>409</v>
+      </c>
+      <c r="C269" t="n">
+        <v>409</v>
+      </c>
+      <c r="D269" t="n">
+        <v>409</v>
+      </c>
+      <c r="E269" t="n">
+        <v>409</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2571.9399</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-95768.70010405003</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>408</v>
+      </c>
+      <c r="C270" t="n">
+        <v>408</v>
+      </c>
+      <c r="D270" t="n">
+        <v>408</v>
+      </c>
+      <c r="E270" t="n">
+        <v>408</v>
+      </c>
+      <c r="F270" t="n">
+        <v>933.4288</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-96702.12890405003</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>408</v>
+      </c>
+      <c r="C271" t="n">
+        <v>408</v>
+      </c>
+      <c r="D271" t="n">
+        <v>408</v>
+      </c>
+      <c r="E271" t="n">
+        <v>408</v>
+      </c>
+      <c r="F271" t="n">
+        <v>350.2975</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-96702.12890405003</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>407</v>
+      </c>
+      <c r="C272" t="n">
+        <v>407</v>
+      </c>
+      <c r="D272" t="n">
+        <v>407</v>
+      </c>
+      <c r="E272" t="n">
+        <v>407</v>
+      </c>
+      <c r="F272" t="n">
+        <v>6384.6302</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-103086.75910405</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>406</v>
+      </c>
+      <c r="C273" t="n">
+        <v>407</v>
+      </c>
+      <c r="D273" t="n">
+        <v>407</v>
+      </c>
+      <c r="E273" t="n">
+        <v>406</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3103.1488</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-103086.75910405</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>406</v>
+      </c>
+      <c r="C274" t="n">
+        <v>406</v>
+      </c>
+      <c r="D274" t="n">
+        <v>406</v>
+      </c>
+      <c r="E274" t="n">
+        <v>406</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2575.5055</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-105662.26460405</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>406</v>
+      </c>
+      <c r="C275" t="n">
+        <v>406</v>
+      </c>
+      <c r="D275" t="n">
+        <v>406</v>
+      </c>
+      <c r="E275" t="n">
+        <v>405</v>
+      </c>
+      <c r="F275" t="n">
+        <v>8727.875700000001</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-105662.26460405</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>406</v>
+      </c>
+      <c r="C276" t="n">
+        <v>406</v>
+      </c>
+      <c r="D276" t="n">
+        <v>406</v>
+      </c>
+      <c r="E276" t="n">
+        <v>406</v>
+      </c>
+      <c r="F276" t="n">
+        <v>5066.2973</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-105662.26460405</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>406</v>
+      </c>
+      <c r="C277" t="n">
+        <v>405</v>
+      </c>
+      <c r="D277" t="n">
+        <v>406</v>
+      </c>
+      <c r="E277" t="n">
+        <v>405</v>
+      </c>
+      <c r="F277" t="n">
+        <v>4016.8</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-109679.06460405</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>405</v>
+      </c>
+      <c r="C278" t="n">
+        <v>406</v>
+      </c>
+      <c r="D278" t="n">
+        <v>406</v>
+      </c>
+      <c r="E278" t="n">
+        <v>403</v>
+      </c>
+      <c r="F278" t="n">
+        <v>70496.86259999999</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-39182.20200405004</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>404</v>
+      </c>
+      <c r="C279" t="n">
+        <v>404</v>
+      </c>
+      <c r="D279" t="n">
+        <v>404</v>
+      </c>
+      <c r="E279" t="n">
+        <v>404</v>
+      </c>
+      <c r="F279" t="n">
+        <v>6832.4957</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-46014.69770405004</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>404</v>
+      </c>
+      <c r="C280" t="n">
+        <v>404</v>
+      </c>
+      <c r="D280" t="n">
+        <v>404</v>
+      </c>
+      <c r="E280" t="n">
+        <v>404</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1034.1774</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-46014.69770405004</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>405</v>
+      </c>
+      <c r="C281" t="n">
+        <v>405</v>
+      </c>
+      <c r="D281" t="n">
+        <v>405</v>
+      </c>
+      <c r="E281" t="n">
+        <v>405</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-46013.69770405004</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>405</v>
+      </c>
+      <c r="C282" t="n">
+        <v>406</v>
+      </c>
+      <c r="D282" t="n">
+        <v>406</v>
+      </c>
+      <c r="E282" t="n">
+        <v>405</v>
+      </c>
+      <c r="F282" t="n">
+        <v>12164.0275</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-33849.67020405004</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>406</v>
+      </c>
+      <c r="C283" t="n">
+        <v>406</v>
+      </c>
+      <c r="D283" t="n">
+        <v>406</v>
+      </c>
+      <c r="E283" t="n">
+        <v>406</v>
+      </c>
+      <c r="F283" t="n">
+        <v>100.6178</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-33849.67020405004</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>405</v>
+      </c>
+      <c r="C284" t="n">
+        <v>405</v>
+      </c>
+      <c r="D284" t="n">
+        <v>405</v>
+      </c>
+      <c r="E284" t="n">
+        <v>405</v>
+      </c>
+      <c r="F284" t="n">
+        <v>500</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-34349.67020405004</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>405</v>
+      </c>
+      <c r="C285" t="n">
+        <v>405</v>
+      </c>
+      <c r="D285" t="n">
+        <v>405</v>
+      </c>
+      <c r="E285" t="n">
+        <v>405</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1621.3953</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-34349.67020405004</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>405</v>
+      </c>
+      <c r="C286" t="n">
+        <v>405</v>
+      </c>
+      <c r="D286" t="n">
+        <v>405</v>
+      </c>
+      <c r="E286" t="n">
+        <v>405</v>
+      </c>
+      <c r="F286" t="n">
+        <v>909.2791</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-34349.67020405004</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>405</v>
+      </c>
+      <c r="C287" t="n">
+        <v>406</v>
+      </c>
+      <c r="D287" t="n">
+        <v>406</v>
+      </c>
+      <c r="E287" t="n">
+        <v>405</v>
+      </c>
+      <c r="F287" t="n">
+        <v>3324.6619</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-31025.00830405004</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>405</v>
+      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>408</v>
-      </c>
-      <c r="C259" t="n">
-        <v>408</v>
-      </c>
-      <c r="D259" t="n">
-        <v>408</v>
-      </c>
-      <c r="E259" t="n">
-        <v>408</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1286.848</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-100577.10840405</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>407</v>
-      </c>
-      <c r="J259" t="n">
-        <v>407</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>407</v>
-      </c>
-      <c r="C260" t="n">
-        <v>407</v>
-      </c>
-      <c r="D260" t="n">
-        <v>407</v>
-      </c>
-      <c r="E260" t="n">
-        <v>407</v>
-      </c>
-      <c r="F260" t="n">
-        <v>757.399</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-101334.50740405</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>408</v>
-      </c>
-      <c r="J260" t="n">
-        <v>407</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>408</v>
-      </c>
-      <c r="C261" t="n">
-        <v>408</v>
-      </c>
-      <c r="D261" t="n">
-        <v>408</v>
-      </c>
-      <c r="E261" t="n">
-        <v>408</v>
-      </c>
-      <c r="F261" t="n">
-        <v>895.3911000000001</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-100439.11630405</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>407</v>
-      </c>
-      <c r="J261" t="n">
-        <v>407</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>408</v>
-      </c>
-      <c r="C262" t="n">
-        <v>408</v>
-      </c>
-      <c r="D262" t="n">
-        <v>408</v>
-      </c>
-      <c r="E262" t="n">
-        <v>408</v>
-      </c>
-      <c r="F262" t="n">
-        <v>85.2401</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-100439.11630405</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>408</v>
-      </c>
-      <c r="J262" t="n">
-        <v>407</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>409</v>
-      </c>
-      <c r="C263" t="n">
-        <v>408</v>
-      </c>
-      <c r="D263" t="n">
-        <v>409</v>
-      </c>
-      <c r="E263" t="n">
-        <v>407</v>
-      </c>
-      <c r="F263" t="n">
-        <v>2292.7773</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-100439.11630405</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>408</v>
-      </c>
-      <c r="J263" t="n">
-        <v>407</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>408</v>
-      </c>
-      <c r="C264" t="n">
-        <v>408</v>
-      </c>
-      <c r="D264" t="n">
-        <v>408</v>
-      </c>
-      <c r="E264" t="n">
-        <v>408</v>
-      </c>
-      <c r="F264" t="n">
-        <v>1247.3854</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-100439.11630405</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>408</v>
-      </c>
-      <c r="J264" t="n">
-        <v>407</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>408</v>
-      </c>
-      <c r="C265" t="n">
-        <v>406</v>
-      </c>
-      <c r="D265" t="n">
-        <v>408</v>
-      </c>
-      <c r="E265" t="n">
-        <v>406</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1943.2487</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-102382.36500405</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>408</v>
-      </c>
-      <c r="J265" t="n">
-        <v>407</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>408</v>
-      </c>
-      <c r="C266" t="n">
-        <v>409</v>
-      </c>
-      <c r="D266" t="n">
-        <v>409</v>
-      </c>
-      <c r="E266" t="n">
-        <v>408</v>
-      </c>
-      <c r="F266" t="n">
-        <v>1341.9999</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-101040.36510405</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>406</v>
-      </c>
-      <c r="J266" t="n">
-        <v>407</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>407</v>
-      </c>
-      <c r="C267" t="n">
-        <v>410</v>
-      </c>
-      <c r="D267" t="n">
-        <v>410</v>
-      </c>
-      <c r="E267" t="n">
-        <v>407</v>
-      </c>
-      <c r="F267" t="n">
-        <v>2737.3783</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-98302.98680405003</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>409</v>
-      </c>
-      <c r="J267" t="n">
-        <v>407</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>408</v>
-      </c>
-      <c r="C268" t="n">
-        <v>408</v>
-      </c>
-      <c r="D268" t="n">
-        <v>408</v>
-      </c>
-      <c r="E268" t="n">
-        <v>408</v>
-      </c>
-      <c r="F268" t="n">
-        <v>37.6532</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-98340.64000405003</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>410</v>
-      </c>
-      <c r="J268" t="n">
-        <v>407</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>409</v>
-      </c>
-      <c r="C269" t="n">
-        <v>409</v>
-      </c>
-      <c r="D269" t="n">
-        <v>409</v>
-      </c>
-      <c r="E269" t="n">
-        <v>409</v>
-      </c>
-      <c r="F269" t="n">
-        <v>2571.9399</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-95768.70010405003</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>408</v>
-      </c>
-      <c r="J269" t="n">
-        <v>407</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>408</v>
-      </c>
-      <c r="C270" t="n">
-        <v>408</v>
-      </c>
-      <c r="D270" t="n">
-        <v>408</v>
-      </c>
-      <c r="E270" t="n">
-        <v>408</v>
-      </c>
-      <c r="F270" t="n">
-        <v>933.4288</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-96702.12890405003</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>409</v>
-      </c>
-      <c r="J270" t="n">
-        <v>407</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>408</v>
-      </c>
-      <c r="C271" t="n">
-        <v>408</v>
-      </c>
-      <c r="D271" t="n">
-        <v>408</v>
-      </c>
-      <c r="E271" t="n">
-        <v>408</v>
-      </c>
-      <c r="F271" t="n">
-        <v>350.2975</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-96702.12890405003</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>408</v>
-      </c>
-      <c r="J271" t="n">
-        <v>407</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>407</v>
-      </c>
-      <c r="C272" t="n">
-        <v>407</v>
-      </c>
-      <c r="D272" t="n">
-        <v>407</v>
-      </c>
-      <c r="E272" t="n">
-        <v>407</v>
-      </c>
-      <c r="F272" t="n">
-        <v>6384.6302</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-103086.75910405</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>408</v>
-      </c>
-      <c r="J272" t="n">
-        <v>407</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>406</v>
-      </c>
-      <c r="C273" t="n">
-        <v>407</v>
-      </c>
-      <c r="D273" t="n">
-        <v>407</v>
-      </c>
-      <c r="E273" t="n">
-        <v>406</v>
-      </c>
-      <c r="F273" t="n">
-        <v>3103.1488</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-103086.75910405</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>407</v>
-      </c>
-      <c r="J273" t="n">
-        <v>407</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>406</v>
-      </c>
-      <c r="C274" t="n">
-        <v>406</v>
-      </c>
-      <c r="D274" t="n">
-        <v>406</v>
-      </c>
-      <c r="E274" t="n">
-        <v>406</v>
-      </c>
-      <c r="F274" t="n">
-        <v>2575.5055</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-105662.26460405</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>407</v>
-      </c>
-      <c r="J274" t="n">
-        <v>407</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>406</v>
-      </c>
-      <c r="C275" t="n">
-        <v>406</v>
-      </c>
-      <c r="D275" t="n">
-        <v>406</v>
-      </c>
-      <c r="E275" t="n">
-        <v>405</v>
-      </c>
-      <c r="F275" t="n">
-        <v>8727.875700000001</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-105662.26460405</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>406</v>
-      </c>
-      <c r="J275" t="n">
-        <v>407</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>406</v>
-      </c>
-      <c r="C276" t="n">
-        <v>406</v>
-      </c>
-      <c r="D276" t="n">
-        <v>406</v>
-      </c>
-      <c r="E276" t="n">
-        <v>406</v>
-      </c>
-      <c r="F276" t="n">
-        <v>5066.2973</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-105662.26460405</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>406</v>
-      </c>
-      <c r="J276" t="n">
-        <v>407</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>406</v>
-      </c>
-      <c r="C277" t="n">
-        <v>405</v>
-      </c>
-      <c r="D277" t="n">
-        <v>406</v>
-      </c>
-      <c r="E277" t="n">
-        <v>405</v>
-      </c>
-      <c r="F277" t="n">
-        <v>4016.8</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-109679.06460405</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>406</v>
-      </c>
-      <c r="J277" t="n">
-        <v>407</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>405</v>
-      </c>
-      <c r="C278" t="n">
-        <v>406</v>
-      </c>
-      <c r="D278" t="n">
-        <v>406</v>
-      </c>
-      <c r="E278" t="n">
-        <v>403</v>
-      </c>
-      <c r="F278" t="n">
-        <v>70496.86259999999</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-39182.20200405004</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>405</v>
-      </c>
-      <c r="J278" t="n">
-        <v>407</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>404</v>
-      </c>
-      <c r="C279" t="n">
-        <v>404</v>
-      </c>
-      <c r="D279" t="n">
-        <v>404</v>
-      </c>
-      <c r="E279" t="n">
-        <v>404</v>
-      </c>
-      <c r="F279" t="n">
-        <v>6832.4957</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-46014.69770405004</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>407</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>404</v>
-      </c>
-      <c r="C280" t="n">
-        <v>404</v>
-      </c>
-      <c r="D280" t="n">
-        <v>404</v>
-      </c>
-      <c r="E280" t="n">
-        <v>404</v>
-      </c>
-      <c r="F280" t="n">
-        <v>1034.1774</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-46014.69770405004</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>407</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>405</v>
-      </c>
-      <c r="C281" t="n">
-        <v>405</v>
-      </c>
-      <c r="D281" t="n">
-        <v>405</v>
-      </c>
-      <c r="E281" t="n">
-        <v>405</v>
-      </c>
-      <c r="F281" t="n">
-        <v>1</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-46013.69770405004</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>407</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>405</v>
-      </c>
-      <c r="C282" t="n">
-        <v>406</v>
-      </c>
-      <c r="D282" t="n">
-        <v>406</v>
-      </c>
-      <c r="E282" t="n">
-        <v>405</v>
-      </c>
-      <c r="F282" t="n">
-        <v>12164.0275</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-33849.67020405004</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>405</v>
-      </c>
-      <c r="J282" t="n">
-        <v>407</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>406</v>
-      </c>
-      <c r="C283" t="n">
-        <v>406</v>
-      </c>
-      <c r="D283" t="n">
-        <v>406</v>
-      </c>
-      <c r="E283" t="n">
-        <v>406</v>
-      </c>
-      <c r="F283" t="n">
-        <v>100.6178</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-33849.67020405004</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>406</v>
-      </c>
-      <c r="J283" t="n">
-        <v>407</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>405</v>
-      </c>
-      <c r="C284" t="n">
-        <v>405</v>
-      </c>
-      <c r="D284" t="n">
-        <v>405</v>
-      </c>
-      <c r="E284" t="n">
-        <v>405</v>
-      </c>
-      <c r="F284" t="n">
-        <v>500</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-34349.67020405004</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>407</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>405</v>
-      </c>
-      <c r="C285" t="n">
-        <v>405</v>
-      </c>
-      <c r="D285" t="n">
-        <v>405</v>
-      </c>
-      <c r="E285" t="n">
-        <v>405</v>
-      </c>
-      <c r="F285" t="n">
-        <v>1621.3953</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-34349.67020405004</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>407</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>405</v>
-      </c>
-      <c r="C286" t="n">
-        <v>405</v>
-      </c>
-      <c r="D286" t="n">
-        <v>405</v>
-      </c>
-      <c r="E286" t="n">
-        <v>405</v>
-      </c>
-      <c r="F286" t="n">
-        <v>909.2791</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-34349.67020405004</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>405</v>
-      </c>
-      <c r="J286" t="n">
-        <v>407</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>405</v>
-      </c>
-      <c r="C287" t="n">
-        <v>406</v>
-      </c>
-      <c r="D287" t="n">
-        <v>406</v>
-      </c>
-      <c r="E287" t="n">
-        <v>405</v>
-      </c>
-      <c r="F287" t="n">
-        <v>3324.6619</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-31025.00830405004</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>407</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10165,12 +9895,12 @@
         <v>-31025.00830405004</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>407</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>406</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10204,12 +9934,12 @@
         <v>-34096.39300405004</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>407</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>406</v>
+      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10243,12 +9973,12 @@
         <v>-33969.49520405004</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>407</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>404</v>
+      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10282,12 +10012,12 @@
         <v>-33969.49520405004</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>407</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>405</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10321,12 +10051,12 @@
         <v>-33712.49520405004</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>407</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>405</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10360,12 +10090,12 @@
         <v>-32962.49520405004</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>407</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>406</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10402,9 +10132,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>407</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10438,12 +10166,12 @@
         <v>-32812.49520405004</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>407</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>407</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10480,9 +10208,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>407</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10519,9 +10245,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>407</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10558,9 +10282,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>407</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10597,9 +10319,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>407</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10636,9 +10356,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>407</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10675,9 +10393,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>407</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10714,9 +10430,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>407</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10753,9 +10467,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>407</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10792,9 +10504,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>407</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10831,9 +10541,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>407</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10870,9 +10578,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>407</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10909,9 +10615,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>407</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10948,9 +10652,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>407</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10987,9 +10689,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>407</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,9 +10726,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>407</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11065,9 +10763,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>407</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11104,9 +10800,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>407</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11143,9 +10837,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>407</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11182,9 +10874,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>407</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11218,12 +10908,12 @@
         <v>-65994.70460405004</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>407</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>400</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11260,9 +10950,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>407</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11296,12 +10984,12 @@
         <v>-65994.70460405004</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>407</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>400</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11338,9 +11026,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>407</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11377,9 +11063,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>407</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11416,9 +11100,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>407</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11455,9 +11137,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>407</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11494,9 +11174,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>407</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11533,9 +11211,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>407</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11572,9 +11248,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>407</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11611,9 +11285,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>407</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11650,9 +11322,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>407</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11689,9 +11359,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>407</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11728,9 +11396,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>407</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11767,9 +11433,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>407</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11806,9 +11470,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>407</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11845,9 +11507,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>407</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11884,9 +11544,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>407</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11920,14 +11578,10 @@
         <v>-69829.99220405002</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>400</v>
-      </c>
-      <c r="J333" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11961,14 +11615,10 @@
         <v>-72129.99220405002</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>400</v>
-      </c>
-      <c r="J334" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12002,14 +11652,10 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>399</v>
-      </c>
-      <c r="J335" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12043,14 +11689,10 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>400</v>
-      </c>
-      <c r="J336" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12084,14 +11726,10 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>400</v>
-      </c>
-      <c r="J337" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12125,14 +11763,10 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>400</v>
-      </c>
-      <c r="J338" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12166,14 +11800,10 @@
         <v>-72121.99220405002</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>400</v>
-      </c>
-      <c r="J339" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12207,14 +11837,10 @@
         <v>-72120.99220405002</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>400</v>
-      </c>
-      <c r="J340" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12251,9 +11877,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>407</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12287,14 +11911,10 @@
         <v>-74057.52650405002</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>399</v>
-      </c>
-      <c r="J342" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12328,14 +11948,10 @@
         <v>-74057.52650405002</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>399</v>
-      </c>
-      <c r="J343" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12369,14 +11985,10 @@
         <v>-74046.51610405002</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>399</v>
-      </c>
-      <c r="J344" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12410,14 +12022,10 @@
         <v>-74046.51610405002</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>401</v>
-      </c>
-      <c r="J345" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12454,9 +12062,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>407</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12490,14 +12096,10 @@
         <v>-61578.22590405002</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>400</v>
-      </c>
-      <c r="J347" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12534,9 +12136,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>407</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12573,9 +12173,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>407</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,9 +12210,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>407</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12651,9 +12247,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>407</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12690,9 +12284,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>407</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12726,14 +12318,10 @@
         <v>-74898.83750405003</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>401</v>
-      </c>
-      <c r="J353" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12767,14 +12355,10 @@
         <v>-68474.48060405003</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>402</v>
-      </c>
-      <c r="J354" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12811,9 +12395,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>407</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12850,9 +12432,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>407</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12889,9 +12469,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>407</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12928,9 +12506,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>407</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12967,9 +12543,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>407</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13006,9 +12580,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>407</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13045,9 +12617,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>407</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13084,9 +12654,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>407</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13123,9 +12691,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>407</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,9 +12728,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>407</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,9 +12765,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>407</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13240,9 +12802,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>407</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13279,9 +12839,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>407</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13318,9 +12876,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>407</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13354,14 +12910,10 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>404</v>
-      </c>
-      <c r="J369" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13395,14 +12947,10 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>402</v>
-      </c>
-      <c r="J370" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13436,14 +12984,10 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>402</v>
-      </c>
-      <c r="J371" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13477,14 +13021,10 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>405</v>
-      </c>
-      <c r="J372" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13518,14 +13058,10 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>405</v>
-      </c>
-      <c r="J373" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13559,14 +13095,10 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>404</v>
-      </c>
-      <c r="J374" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13600,14 +13132,10 @@
         <v>-64171.15740405003</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>404</v>
-      </c>
-      <c r="J375" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13644,9 +13172,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>407</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,9 +13209,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>407</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13722,9 +13246,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>407</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13761,9 +13283,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>407</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13797,20 +13317,16 @@
         <v>-68902.59350405002</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>407</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="inlineStr"/>
     </row>
     <row r="381">
@@ -13836,17 +13352,11 @@
         <v>-64227.38810405002</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>407</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13875,17 +13385,11 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>407</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13914,17 +13418,11 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>407</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13953,17 +13451,11 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>407</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13992,17 +13484,11 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>407</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14031,17 +13517,11 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>407</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14070,17 +13550,11 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>407</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14109,17 +13583,11 @@
         <v>-82798.26430405003</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>407</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14148,17 +13616,11 @@
         <v>-73381.06300405003</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>407</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14187,17 +13649,11 @@
         <v>-73714.68370405002</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>407</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14226,17 +13682,11 @@
         <v>-71263.29090405002</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>407</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14265,17 +13715,11 @@
         <v>-78656.34570405002</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>407</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14304,17 +13748,11 @@
         <v>-77227.36810405002</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>407</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14343,17 +13781,11 @@
         <v>-77222.90250405003</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>407</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14382,17 +13814,11 @@
         <v>-82222.90250405003</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>407</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14421,17 +13847,11 @@
         <v>-82222.90250405003</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>407</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14460,17 +13880,11 @@
         <v>-82221.72250405003</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>407</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14499,17 +13913,11 @@
         <v>-82883.29920405004</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>407</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14538,17 +13946,11 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>407</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14577,17 +13979,11 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>407</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14616,17 +14012,11 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>407</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14655,17 +14045,11 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>407</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14694,17 +14078,11 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>407</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14733,17 +14111,11 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>407</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14772,17 +14144,11 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>407</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14811,19 +14177,11 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>407</v>
-      </c>
-      <c r="J406" t="n">
-        <v>407</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14852,17 +14210,11 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>407</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14891,17 +14243,11 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>407</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14930,17 +14276,11 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>407</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14969,17 +14309,11 @@
         <v>-86756.64840405005</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>407</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15011,14 +14345,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>407</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15050,14 +14378,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>407</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15086,17 +14408,11 @@
         <v>-68704.43550405004</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>407</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15125,17 +14441,11 @@
         <v>-49869.23790405004</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>407</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15164,17 +14474,11 @@
         <v>-49869.23790405004</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>407</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15206,14 +14510,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>407</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15245,14 +14543,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>407</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15284,14 +14576,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>407</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15323,14 +14609,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>407</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15362,14 +14642,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>407</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15401,14 +14675,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>407</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15437,17 +14705,11 @@
         <v>-41617.04290405004</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>407</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15476,17 +14738,11 @@
         <v>-39328.26380405004</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>407</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15518,14 +14774,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>407</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15554,17 +14804,11 @@
         <v>-39550.80990405004</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>407</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15596,14 +14840,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>407</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15635,14 +14873,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>407</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15674,14 +14906,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>407</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15713,14 +14939,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>407</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15752,14 +14972,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>407</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15791,14 +15005,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>407</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15830,14 +15038,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>407</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15869,14 +15071,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>407</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15908,14 +15104,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>407</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15947,14 +15137,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>407</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15986,14 +15170,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>407</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16025,14 +15203,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>407</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16064,14 +15236,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>407</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16103,14 +15269,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>407</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16142,14 +15302,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>407</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16181,20 +15335,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>407</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
       <c r="M441" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest MTL.xlsx
+++ b/BackTest/2019-10-14 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>-36321.18947616</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-36321.18947616</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-40255.85877616</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-47452.60977616</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-48438.36287616</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-48950.61677616</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-46251.81287616</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>11702.68487244999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>22151.93287244999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>17865.47487244999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>15001.19717244999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>16073.54027244999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>16073.54027244999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>11152.28947244999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>14144.78947244999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>11063.42887244999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1018.550627550008</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1041.800327550008</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-463.4810275500084</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-604.5308275500084</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-273.5743275500084</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>5769.782872449991</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-68134.44970405001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-72305.44970405001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-65573.41780405001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-67944.21920405001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-67944.21920405001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-67570.84550405001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-67570.84550405001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -8635,10 +8635,14 @@
         <v>-95736.05400405002</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>408</v>
+      </c>
+      <c r="J250" t="n">
+        <v>408</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8668,11 +8672,19 @@
         <v>-102453.21900405</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>409</v>
+      </c>
+      <c r="J251" t="n">
+        <v>408</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8713,19 @@
         <v>-106327.52570405</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>408</v>
+      </c>
+      <c r="J252" t="n">
+        <v>408</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,10 +8754,14 @@
         <v>-106275.52570405</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>407</v>
+      </c>
+      <c r="J253" t="n">
+        <v>407</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8767,11 +8791,19 @@
         <v>-106317.12640405</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>408</v>
+      </c>
+      <c r="J254" t="n">
+        <v>407</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8832,19 @@
         <v>-106317.12640405</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>407</v>
+      </c>
+      <c r="J255" t="n">
+        <v>407</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,10 +8873,14 @@
         <v>-101252.78760405</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>407</v>
+      </c>
+      <c r="J256" t="n">
+        <v>407</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
@@ -8866,11 +8910,19 @@
         <v>-101252.78760405</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>408</v>
+      </c>
+      <c r="J257" t="n">
+        <v>407</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8951,19 @@
         <v>-101863.95640405</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>408</v>
+      </c>
+      <c r="J258" t="n">
+        <v>407</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8992,19 @@
         <v>-100577.10840405</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>407</v>
+      </c>
+      <c r="J259" t="n">
+        <v>407</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9033,19 @@
         <v>-101334.50740405</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>408</v>
+      </c>
+      <c r="J260" t="n">
+        <v>407</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9074,19 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>407</v>
+      </c>
+      <c r="J261" t="n">
+        <v>407</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9115,19 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>408</v>
+      </c>
+      <c r="J262" t="n">
+        <v>407</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9156,19 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>408</v>
+      </c>
+      <c r="J263" t="n">
+        <v>407</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9197,19 @@
         <v>-100439.11630405</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>408</v>
+      </c>
+      <c r="J264" t="n">
+        <v>407</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9238,19 @@
         <v>-102382.36500405</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>408</v>
+      </c>
+      <c r="J265" t="n">
+        <v>407</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9279,19 @@
         <v>-101040.36510405</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>406</v>
+      </c>
+      <c r="J266" t="n">
+        <v>407</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9320,19 @@
         <v>-98302.98680405003</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>409</v>
+      </c>
+      <c r="J267" t="n">
+        <v>407</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9361,19 @@
         <v>-98340.64000405003</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>410</v>
+      </c>
+      <c r="J268" t="n">
+        <v>407</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9402,19 @@
         <v>-95768.70010405003</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>408</v>
+      </c>
+      <c r="J269" t="n">
+        <v>407</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9443,19 @@
         <v>-96702.12890405003</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>409</v>
+      </c>
+      <c r="J270" t="n">
+        <v>407</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9484,19 @@
         <v>-96702.12890405003</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>408</v>
+      </c>
+      <c r="J271" t="n">
+        <v>407</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9525,19 @@
         <v>-103086.75910405</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>408</v>
+      </c>
+      <c r="J272" t="n">
+        <v>407</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9566,19 @@
         <v>-103086.75910405</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>407</v>
+      </c>
+      <c r="J273" t="n">
+        <v>407</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9607,19 @@
         <v>-105662.26460405</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>407</v>
+      </c>
+      <c r="J274" t="n">
+        <v>407</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9648,19 @@
         <v>-105662.26460405</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>406</v>
+      </c>
+      <c r="J275" t="n">
+        <v>407</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9689,19 @@
         <v>-105662.26460405</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>406</v>
+      </c>
+      <c r="J276" t="n">
+        <v>407</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9730,19 @@
         <v>-109679.06460405</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>406</v>
+      </c>
+      <c r="J277" t="n">
+        <v>407</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9771,19 @@
         <v>-39182.20200405004</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>405</v>
+      </c>
+      <c r="J278" t="n">
+        <v>407</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9812,19 @@
         <v>-46014.69770405004</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>406</v>
+      </c>
+      <c r="J279" t="n">
+        <v>407</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9853,19 @@
         <v>-46014.69770405004</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>404</v>
+      </c>
+      <c r="J280" t="n">
+        <v>407</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9894,19 @@
         <v>-46013.69770405004</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>404</v>
+      </c>
+      <c r="J281" t="n">
+        <v>407</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +9938,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>407</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +9977,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>407</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +10016,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>407</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10055,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>407</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10094,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>407</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,15 +10130,15 @@
         <v>-31025.00830405004</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>405</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>407</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L287" t="n">
@@ -9895,12 +10169,12 @@
         <v>-31025.00830405004</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>406</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>407</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9934,12 +10208,12 @@
         <v>-34096.39300405004</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>406</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>407</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9973,12 +10247,12 @@
         <v>-33969.49520405004</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>404</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>407</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10012,12 +10286,12 @@
         <v>-33969.49520405004</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>405</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>407</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10051,12 +10325,12 @@
         <v>-33712.49520405004</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>405</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>407</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10090,12 +10364,12 @@
         <v>-32962.49520405004</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>406</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>407</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10132,7 +10406,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>407</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10166,12 +10442,12 @@
         <v>-32812.49520405004</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>407</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>407</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10208,7 +10484,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>407</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10245,7 +10523,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>407</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10282,7 +10562,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>407</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10319,7 +10601,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>407</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10356,7 +10640,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>407</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10393,7 +10679,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>407</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10430,7 +10718,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>407</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,7 +10757,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>407</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10504,7 +10796,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>407</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10541,7 +10835,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>407</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10578,7 +10874,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>407</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10615,7 +10913,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>407</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10652,7 +10952,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>407</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10689,7 +10991,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>407</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10726,7 +11030,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>407</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10763,7 +11069,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>407</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10800,7 +11108,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>407</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10837,7 +11147,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>407</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10874,7 +11186,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>407</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10908,12 +11222,12 @@
         <v>-65994.70460405004</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>400</v>
-      </c>
-      <c r="J315" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>407</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10950,7 +11264,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>407</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10984,12 +11300,12 @@
         <v>-65994.70460405004</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>400</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>407</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11026,7 +11342,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>407</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11063,7 +11381,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>407</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11100,7 +11420,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>407</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11137,7 +11459,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>407</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11174,7 +11498,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>407</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11211,7 +11537,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>407</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11248,7 +11576,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>407</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11285,7 +11615,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>407</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11322,7 +11654,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>407</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11359,7 +11693,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>407</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11396,7 +11732,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>407</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11433,7 +11771,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>407</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11470,7 +11810,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>407</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11507,7 +11849,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>407</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11544,7 +11888,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>407</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11581,7 +11927,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>407</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11618,7 +11966,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>407</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11655,7 +12005,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>407</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11692,7 +12044,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>407</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11729,7 +12083,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>407</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11766,7 +12122,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>407</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11803,7 +12161,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>407</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11840,7 +12200,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>407</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11877,7 +12239,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>407</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11914,7 +12278,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>407</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11951,7 +12317,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>407</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11988,7 +12356,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>407</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12025,7 +12395,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>407</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12062,7 +12434,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>407</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12099,7 +12473,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>407</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12136,7 +12512,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>407</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12173,7 +12551,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>407</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12210,7 +12590,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>407</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12247,7 +12629,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>407</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12284,7 +12668,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>407</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12321,7 +12707,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>407</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12358,7 +12746,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>407</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12395,7 +12785,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>407</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12432,7 +12824,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>407</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12469,7 +12863,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>407</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12506,7 +12902,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>407</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12543,7 +12941,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>407</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12580,7 +12980,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>407</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12617,7 +13019,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>407</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12654,7 +13058,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>407</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12691,7 +13097,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>407</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12728,7 +13136,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>407</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12765,7 +13175,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>407</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12802,7 +13214,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>407</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12839,7 +13253,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>407</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12873,10 +13289,14 @@
         <v>-66187.28190405003</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>404</v>
+      </c>
+      <c r="J368" t="n">
+        <v>407</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12910,10 +13330,14 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>404</v>
+      </c>
+      <c r="J369" t="n">
+        <v>407</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12947,10 +13371,14 @@
         <v>-69432.15740405003</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>402</v>
+      </c>
+      <c r="J370" t="n">
+        <v>407</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12984,10 +13412,14 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>402</v>
+      </c>
+      <c r="J371" t="n">
+        <v>407</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13021,10 +13453,14 @@
         <v>-65993.15740405003</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>405</v>
+      </c>
+      <c r="J372" t="n">
+        <v>407</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13058,10 +13494,14 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>405</v>
+      </c>
+      <c r="J373" t="n">
+        <v>407</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13095,10 +13535,14 @@
         <v>-66271.15740405003</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>404</v>
+      </c>
+      <c r="J374" t="n">
+        <v>407</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13132,10 +13576,14 @@
         <v>-64171.15740405003</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>404</v>
+      </c>
+      <c r="J375" t="n">
+        <v>407</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13169,10 +13617,14 @@
         <v>-64171.15740405003</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>405</v>
+      </c>
+      <c r="J376" t="n">
+        <v>407</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13209,7 +13661,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>407</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13243,10 +13697,14 @@
         <v>-68916.14020405003</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>402</v>
+      </c>
+      <c r="J378" t="n">
+        <v>407</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13283,7 +13741,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>407</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13317,16 +13777,20 @@
         <v>-68902.59350405002</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>407</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L380" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
       <c r="M380" t="inlineStr"/>
     </row>
     <row r="381">
@@ -13352,11 +13816,17 @@
         <v>-64227.38810405002</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>407</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13385,11 +13855,17 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>407</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13418,11 +13894,17 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>407</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13451,11 +13933,17 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>407</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13484,11 +13972,17 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>407</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13517,11 +14011,17 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>407</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13550,11 +14050,17 @@
         <v>-79619.03070405002</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>407</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13583,11 +14089,17 @@
         <v>-82798.26430405003</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>407</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13616,11 +14128,17 @@
         <v>-73381.06300405003</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>407</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13649,11 +14167,17 @@
         <v>-73714.68370405002</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>407</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13682,11 +14206,17 @@
         <v>-71263.29090405002</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>407</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13715,11 +14245,17 @@
         <v>-78656.34570405002</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>407</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13748,11 +14284,17 @@
         <v>-77227.36810405002</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>407</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13781,11 +14323,17 @@
         <v>-77222.90250405003</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>407</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13814,11 +14362,17 @@
         <v>-82222.90250405003</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>407</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13847,11 +14401,17 @@
         <v>-82222.90250405003</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>407</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13880,11 +14440,17 @@
         <v>-82221.72250405003</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>407</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13913,11 +14479,17 @@
         <v>-82883.29920405004</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>407</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13946,11 +14518,17 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>407</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13979,11 +14557,17 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>407</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14012,11 +14596,17 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>407</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14045,11 +14635,17 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>407</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14078,11 +14674,17 @@
         <v>-82644.29920405004</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>407</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14111,11 +14713,17 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>407</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14144,11 +14752,17 @@
         <v>-87696.81250405005</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>407</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14180,8 +14794,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>407</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14210,11 +14830,17 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>407</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14243,11 +14869,17 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>407</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14276,11 +14908,17 @@
         <v>-86292.04050405005</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>407</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14309,11 +14947,17 @@
         <v>-86756.64840405005</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>407</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14345,8 +14989,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>407</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14378,8 +15028,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>407</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14408,11 +15064,17 @@
         <v>-68704.43550405004</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>407</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14441,11 +15103,17 @@
         <v>-49869.23790405004</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>407</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14474,11 +15142,17 @@
         <v>-49869.23790405004</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>407</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14510,8 +15184,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>407</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14543,8 +15223,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>407</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14576,8 +15262,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>407</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14609,8 +15301,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>407</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14642,8 +15340,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>407</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14675,8 +15379,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>407</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14705,11 +15415,17 @@
         <v>-41617.04290405004</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>407</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14738,11 +15454,17 @@
         <v>-39328.26380405004</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>407</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14774,8 +15496,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>407</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14804,11 +15532,17 @@
         <v>-39550.80990405004</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>407</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14840,8 +15574,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>407</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14873,8 +15613,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>407</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14906,8 +15652,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>407</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14939,8 +15691,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>407</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14972,8 +15730,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>407</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15005,8 +15769,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>407</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15038,8 +15808,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>407</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15071,8 +15847,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>407</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15104,8 +15886,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>407</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15137,8 +15925,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>407</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15170,8 +15964,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>407</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15203,8 +16003,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>407</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15236,8 +16042,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>407</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15269,8 +16081,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>407</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15302,8 +16120,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>407</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15335,8 +16159,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>407</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
